--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{846B7D11-A531-42B2-B454-54CE6B457841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE11C9C-99ED-418A-9C36-44256C21F6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="784" xr2:uid="{45C79576-D266-44E4-9E44-3FFC5A94C2AF}"/>
   </bookViews>
@@ -24,18 +24,17 @@
     <sheet name="BCDTRTSY_freight" sheetId="33" r:id="rId9"/>
     <sheet name="Total_CargoDistance" sheetId="25" r:id="rId10"/>
     <sheet name="Total_CargoDistance_annual" sheetId="31" r:id="rId11"/>
-    <sheet name="KOTEMS" sheetId="26" r:id="rId12"/>
-    <sheet name="Road" sheetId="27" r:id="rId13"/>
-    <sheet name="Motobikes" sheetId="28" r:id="rId14"/>
-    <sheet name="aircraft" sheetId="29" r:id="rId15"/>
-    <sheet name="rail" sheetId="30" r:id="rId16"/>
-    <sheet name="ships" sheetId="34" r:id="rId17"/>
-    <sheet name="adjustments" sheetId="35" r:id="rId18"/>
-    <sheet name="SYFAFE-psgr" sheetId="16" r:id="rId19"/>
-    <sheet name="SYFAFE-frgt" sheetId="7" r:id="rId20"/>
+    <sheet name="Road" sheetId="27" r:id="rId12"/>
+    <sheet name="Motobikes" sheetId="28" r:id="rId13"/>
+    <sheet name="aircraft" sheetId="29" r:id="rId14"/>
+    <sheet name="rail" sheetId="30" r:id="rId15"/>
+    <sheet name="ships" sheetId="34" r:id="rId16"/>
+    <sheet name="SYFAFE-psgr" sheetId="16" r:id="rId17"/>
+    <sheet name="SYFAFE-frgt" sheetId="7" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="287">
   <si>
     <t>Notes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -761,10 +760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ships</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fuel Economy (passenger*miles/BTU)</t>
   </si>
   <si>
@@ -837,34 +832,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aircraft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TJ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>etc (elec, hydrogen, natural gas)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t># of vehicles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1024,51 +995,6 @@
   <si>
     <t>Total (BTU)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydrogen vs. Gasoline Efficiency</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>gasoline car efficiency</t>
-  </si>
-  <si>
-    <t>U.S. Department of Energy</t>
-  </si>
-  <si>
-    <t>hydrogen FCV efficiency</t>
-  </si>
-  <si>
-    <t>See "About" tab for full bibliographic details.</t>
-  </si>
-  <si>
-    <t>distance multiplier for hydrogen vehicles</t>
-  </si>
-  <si>
-    <t>Propane (LPG) vs. Gasoline Efficiency</t>
-  </si>
-  <si>
-    <t>reduction in efficiency for propane</t>
-  </si>
-  <si>
-    <t>https://www.sustainablebusinesstoolkit.com/lpg-vs-petrol-vehicles/</t>
-  </si>
-  <si>
-    <t>distance multiplier for propane vehicles</t>
-  </si>
-  <si>
-    <t>https://afdc.energy.gov/vehicles/propane.html</t>
-  </si>
-  <si>
-    <t>Perc Reduction in Fuel Use for Electricity</t>
-  </si>
-  <si>
-    <t>LDVs and motorbikes</t>
-  </si>
-  <si>
-    <t>For sources and calculations, see the variable trans/PTFURfE.</t>
   </si>
 </sst>
 </file>
@@ -1866,6 +1792,80 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="SYVbT_DV-Regis"/>
+      <sheetName val="BAADTbVT_DV-km"/>
+      <sheetName val="DV-CAGR"/>
+      <sheetName val="Rail2019-psgr"/>
+      <sheetName val="Rail2020-psgr"/>
+      <sheetName val="Rail2021-psgr"/>
+      <sheetName val="Rail2019-freight"/>
+      <sheetName val="Rail2020-freight"/>
+      <sheetName val="Rail2021-freight"/>
+      <sheetName val="BAADTbVT_Rail-CAGR"/>
+      <sheetName val="Rail-Cal"/>
+      <sheetName val="Air2019"/>
+      <sheetName val="Air2020"/>
+      <sheetName val="Air2021"/>
+      <sheetName val="Air-CAGR"/>
+      <sheetName val="Air-Cal"/>
+      <sheetName val="BAADTbVT_Ships-Cal psgr CAGR"/>
+      <sheetName val="Ships-freight CAGR"/>
+      <sheetName val="BCDTRtSY-psgr"/>
+      <sheetName val="BCDTRtSY-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="82">
+          <cell r="N82">
+            <v>2.5754463465193611E-2</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="N83">
+            <v>-4.5194730002432681E-2</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="N84">
+            <v>4.2610726525127429E-3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>2.3883468123093499E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2165,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F44B24-DE0E-4ECB-B35B-2DFD270C2A7C}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="B34" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2440,7 +2440,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="B39" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="B40" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -2553,22 +2553,22 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2606,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>197</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>197</v>
@@ -3072,7 +3072,7 @@
   <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3084,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -3193,127 +3193,127 @@
       </c>
       <c r="C2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!C2</f>
-        <v>151990221966.45084</v>
+        <v>157976818848.3703</v>
       </c>
       <c r="D2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!D2</f>
-        <v>149996577452.30823</v>
+        <v>162045427057.74814</v>
       </c>
       <c r="E2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!E2</f>
-        <v>148029083425.98877</v>
+        <v>166218820088.60861</v>
       </c>
       <c r="F2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!F2</f>
-        <v>146087396873.47537</v>
+        <v>170499696617.80826</v>
       </c>
       <c r="G2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!G2</f>
-        <v>144171179280.04053</v>
+        <v>174890824825.17819</v>
       </c>
       <c r="H2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!H2</f>
-        <v>142280096571.22937</v>
+        <v>179395044183.53583</v>
       </c>
       <c r="I2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!I2</f>
-        <v>140413819054.617</v>
+        <v>184015267294.79752</v>
       </c>
       <c r="J2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!J2</f>
-        <v>138572021362.32965</v>
+        <v>188754481773.37918</v>
       </c>
       <c r="K2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!K2</f>
-        <v>136754382394.31996</v>
+        <v>193615752178.10321</v>
       </c>
       <c r="L2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!L2</f>
-        <v>134960585262.38618</v>
+        <v>198602221993.86017</v>
       </c>
       <c r="M2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!M2</f>
-        <v>133190317234.92567</v>
+        <v>203717115664.30728</v>
       </c>
       <c r="N2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!N2</f>
-        <v>131443269682.41315</v>
+        <v>208963740676.9183</v>
       </c>
       <c r="O2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!O2</f>
-        <v>129719138023.59398</v>
+        <v>214345489701.73218</v>
       </c>
       <c r="P2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!P2</f>
-        <v>128017621672.38336</v>
+        <v>219865842785.18451</v>
       </c>
       <c r="Q2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!Q2</f>
-        <v>126338423985.46198</v>
+        <v>225528369600.43954</v>
       </c>
       <c r="R2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!R2</f>
-        <v>124681252210.55899</v>
+        <v>231336731755.67874</v>
       </c>
       <c r="S2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!S2</f>
-        <v>123045817435.41351</v>
+        <v>237294685161.83768</v>
       </c>
       <c r="T2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!T2</f>
-        <v>121431834537.40543</v>
+        <v>243406082461.32285</v>
       </c>
       <c r="U2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!U2</f>
-        <v>119839022133.84692</v>
+        <v>249674875519.27887</v>
       </c>
       <c r="V2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!V2</f>
-        <v>118267102532.92618</v>
+        <v>256105117979.01691</v>
       </c>
       <c r="W2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!W2</f>
-        <v>116715801685.29431</v>
+        <v>262700967883.25659</v>
       </c>
       <c r="X2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!X2</f>
-        <v>115184849136.28754</v>
+        <v>269466690362.87692</v>
       </c>
       <c r="Y2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!Y2</f>
-        <v>113673977978.77588</v>
+        <v>276406660394.91431</v>
       </c>
       <c r="Z2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!Z2</f>
-        <v>112182924806.63051</v>
+        <v>283525365631.59131</v>
       </c>
       <c r="AA2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AA2</f>
-        <v>110711429668.80132</v>
+        <v>290827409302.20581</v>
       </c>
       <c r="AB2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AB2</f>
-        <v>109259236023.9969</v>
+        <v>298317513189.75635</v>
       </c>
       <c r="AC2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AC2</f>
-        <v>107826090695.95906</v>
+        <v>306000520684.22937</v>
       </c>
       <c r="AD2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AD2</f>
-        <v>106411743829.32382</v>
+        <v>313881399914.52155</v>
       </c>
       <c r="AE2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AE2</f>
-        <v>105015948846.06163</v>
+        <v>321965246961.02393</v>
       </c>
       <c r="AF2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AF2</f>
-        <v>103638462402.48866</v>
+        <v>330257289150.9436</v>
       </c>
       <c r="AG2" s="88">
         <f>SUM(Total_CargoDistance!$B2:$H2)*BCDTRTSY_Passenger!AG2</f>
-        <v>102279044346.84227</v>
+        <v>338762888438.49542</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -3326,127 +3326,127 @@
       </c>
       <c r="C3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!C3</f>
-        <v>756411053719.70251</v>
+        <v>734201542757.33362</v>
       </c>
       <c r="D3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!D3</f>
-        <v>744072490194.35339</v>
+        <v>701019502265.04639</v>
       </c>
       <c r="E3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!E3</f>
-        <v>731935193095.66541</v>
+        <v>669337115133.73792</v>
       </c>
       <c r="F3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!F3</f>
-        <v>719995879369.3009</v>
+        <v>639086604934.6615</v>
       </c>
       <c r="G3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!G3</f>
-        <v>708251319514.04578</v>
+        <v>610203258376.46814</v>
       </c>
       <c r="H3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!H3</f>
-        <v>696698336708.25159</v>
+        <v>582625286867.53894</v>
       </c>
       <c r="I3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!I3</f>
-        <v>685333805950.52783</v>
+        <v>556293694334.97058</v>
       </c>
       <c r="J3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!J3</f>
-        <v>674154653214.45044</v>
+        <v>531152151017.44586</v>
       </c>
       <c r="K3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!K3</f>
-        <v>663157854617.05908</v>
+        <v>507146872962.00104</v>
       </c>
       <c r="L3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!L3</f>
-        <v>652340435600.91797</v>
+        <v>484226506966.9054</v>
       </c>
       <c r="M3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!M3</f>
-        <v>641699470129.51917</v>
+        <v>462342020724.51501</v>
       </c>
       <c r="N3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!N3</f>
-        <v>631232079895.80908</v>
+        <v>441446597929.09137</v>
       </c>
       <c r="O3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!O3</f>
-        <v>620935433543.62769</v>
+        <v>421495538125.1936</v>
       </c>
       <c r="P3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!P3</f>
-        <v>610806745901.84546</v>
+        <v>402446161082.39539</v>
       </c>
       <c r="Q3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!Q3</f>
-        <v>600843277230.99438</v>
+        <v>384257715491.76099</v>
       </c>
       <c r="R3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!R3</f>
-        <v>591042332482.18762</v>
+        <v>366891291788.75928</v>
       </c>
       <c r="S3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!S3</f>
-        <v>581401260568.12708</v>
+        <v>350309738916.12256</v>
       </c>
       <c r="T3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!T3</f>
-        <v>571917453646.0033</v>
+        <v>334477584848.58569</v>
       </c>
       <c r="U3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!U3</f>
-        <v>562588346412.0918</v>
+        <v>319360960709.4881</v>
       </c>
       <c r="V3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!V3</f>
-        <v>553411415407.85645</v>
+        <v>304927528316.90527</v>
       </c>
       <c r="W3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!W3</f>
-        <v>544384178337.37134</v>
+        <v>291146411004.3136</v>
       </c>
       <c r="X3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!X3</f>
-        <v>535504193395.87732</v>
+        <v>277988127567.79633</v>
       </c>
       <c r="Y3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!Y3</f>
-        <v>526769058609.29034</v>
+        <v>265424529198.48798</v>
       </c>
       <c r="Z3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!Z3</f>
-        <v>518176411184.48474</v>
+        <v>253428739265.33951</v>
       </c>
       <c r="AA3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AA3</f>
-        <v>509723926870.17377</v>
+        <v>241975095819.38556</v>
       </c>
       <c r="AB3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AB3</f>
-        <v>501409319328.21606</v>
+        <v>231039096696.51566</v>
       </c>
       <c r="AC3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AC3</f>
-        <v>493230339515.17676</v>
+        <v>220597347101.3107</v>
       </c>
       <c r="AD3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AD3</f>
-        <v>485184775073.97723</v>
+        <v>210627509559.81403</v>
       </c>
       <c r="AE3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AE3</f>
-        <v>477270449735.46777</v>
+        <v>201108256134.17343</v>
       </c>
       <c r="AF3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AF3</f>
-        <v>469485222729.76196</v>
+        <v>192019222796.92938</v>
       </c>
       <c r="AG3" s="88">
         <f>SUM(Total_CargoDistance!$B3:$H3)*BCDTRTSY_Passenger!AG3</f>
-        <v>461826988207.1734</v>
+        <v>183340965867.34518</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -3983,7 +3983,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1">
         <v>2019</v>
@@ -4092,127 +4092,127 @@
       </c>
       <c r="C10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!C2</f>
-        <v>31275975730.272732</v>
+        <v>31712560772.469147</v>
       </c>
       <c r="D10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!D2</f>
-        <v>30976835625.030174</v>
+        <v>31847690297.917866</v>
       </c>
       <c r="E10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!E2</f>
-        <v>30680556655.227047</v>
+        <v>31983395620.092022</v>
       </c>
       <c r="F10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!F2</f>
-        <v>30387111455.438717</v>
+        <v>32119679192.503292</v>
       </c>
       <c r="G10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!G2</f>
-        <v>30096472921.978073</v>
+        <v>32256543479.11795</v>
       </c>
       <c r="H10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!H2</f>
-        <v>29808614210.392105</v>
+        <v>32393990954.401413</v>
       </c>
       <c r="I10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!I2</f>
-        <v>29523508732.982479</v>
+        <v>32532024103.362957</v>
       </c>
       <c r="J10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!J2</f>
-        <v>29241130156.349758</v>
+        <v>32670645421.600681</v>
       </c>
       <c r="K10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!K2</f>
-        <v>28961452398.961197</v>
+        <v>32809857415.346607</v>
       </c>
       <c r="L10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!L2</f>
-        <v>28684449628.741726</v>
+        <v>32949662601.511986</v>
       </c>
       <c r="M10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!M2</f>
-        <v>28410096260.688011</v>
+        <v>33090063507.732811</v>
       </c>
       <c r="N10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!N2</f>
-        <v>28138366954.505333</v>
+        <v>33231062672.415516</v>
       </c>
       <c r="O10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!O2</f>
-        <v>27869236612.267056</v>
+        <v>33372662644.782883</v>
       </c>
       <c r="P10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!P2</f>
-        <v>27602680376.096497</v>
+        <v>33514865984.920097</v>
       </c>
       <c r="Q10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!Q2</f>
-        <v>27338673625.870956</v>
+        <v>33657675263.821068</v>
       </c>
       <c r="R10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!R2</f>
-        <v>27077191976.94772</v>
+        <v>33801093063.434891</v>
       </c>
       <c r="S10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!S2</f>
-        <v>26818211277.911781</v>
+        <v>33945121976.712532</v>
       </c>
       <c r="T10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!T2</f>
-        <v>26561707608.345158</v>
+        <v>34089764607.653713</v>
       </c>
       <c r="U10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!U2</f>
-        <v>26307657276.617489</v>
+        <v>34235023571.353985</v>
       </c>
       <c r="V10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!V2</f>
-        <v>26056036817.697796</v>
+        <v>34380901494.05201</v>
       </c>
       <c r="W10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!W2</f>
-        <v>25806822990.987167</v>
+        <v>34527401013.177055</v>
       </c>
       <c r="X10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!X2</f>
-        <v>25559992778.172173</v>
+        <v>34674524777.396645</v>
       </c>
       <c r="Y10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!Y2</f>
-        <v>25315523381.098793</v>
+        <v>34822275446.664482</v>
       </c>
       <c r="Z10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!Z2</f>
-        <v>25073392219.666721</v>
+        <v>34970655692.268532</v>
       </c>
       <c r="AA10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AA2</f>
-        <v>24833576929.743759</v>
+        <v>35119668196.879295</v>
       </c>
       <c r="AB10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AB2</f>
-        <v>24596055361.100185</v>
+        <v>35269315654.598335</v>
       </c>
       <c r="AC10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AC2</f>
-        <v>24360805575.3629</v>
+        <v>35419600771.006981</v>
       </c>
       <c r="AD10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AD2</f>
-        <v>24127805843.989082</v>
+        <v>35570526263.21524</v>
       </c>
       <c r="AE10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AE2</f>
-        <v>23897034646.259296</v>
+        <v>35722094859.910912</v>
       </c>
       <c r="AF10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AF2</f>
-        <v>23668470667.289719</v>
+        <v>35874309301.408951</v>
       </c>
       <c r="AG10" s="88">
         <f>SUM(Total_CargoDistance!$B10:$H10)*BCDTRTSY_freight!AG2</f>
-        <v>23442092796.063457</v>
+        <v>36027172339.700958</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -4225,127 +4225,127 @@
       </c>
       <c r="C11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!C3</f>
-        <v>417716071382.89642</v>
+        <v>423547019399.46954</v>
       </c>
       <c r="D11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!D3</f>
-        <v>421804560143.80713</v>
+        <v>433662791135.92804</v>
       </c>
       <c r="E11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!E3</f>
-        <v>425933065895.90692</v>
+        <v>444020162584.19476</v>
       </c>
       <c r="F11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!F3</f>
-        <v>430101980314.37891</v>
+        <v>454624903983.28516</v>
       </c>
       <c r="G11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!G3</f>
-        <v>434311698908.01398</v>
+        <v>465482923385.53436</v>
       </c>
       <c r="H11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!H3</f>
-        <v>438562621056.73297</v>
+        <v>476600269948.05713</v>
       </c>
       <c r="I11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!I3</f>
-        <v>442855150049.47644</v>
+        <v>487983137302.81934</v>
       </c>
       <c r="J11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!J3</f>
-        <v>447189693122.4649</v>
+        <v>499637867007.19843</v>
       </c>
       <c r="K11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!K3</f>
-        <v>451566661497.83386</v>
+        <v>511570952076.9552</v>
       </c>
       <c r="L11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!L3</f>
-        <v>455986470422.64667</v>
+        <v>523789040603.58575</v>
       </c>
       <c r="M11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!M3</f>
-        <v>460449539208.28943</v>
+        <v>536298939458.0672</v>
       </c>
       <c r="N11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!N3</f>
-        <v>464956291270.25159</v>
+        <v>549107618083.06281</v>
       </c>
       <c r="O11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!O3</f>
-        <v>469507154168.29553</v>
+        <v>562222212375.69751</v>
       </c>
       <c r="P11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!P3</f>
-        <v>474102559647.02008</v>
+        <v>575650028663.06763</v>
       </c>
       <c r="Q11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!Q3</f>
-        <v>478742943676.81964</v>
+        <v>589398547772.69983</v>
       </c>
       <c r="R11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!R3</f>
-        <v>483428746495.24609</v>
+        <v>603475429200.22668</v>
       </c>
       <c r="S11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!S3</f>
-        <v>488160412648.77362</v>
+        <v>617888515376.60046</v>
       </c>
       <c r="T11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!T3</f>
-        <v>492938391034.97406</v>
+        <v>632645836037.22302</v>
       </c>
       <c r="U11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!U3</f>
-        <v>497763134945.1037</v>
+        <v>647755612695.4259</v>
       </c>
       <c r="V11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!V3</f>
-        <v>502635102107.10748</v>
+        <v>663226263222.79199</v>
       </c>
       <c r="W11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!W3</f>
-        <v>507554754729.04449</v>
+        <v>679066406538.87195</v>
       </c>
       <c r="X11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!X3</f>
-        <v>512522559542.93762</v>
+        <v>695284867412.90674</v>
       </c>
       <c r="Y11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!Y3</f>
-        <v>517538987849.05292</v>
+        <v>711890681380.2323</v>
       </c>
       <c r="Z11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!Z3</f>
-        <v>522604515560.61267</v>
+        <v>728893099776.10437</v>
       </c>
       <c r="AA11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AA3</f>
-        <v>527719623248.94519</v>
+        <v>746301594889.74976</v>
       </c>
       <c r="AB11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AB3</f>
-        <v>532884796189.07758</v>
+        <v>764125865241.51294</v>
       </c>
       <c r="AC11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AC3</f>
-        <v>538100524405.77368</v>
+        <v>782375840986.03979</v>
       </c>
       <c r="AD11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AD3</f>
-        <v>543367302720.02374</v>
+        <v>801061689444.50842</v>
       </c>
       <c r="AE11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AE3</f>
-        <v>548685630795.98798</v>
+        <v>820193820768.98779</v>
       </c>
       <c r="AF11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AF3</f>
-        <v>554056013188.40088</v>
+        <v>839782893742.08203</v>
       </c>
       <c r="AG11" s="88">
         <f>SUM(Total_CargoDistance!$B11:$H11)*BCDTRTSY_freight!AG3</f>
-        <v>559478959390.43799</v>
+        <v>859839821715.09033</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -4896,141 +4896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F02F6F3-99FA-4638-950B-9DE155B9977A}">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2">
-        <v>397799</v>
-      </c>
-      <c r="E2">
-        <v>820355</v>
-      </c>
-      <c r="G2">
-        <v>153849</v>
-      </c>
-      <c r="I2">
-        <v>80604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3">
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4">
-        <v>24970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5">
-        <v>348</v>
-      </c>
-      <c r="E5">
-        <v>6327</v>
-      </c>
-      <c r="G5">
-        <v>38</v>
-      </c>
-      <c r="I5">
-        <v>5005</v>
-      </c>
-      <c r="J5">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6">
-        <v>5296</v>
-      </c>
-      <c r="E6">
-        <v>1844</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>53</v>
-      </c>
-      <c r="J6">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6436D46A-2949-41D8-A639-3AC1063F138A}">
   <dimension ref="B1:R485"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:I36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5056,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="2:18">
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>197</v>
@@ -5080,10 +4950,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="2:18">
@@ -5166,7 +5036,7 @@
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>197</v>
@@ -5192,7 +5062,7 @@
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C6" s="61">
         <f>C2*$K$2/SUM($K$2:$L$2)</f>
@@ -5225,7 +5095,7 @@
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C7" s="61">
         <f>C2*$L$2/SUM($K$2:$L$2)</f>
@@ -5258,7 +5128,7 @@
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C8" s="61">
         <f>C3*$K$3/SUM($K$3:$L$3)</f>
@@ -5291,7 +5161,7 @@
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C9" s="61">
         <f>C3*$L$3/SUM($K$3:$L$3)</f>
@@ -5332,7 +5202,7 @@
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>197</v>
@@ -5361,7 +5231,7 @@
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C12" s="75">
         <f>$L$12*C6/SUM($C$6:$I$7)</f>
@@ -5392,7 +5262,7 @@
         <v>99572330.865680054</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L12" s="78">
         <f>(246980201+16065637)*1000</f>
@@ -5401,7 +5271,7 @@
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C13" s="75">
         <f t="shared" ref="C13:I13" si="5">$L$12*C7/SUM($C$6:$I$7)</f>
@@ -5435,7 +5305,7 @@
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C14" s="75">
         <f>$L$14*C8/SUM($C$8:$I$9)</f>
@@ -5466,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L14" s="78">
         <f>(65018813+3959137)*1000</f>
@@ -5475,7 +5345,7 @@
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C15" s="75">
         <f t="shared" ref="C15:I15" si="7">$L$14*C9/SUM($C$8:$I$9)</f>
@@ -5540,7 +5410,7 @@
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>197</v>
@@ -5564,7 +5434,7 @@
         <v>7</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L17" s="76" t="s">
         <v>197</v>
@@ -5590,7 +5460,7 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C18" s="75">
         <f>C12/L18</f>
@@ -5621,7 +5491,7 @@
         <v>1061425.5502151162</v>
       </c>
       <c r="K18" s="77" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L18">
         <v>5.47</v>
@@ -5648,7 +5518,7 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C19" s="75">
         <f t="shared" ref="C19:I19" si="9">C13/L19</f>
@@ -5679,7 +5549,7 @@
         <v>592794.04780409567</v>
       </c>
       <c r="K19" s="77" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L19" s="74">
         <f>L18*P19/P18</f>
@@ -5709,7 +5579,7 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C20" s="75">
         <f t="shared" ref="C20:I20" si="11">C14/L20</f>
@@ -5740,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="77" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L20">
         <v>5.59</v>
@@ -5769,7 +5639,7 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C21" s="75">
         <f t="shared" ref="C21:I21" si="12">C15/L21</f>
@@ -5800,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="77" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L21" s="74">
         <f>L20*P21/P20</f>
@@ -5841,30 +5711,30 @@
       <c r="H22" s="75"/>
       <c r="I22" s="75"/>
       <c r="L22" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="R22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>197</v>
@@ -5888,7 +5758,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L23" s="76" t="s">
         <v>197</v>
@@ -5914,14 +5784,14 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C24" s="75">
-        <f>C18*L24</f>
+        <f t="shared" ref="C24:I27" si="13">C18*L24</f>
         <v>1914053833.0278852</v>
       </c>
       <c r="D24" s="75">
-        <f t="shared" ref="C24:I27" si="13">D18*M24</f>
+        <f t="shared" si="13"/>
         <v>1010635724.4903425</v>
       </c>
       <c r="E24" s="75">
@@ -5945,7 +5815,7 @@
         <v>150616285.57552499</v>
       </c>
       <c r="K24" s="77" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L24">
         <v>9.6</v>
@@ -5971,7 +5841,7 @@
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C25" s="75">
         <f t="shared" si="13"/>
@@ -6002,7 +5872,7 @@
         <v>84117475.383401185</v>
       </c>
       <c r="K25" s="77" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L25">
         <v>9.6</v>
@@ -6028,7 +5898,7 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C26" s="75">
         <f t="shared" si="13"/>
@@ -6059,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="77" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L26">
         <v>9.6</v>
@@ -6085,7 +5955,7 @@
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C27" s="75">
         <f t="shared" si="13"/>
@@ -6116,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="77" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L27">
         <v>9.6</v>
@@ -6153,7 +6023,7 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>197</v>
@@ -6177,12 +6047,12 @@
         <v>7</v>
       </c>
       <c r="K29" s="77" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C30" s="75">
         <f>C24/10^6*($K$31/$K$30)</f>
@@ -6219,7 +6089,7 @@
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C31" s="75">
         <f t="shared" ref="C31:I31" si="15">C25/10^6*($K$31/$K$30)</f>
@@ -6255,7 +6125,7 @@
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C32" s="75">
         <f t="shared" ref="C32:I32" si="16">C26/10^6*($K$31/$K$30)</f>
@@ -6286,9 +6156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:9">
       <c r="B33" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C33" s="75">
         <f t="shared" ref="C33:I33" si="17">C27/10^6*($K$31/$K$30)</f>
@@ -6319,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:9">
       <c r="B34" s="17"/>
       <c r="C34" s="75"/>
       <c r="D34" s="75"/>
@@ -6329,9 +6199,9 @@
       <c r="H34" s="75"/>
       <c r="I34" s="75"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:9">
       <c r="B35" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>197</v>
@@ -6355,9 +6225,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:9">
       <c r="B36" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C36" s="78">
         <f>C30*10^12/About!$C$48</f>
@@ -6387,14 +6257,10 @@
         <f>I30*10^12/About!$C$48</f>
         <v>177160060774.93964</v>
       </c>
-      <c r="K36" s="78">
-        <f>SUM(C36:I36)</f>
-        <v>628559355008094.88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C37" s="78">
         <f>C31*10^12/About!$C$48</f>
@@ -6425,9 +6291,9 @@
         <v>98941870689.576004</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:9">
       <c r="B38" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C38" s="78">
         <f>C32*10^12/About!$C$48</f>
@@ -6458,9 +6324,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:9">
       <c r="B39" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C39" s="78">
         <f>C33*10^12/About!$C$48</f>
@@ -6491,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:9">
       <c r="B40" s="17"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
@@ -6501,9 +6367,9 @@
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>197</v>
@@ -6527,9 +6393,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:9">
       <c r="B42" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C42" s="51">
         <f>IFERROR(Total_CargoDistance!B2/Road!C36, 0)</f>
@@ -6560,9 +6426,9 @@
         <v>2.212283607775526E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:9">
       <c r="B43" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C43" s="51">
         <f>IFERROR(Total_CargoDistance!B3/Road!C37, 0)</f>
@@ -6593,9 +6459,9 @@
         <v>1.9777313627970783E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:9">
       <c r="B44" s="17" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C44" s="51">
         <f>IFERROR(Total_CargoDistance!B10/Road!C38, 0)</f>
@@ -6626,9 +6492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:9">
       <c r="B45" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C45" s="51">
         <f>IFERROR(Total_CargoDistance!B11/Road!C39, 0)</f>
@@ -6659,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:9">
       <c r="B48" s="52" t="s">
         <v>22</v>
       </c>
@@ -11779,15 +11645,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52A0755-1F2B-475E-8560-806C9D429711}">
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11803,7 +11670,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B2">
         <v>2010</v>
@@ -11820,7 +11687,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B3" s="74">
         <v>557.6</v>
@@ -11836,12 +11703,12 @@
         <v>600.72777522506647</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B4" s="74">
         <v>1825474</v>
@@ -11885,7 +11752,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>197</v>
@@ -11977,7 +11844,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>197</v>
@@ -12057,7 +11924,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>197</v>
@@ -12154,12 +12021,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6036189F-B18D-4739-955D-1003D2A7928E}">
   <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12177,16 +12044,16 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="82" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D2" s="82" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -12205,10 +12072,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="83" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D4" s="84">
         <v>638200653</v>
@@ -12219,10 +12086,10 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="83" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D5" s="84">
         <v>0</v>
@@ -12233,10 +12100,10 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="83" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D6" s="84">
         <v>2148551</v>
@@ -12247,10 +12114,10 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="83" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D7" s="84">
         <v>383290</v>
@@ -12261,10 +12128,10 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="83" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D8" s="84">
         <v>2726262</v>
@@ -12275,10 +12142,10 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="83" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D9" s="84">
         <v>432497</v>
@@ -12289,10 +12156,10 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="83" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D10" s="84">
         <v>1734900</v>
@@ -12303,10 +12170,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="83" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D11" s="84">
         <v>7113263</v>
@@ -12317,10 +12184,10 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="83" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D12" s="84">
         <v>1056078</v>
@@ -12331,7 +12198,7 @@
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="26" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C14" s="81" t="s">
         <v>1</v>
@@ -12355,7 +12222,7 @@
         <v>7</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N14" t="s">
         <v>222</v>
@@ -12435,7 +12302,7 @@
     </row>
     <row r="18" spans="2:9" ht="30">
       <c r="B18" s="26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C18" s="81" t="s">
         <v>1</v>
@@ -12527,7 +12394,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>1</v>
@@ -12623,12 +12490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF7F156-5581-4F07-B244-400680D1D988}">
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12645,7 +12512,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="30">
       <c r="B2" s="26" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>1</v>
@@ -12671,7 +12538,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C3">
         <v>49336.66</v>
@@ -12685,7 +12552,7 @@
     </row>
     <row r="5" spans="2:9" ht="30">
       <c r="B5" s="26" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>1</v>
@@ -12741,26 +12608,26 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C9">
         <f>23590036002+5391749315</f>
         <v>28981785317</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <f>139531121+23968478</f>
         <v>163499599</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -12772,29 +12639,29 @@
         <v>4.7385102776335882E+18</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C13" s="15">
         <v>7357429858</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14">
         <v>28663738</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -12806,12 +12673,12 @@
         <v>2.1089144180308922E+17</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="45">
       <c r="B17" s="26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>1</v>
@@ -12863,7 +12730,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C21" s="81" t="s">
         <v>1</v>
@@ -12960,12 +12827,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0CB5DA-674C-4AF4-A2E5-75DB1C804D9C}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12982,7 +12849,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>197</v>
@@ -13008,7 +12875,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2" s="51">
         <f>Total_CargoDistance!B6</f>
@@ -13041,7 +12908,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="51">
         <f>Total_CargoDistance!B14</f>
@@ -13074,7 +12941,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>197</v>
@@ -13100,7 +12967,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="90">
         <f>IFERROR(ships!B2/'SYFAFE-psgr'!B6, 0)</f>
@@ -13133,7 +13000,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="90">
         <f>IFERROR(ships!B3/'SYFAFE-frgt'!B6, 0)</f>
@@ -13170,117 +13037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4156E1-CE07-4FD3-8C11-C943E0C7611A}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3">
-        <v>0.6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4">
-        <v>2.9999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="D8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11">
-        <v>0.68595041322314043</v>
-      </c>
-      <c r="D11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0.68881036513545346</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4067D83-20AB-4FAB-A0B4-0606C2D2E907}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -13306,7 +13063,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30">
       <c r="A1" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="81" t="s">
         <v>1</v>
@@ -13401,8 +13158,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="48">
-        <f>E4/(1-adjustments!$B$12)</f>
-        <v>2.05659800129969E-2</v>
+        <f>aircraft!C23</f>
+        <v>0</v>
       </c>
       <c r="C4" s="48">
         <f>aircraft!D23</f>
@@ -13425,8 +13182,8 @@
         <v>0</v>
       </c>
       <c r="H4" s="48">
-        <f>E4*adjustments!$B$4</f>
-        <v>1.9199759432628197E-2</v>
+        <f>aircraft!I23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -13458,8 +13215,8 @@
         <v>0</v>
       </c>
       <c r="H5" s="48">
-        <f>E5*adjustments!$B$4</f>
-        <v>1.6588237628957749E-2</v>
+        <f>rail!I22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -13467,8 +13224,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="48">
-        <f>E6/(1-adjustments!$B$12)</f>
-        <v>1.02207161101318E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="48">
         <v>0</v>
@@ -13486,8 +13242,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="48">
-        <f>E6*adjustments!$B$4</f>
-        <v>9.5417427430983083E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13495,8 +13250,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="48">
-        <f>D7/(1-adjustments!$B$12)</f>
-        <v>1.8103029084840444E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="48">
         <v>0</v>
@@ -13515,8 +13269,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="48">
-        <f>D7*adjustments!$B$4</f>
-        <v>1.6900425032561291E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -13559,6 +13312,257 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0129FB5-648C-4E52-AD9E-D750915002C8}">
+  <sheetPr>
+    <tabColor rgb="FF1F497D"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="48">
+        <f>Road!C44</f>
+        <v>1.9185271653600656E-5</v>
+      </c>
+      <c r="C2" s="48">
+        <f>Road!D44</f>
+        <v>1.3762562068887589E-4</v>
+      </c>
+      <c r="D2" s="48">
+        <f>Road!E44</f>
+        <v>7.4066882935860471E-5</v>
+      </c>
+      <c r="E2" s="48">
+        <f>Road!F44</f>
+        <v>1.0749560153660953E-4</v>
+      </c>
+      <c r="F2" s="48">
+        <f>Road!G44</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <f>Road!H44</f>
+        <v>1.3753680882406556E-4</v>
+      </c>
+      <c r="H2" s="48">
+        <f>Road!I44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="48">
+        <f>Road!C45</f>
+        <v>1.5005628221864591E-3</v>
+      </c>
+      <c r="C3" s="48">
+        <f>Road!D45</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="48">
+        <f>Road!E45</f>
+        <v>5.7930902879829681E-3</v>
+      </c>
+      <c r="E3" s="48">
+        <f>Road!F45</f>
+        <v>9.0540086396237816E-3</v>
+      </c>
+      <c r="F3" s="48">
+        <f>Road!G45</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <f>Road!H45</f>
+        <v>1.0609092351245585E-2</v>
+      </c>
+      <c r="H3" s="48">
+        <f>Road!I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="48">
+        <f>aircraft!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="48">
+        <f>aircraft!D24</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="48">
+        <f>aircraft!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="48">
+        <f>aircraft!F24</f>
+        <v>2.992789097910166E-2</v>
+      </c>
+      <c r="F4" s="48">
+        <f>aircraft!G24</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <f>aircraft!H24</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="48">
+        <f>aircraft!I24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="48">
+        <f>rail!C23</f>
+        <v>1.0021251453207708E-3</v>
+      </c>
+      <c r="C5" s="48">
+        <f>rail!D23</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="48">
+        <f>rail!E23</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="48">
+        <f>rail!F23</f>
+        <v>1.6108650602655154E-2</v>
+      </c>
+      <c r="F5" s="48">
+        <f>rail!G23</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <f>rail!H23</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="48">
+        <f>rail!I23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0</v>
+      </c>
+      <c r="D6" s="48">
+        <v>3.2499077185230334E-3</v>
+      </c>
+      <c r="E6" s="48">
+        <v>3.5853807852542999E-3</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="48">
+        <v>0</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0</v>
+      </c>
+      <c r="D7" s="48">
+        <f>Motobikes!D19</f>
+        <v>5.6334750108537641E-5</v>
+      </c>
+      <c r="E7" s="48">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <v>0</v>
+      </c>
+      <c r="H7" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="46"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13890,261 +13894,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0129FB5-648C-4E52-AD9E-D750915002C8}">
-  <sheetPr>
-    <tabColor rgb="FF1F497D"/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30">
-      <c r="A1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="48">
-        <f>Road!C44</f>
-        <v>1.9185271653600656E-5</v>
-      </c>
-      <c r="C2" s="48">
-        <f>Road!D44</f>
-        <v>1.3762562068887589E-4</v>
-      </c>
-      <c r="D2" s="48">
-        <f>Road!E44</f>
-        <v>7.4066882935860471E-5</v>
-      </c>
-      <c r="E2" s="48">
-        <f>Road!F44</f>
-        <v>1.0749560153660953E-4</v>
-      </c>
-      <c r="F2" s="48">
-        <f>Road!G44</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="48">
-        <f>Road!H44</f>
-        <v>1.3753680882406556E-4</v>
-      </c>
-      <c r="H2" s="48">
-        <f>E2*adjustments!$B$4</f>
-        <v>3.2248680460982855E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="48">
-        <f>Road!C45</f>
-        <v>1.5005628221864591E-3</v>
-      </c>
-      <c r="C3" s="48">
-        <f>Road!D45</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="48">
-        <f>Road!E45</f>
-        <v>5.7930902879829681E-3</v>
-      </c>
-      <c r="E3" s="48">
-        <f>Road!F45</f>
-        <v>9.0540086396237816E-3</v>
-      </c>
-      <c r="F3" s="48">
-        <f>Road!G45</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="48">
-        <f>Road!H45</f>
-        <v>1.0609092351245585E-2</v>
-      </c>
-      <c r="H3" s="48">
-        <f>E3*adjustments!$B$4</f>
-        <v>2.7162025918871339E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="48">
-        <f>E4/(1-adjustments!$B$12)</f>
-        <v>9.6172518702715024E-2</v>
-      </c>
-      <c r="C4" s="48">
-        <f>aircraft!D24</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="48">
-        <f>aircraft!E24</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="48">
-        <f>aircraft!F24</f>
-        <v>2.992789097910166E-2</v>
-      </c>
-      <c r="F4" s="48">
-        <f>aircraft!G24</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="48">
-        <f>aircraft!H24</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="48">
-        <f>E4*adjustments!$B$4</f>
-        <v>8.9783672937304965E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="48">
-        <f>rail!C23</f>
-        <v>1.0021251453207708E-3</v>
-      </c>
-      <c r="C5" s="48">
-        <f>rail!D23</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="48">
-        <f>rail!E23</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="48">
-        <f>rail!F23</f>
-        <v>1.6108650602655154E-2</v>
-      </c>
-      <c r="F5" s="48">
-        <f>rail!G23</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="48">
-        <f>rail!H23</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="48">
-        <f>E5*adjustments!$B$4</f>
-        <v>4.832595180796545E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="48">
-        <f>E6/(1-adjustments!$B$12)</f>
-        <v>1.1521530229677897E-2</v>
-      </c>
-      <c r="C6" s="48">
-        <v>0</v>
-      </c>
-      <c r="D6" s="48">
-        <v>3.2499077185230334E-3</v>
-      </c>
-      <c r="E6" s="48">
-        <v>3.5853807852542999E-3</v>
-      </c>
-      <c r="F6" s="48">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <f>E6*adjustments!$B$4</f>
-        <v>1.0756142355762898E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="48">
-        <f>D7/(1-adjustments!$B$12)</f>
-        <v>1.8103029084840444E-4</v>
-      </c>
-      <c r="C7" s="48">
-        <v>0</v>
-      </c>
-      <c r="D7" s="48">
-        <f>Motobikes!D19</f>
-        <v>5.6334750108537641E-5</v>
-      </c>
-      <c r="E7" s="48">
-        <v>0</v>
-      </c>
-      <c r="F7" s="48">
-        <v>0</v>
-      </c>
-      <c r="G7" s="48">
-        <v>0</v>
-      </c>
-      <c r="H7" s="48">
-        <f>D7*adjustments!$B$4</f>
-        <v>1.6900425032561291E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="46"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E193DCD-8FDE-471C-B6D0-7DB36A9716D9}">
   <dimension ref="A1:H15"/>
@@ -16005,7 +15754,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="60">
       <c r="A1" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="27">
         <v>2018</v>
@@ -16947,7 +16696,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="60">
       <c r="A1" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="28">
         <v>2019</v>
@@ -17855,14 +17604,14 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AG7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:33" ht="135">
       <c r="A1" s="26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" s="27">
         <v>2019</v>
@@ -17969,97 +17718,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="85">
-        <v>0.98688307386916851</v>
+        <f>B2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.0257544634651936</v>
       </c>
       <c r="D2" s="85">
-        <v>0.97393820148945875</v>
+        <f>C2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.0521722193187673</v>
       </c>
       <c r="E2" s="85">
-        <v>0.96116312604452669</v>
+        <f>D2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.079270350300304</v>
       </c>
       <c r="F2" s="85">
-        <v>0.94855562032052154</v>
+        <f>E2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.1070663791061799</v>
       </c>
       <c r="G2" s="85">
-        <v>0.93611348631779223</v>
+        <f>F2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.1355782797204141</v>
       </c>
       <c r="H2" s="85">
-        <v>0.92383455486768662</v>
+        <f>G2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.1648244890373409</v>
       </c>
       <c r="I2" s="85">
-        <v>0.91171668525437755</v>
+        <f>H2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.194823918783616</v>
       </c>
       <c r="J2" s="85">
-        <v>0.89975776484164938</v>
+        <f>I2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.2255959677472681</v>
       </c>
       <c r="K2" s="85">
-        <v>0.88795570870457941</v>
+        <f>J2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.2571605343217036</v>
       </c>
       <c r="L2" s="85">
-        <v>0.87630845926605128</v>
+        <f>K2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.2895380293727752</v>
       </c>
       <c r="M2" s="85">
-        <v>0.86481398593803571</v>
+        <f>L2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.322749389437234</v>
       </c>
       <c r="N2" s="85">
-        <v>0.85347028476757658</v>
+        <f>M2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.3568160902611024</v>
       </c>
       <c r="O2" s="85">
-        <v>0.84227537808742059</v>
+        <f>N2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.3917601606867187</v>
       </c>
       <c r="P2" s="85">
-        <v>0.83122731417122975</v>
+        <f>O2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.4276041968974369</v>
       </c>
       <c r="Q2" s="85">
-        <v>0.82032416689331622</v>
+        <f>P2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.4643713770291891</v>
       </c>
       <c r="R2" s="85">
-        <v>0.80956403539284072</v>
+        <f>Q2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.5020854761583626</v>
       </c>
       <c r="S2" s="85">
-        <v>0.79894504374241493</v>
+        <f>R2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.5407708816756811</v>
       </c>
       <c r="T2" s="85">
-        <v>0.78846534062105178</v>
+        <f>S2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.5804526090560316</v>
       </c>
       <c r="U2" s="85">
-        <v>0.77812309899140453</v>
+        <f>T2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.6211563180344351</v>
       </c>
       <c r="V2" s="85">
-        <v>0.76791651578124065</v>
+        <f>U2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.6629083291986206</v>
       </c>
       <c r="W2" s="85">
-        <v>0.75784381156909264</v>
+        <f>V2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.7057356410089326</v>
       </c>
       <c r="X2" s="85">
-        <v>0.74790323027403305</v>
+        <f>W2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.7496659472565759</v>
       </c>
       <c r="Y2" s="85">
-        <v>0.73809303884951827</v>
+        <f>X2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.7947276549714888</v>
       </c>
       <c r="Z2" s="85">
-        <v>0.72841152698124823</v>
+        <f>Y2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.8409499027914247</v>
       </c>
       <c r="AA2" s="85">
-        <v>0.71885700678898901</v>
+        <f>Z2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.8883625798041181</v>
       </c>
       <c r="AB2" s="85">
-        <v>0.70942781253230724</v>
+        <f>AA2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.9369963448747221</v>
       </c>
       <c r="AC2" s="85">
-        <v>0.70012230032016365</v>
+        <f>AB2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>1.9868826464710116</v>
       </c>
       <c r="AD2" s="85">
-        <v>0.69093884782431625</v>
+        <f>AC2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>2.0380537429991765</v>
       </c>
       <c r="AE2" s="85">
-        <v>0.68187585399648287</v>
+        <f>AD2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>2.0905427236633498</v>
       </c>
       <c r="AF2" s="85">
-        <v>0.67293173878921342</v>
+        <f>AE2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>2.1443835298623637</v>
       </c>
       <c r="AG2" s="85">
-        <v>0.66410494288042332</v>
+        <f>AF2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <v>2.1996109771375667</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -18070,97 +17850,128 @@
         <v>1</v>
       </c>
       <c r="C3" s="85">
-        <v>0.98368801795707062</v>
+        <f>B3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.95480526999756732</v>
       </c>
       <c r="D3" s="85">
-        <v>0.96764211667231004</v>
+        <f>C3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.91165310361512741</v>
       </c>
       <c r="E3" s="85">
-        <v>0.95185795584116917</v>
+        <f>D3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.87045118774136199</v>
       </c>
       <c r="F3" s="85">
-        <v>0.93633126595806859</v>
+        <f>E3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.8311113813310943</v>
       </c>
       <c r="G3" s="85">
-        <v>0.92105784716152728</v>
+        <f>F3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.79354952684988667</v>
       </c>
       <c r="H3" s="85">
-        <v>0.90603356809812929</v>
+        <f>G3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.75768527024034782</v>
       </c>
       <c r="I3" s="85">
-        <v>0.8912543648050214</v>
+        <f>H3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.72344188902501505</v>
       </c>
       <c r="J3" s="85">
-        <v>0.87671623961063949</v>
+        <f>I3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.69074612817807968</v>
       </c>
       <c r="K3" s="85">
-        <v>0.86241526005336622</v>
+        <f>J3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.65952804341484561</v>
       </c>
       <c r="L3" s="85">
-        <v>0.84834755781782745</v>
+        <f>K3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.62972085156367896</v>
       </c>
       <c r="M3" s="85">
-        <v>0.83450932768854003</v>
+        <f>L3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.60126078770035651</v>
       </c>
       <c r="N3" s="85">
-        <v>0.82089682652062745</v>
+        <f>M3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.57408696873918885</v>
       </c>
       <c r="O3" s="85">
-        <v>0.80750637222732524</v>
+        <f>N3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.54814126318910616</v>
       </c>
       <c r="P3" s="85">
-        <v>0.79433434278400206</v>
+        <f>O3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.52336816679608211</v>
       </c>
       <c r="Q3" s="85">
-        <v>0.78137717524842731</v>
+        <f>P3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.49971468380586503</v>
       </c>
       <c r="R3" s="85">
-        <v>0.7686313647970201</v>
+        <f>Q3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.47713021359300795</v>
       </c>
       <c r="S3" s="85">
-        <v>0.75609346377681885</v>
+        <f>R3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.45556644241366889</v>
       </c>
       <c r="T3" s="85">
-        <v>0.74376008077291511</v>
+        <f>S3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.43497724005061433</v>
       </c>
       <c r="U3" s="85">
-        <v>0.73162787969109966</v>
+        <f>T3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.41531856112932347</v>
       </c>
       <c r="V3" s="85">
-        <v>0.71969357885547192</v>
+        <f>U3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.39654835089408486</v>
       </c>
       <c r="W3" s="85">
-        <v>0.70795395012076989</v>
+        <f>V3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.37862645524251676</v>
       </c>
       <c r="X3" s="85">
-        <v>0.696405817999179</v>
+        <f>W3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.36151453482605306</v>
       </c>
       <c r="Y3" s="85">
-        <v>0.68504605880138481</v>
+        <f>X3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.34517598303263453</v>
       </c>
       <c r="Z3" s="85">
-        <v>0.67387159979163702</v>
+        <f>Y3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.32957584767615034</v>
       </c>
       <c r="AA3" s="85">
-        <v>0.6628794183565957</v>
+        <f>Z3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.31468075622510383</v>
       </c>
       <c r="AB3" s="85">
-        <v>0.65206654118773544</v>
+        <f>AA3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.30045884441054893</v>
       </c>
       <c r="AC3" s="85">
-        <v>0.64143004347708599</v>
+        <f>AB3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.28687968806057124</v>
       </c>
       <c r="AD3" s="85">
-        <v>0.63096704812609239</v>
+        <f>AC3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.27391423801549158</v>
       </c>
       <c r="AE3" s="85">
-        <v>0.62067472496737941</v>
+        <f>AD3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.26153475798455939</v>
       </c>
       <c r="AF3" s="85">
-        <v>0.61055028999921135</v>
+        <f>AE3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.24971476521119565</v>
       </c>
       <c r="AG3" s="85">
-        <v>0.60059100463243886</v>
+        <f>AF3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <v>0.23842897381985478</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -18578,14 +18389,14 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:33" ht="135">
       <c r="A1" s="26" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B1" s="27">
         <v>2019</v>
@@ -18692,97 +18503,128 @@
         <v>1</v>
       </c>
       <c r="C2" s="85">
-        <v>0.99043546689566553</v>
+        <f>B2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0042610726525127</v>
       </c>
       <c r="D2" s="85">
-        <v>0.98096241408483498</v>
+        <f>C2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0085403020451755</v>
       </c>
       <c r="E2" s="85">
-        <v>0.97157996660121271</v>
+        <f>D2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0128377655451772</v>
       </c>
       <c r="F2" s="85">
-        <v>0.96228725784714719</v>
+        <f>E2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0171535408493739</v>
       </c>
       <c r="G2" s="85">
-        <v>0.95308342951358893</v>
+        <f>F2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0214877059856937</v>
       </c>
       <c r="H2" s="85">
-        <v>0.94396763150081353</v>
+        <f>G2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0258403393145474</v>
       </c>
       <c r="I2" s="85">
-        <v>0.93493902183990385</v>
+        <f>H2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.030211519530245</v>
       </c>
       <c r="J2" s="85">
-        <v>0.92599676661498198</v>
+        <f>I2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0346013256624189</v>
       </c>
       <c r="K2" s="85">
-        <v>0.91714003988618631</v>
+        <f>J2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0390098370774525</v>
       </c>
       <c r="L2" s="85">
-        <v>0.9083680236133842</v>
+        <f>K2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0434371334799151</v>
       </c>
       <c r="M2" s="85">
-        <v>0.89967990758061511</v>
+        <f>L2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0478832949140027</v>
       </c>
       <c r="N2" s="85">
-        <v>0.89107488932125578</v>
+        <f>M2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0523484017649856</v>
       </c>
       <c r="O2" s="85">
-        <v>0.88255217404390141</v>
+        <f>N2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0568325347606617</v>
       </c>
       <c r="P2" s="85">
-        <v>0.87411097455895614</v>
+        <f>O2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0613357749728161</v>
       </c>
       <c r="Q2" s="85">
-        <v>0.86575051120592494</v>
+        <f>P2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0658582038186861</v>
       </c>
       <c r="R2" s="85">
-        <v>0.85747001178140136</v>
+        <f>Q2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0703999030624343</v>
       </c>
       <c r="S2" s="85">
-        <v>0.84926871146774408</v>
+        <f>R2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0749609548166259</v>
       </c>
       <c r="T2" s="85">
-        <v>0.84114585276243536</v>
+        <f>S2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0795414415437141</v>
       </c>
       <c r="U2" s="85">
-        <v>0.83310068540811544</v>
+        <f>T2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0841414460575303</v>
       </c>
       <c r="V2" s="85">
-        <v>0.82513246632328574</v>
+        <f>U2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0887610515247816</v>
       </c>
       <c r="W2" s="85">
-        <v>0.81724045953367552</v>
+        <f>V2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.093400341466555</v>
       </c>
       <c r="X2" s="85">
-        <v>0.80942393610426422</v>
+        <f>W2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.0980593997598262</v>
       </c>
       <c r="Y2" s="85">
-        <v>0.8016821740719543</v>
+        <f>X2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1027383106389774</v>
       </c>
       <c r="Z2" s="85">
-        <v>0.79401445837888829</v>
+        <f>Y2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1074371586973193</v>
       </c>
       <c r="AA2" s="85">
-        <v>0.78642008080640324</v>
+        <f>Z2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1121560288886208</v>
       </c>
       <c r="AB2" s="85">
-        <v>0.77889833990961699</v>
+        <f>AA2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1168950065286452</v>
       </c>
       <c r="AC2" s="85">
-        <v>0.77144854095264026</v>
+        <f>AB2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1216541772966924</v>
       </c>
       <c r="AD2" s="85">
-        <v>0.76406999584440816</v>
+        <f>AC2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.126433627237148</v>
       </c>
       <c r="AE2" s="85">
-        <v>0.75676202307512563</v>
+        <f>AD2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1312334427610389</v>
       </c>
       <c r="AF2" s="85">
-        <v>0.74952394765332042</v>
+        <f>AE2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1360537106475959</v>
       </c>
       <c r="AG2" s="85">
-        <v>0.74235510104349878</v>
+        <f>AF2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <v>1.1408945180458219</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -18793,97 +18635,128 @@
         <v>1</v>
       </c>
       <c r="C3" s="85">
-        <v>1.0097877219504034</v>
+        <f>B3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.0238834681230935</v>
       </c>
       <c r="D3" s="85">
-        <v>1.0196712434017854</v>
+        <f>C3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.0483373562957738</v>
       </c>
       <c r="E3" s="85">
-        <v>1.0296515020130241</v>
+        <f>D3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.0733752881271121</v>
       </c>
       <c r="F3" s="85">
-        <v>1.039729444620543</v>
+        <f>E3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.0990112126052123</v>
       </c>
       <c r="G3" s="85">
-        <v>1.0499060273281362</v>
+        <f>F3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.1252594118683912</v>
       </c>
       <c r="H3" s="85">
-        <v>1.0601822155976768</v>
+        <f>G3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.1521345091619608</v>
       </c>
       <c r="I3" s="85">
-        <v>1.0705589843407095</v>
+        <f>H3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.1796514769850466</v>
       </c>
       <c r="J3" s="85">
-        <v>1.0810373180109427</v>
+        <f>I3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.2078256454319791</v>
       </c>
       <c r="K3" s="85">
-        <v>1.0916182106976438</v>
+        <f>J3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.2366727107329085</v>
       </c>
       <c r="L3" s="85">
-        <v>1.1023026662199493</v>
+        <f>K3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.2662087439983976</v>
       </c>
       <c r="M3" s="85">
-        <v>1.1130916982220986</v>
+        <f>L3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.2964502001728655</v>
       </c>
       <c r="N3" s="85">
-        <v>1.1239863302695989</v>
+        <f>M3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.3274139272018723</v>
       </c>
       <c r="O3" s="85">
-        <v>1.134987595946332</v>
+        <f>N3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.3591171754183486</v>
       </c>
       <c r="P3" s="85">
-        <v>1.1460965389526117</v>
+        <f>O3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.3915776071530017</v>
       </c>
       <c r="Q3" s="85">
-        <v>1.1573142132041996</v>
+        <f>P3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.4248133065742512</v>
       </c>
       <c r="R3" s="85">
-        <v>1.1686416829322923</v>
+        <f>Q3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.4588427897631768</v>
       </c>
       <c r="S3" s="85">
-        <v>1.1800800227844852</v>
+        <f>R3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.4936850150290903</v>
       </c>
       <c r="T3" s="85">
-        <v>1.1916303179267256</v>
+        <f>S3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.52935939347148</v>
       </c>
       <c r="U3" s="85">
-        <v>1.2032936641462633</v>
+        <f>T3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.5658857997942097</v>
       </c>
       <c r="V3" s="85">
-        <v>1.215071167955609</v>
+        <f>U3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.6032845833779994</v>
       </c>
       <c r="W3" s="85">
-        <v>1.2269639466975104</v>
+        <f>V3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.6415765796173551</v>
       </c>
       <c r="X3" s="85">
-        <v>1.2389731286509553</v>
+        <f>W3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.6807831215282631</v>
       </c>
       <c r="Y3" s="85">
-        <v>1.2510998531382123</v>
+        <f>X3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.7209260516331171</v>
       </c>
       <c r="Z3" s="85">
-        <v>1.2633452706329196</v>
+        <f>Y3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.7620277341294979</v>
       </c>
       <c r="AA3" s="85">
-        <v>1.2757105428692317</v>
+        <f>Z3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.8041110673495864</v>
       </c>
       <c r="AB3" s="85">
-        <v>1.2881968429520341</v>
+        <f>AA3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.8471994965171503</v>
       </c>
       <c r="AC3" s="85">
-        <v>1.3008053554682362</v>
+        <f>AB3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.8913170268092121</v>
       </c>
       <c r="AD3" s="85">
-        <v>1.3135372765991551</v>
+        <f>AC3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.9364882367296739</v>
       </c>
       <c r="AE3" s="85">
-        <v>1.3263938142339977</v>
+        <f>AD3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>1.9827382918023526</v>
       </c>
       <c r="AF3" s="85">
-        <v>1.3393761880844552</v>
+        <f>AE3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>2.0300929585910508</v>
       </c>
       <c r="AG3" s="85">
-        <v>1.3524856298004171</v>
+        <f>AF3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <v>2.0785786190544768</v>
       </c>
     </row>
     <row r="4" spans="1:33">

--- a/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
+++ b/InputData/trans/SYFAFE/Start Year Fleet Avg Fuel Economy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-southkorea\InputData\trans\SYFAFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\South Korea\eps-southkorea\InputData\trans\SYFAFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE11C9C-99ED-418A-9C36-44256C21F6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF81F13E-5F58-4920-BD0B-70F81838047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="784" xr2:uid="{45C79576-D266-44E4-9E44-3FFC5A94C2AF}"/>
+    <workbookView xWindow="7580" yWindow="710" windowWidth="17800" windowHeight="13030" tabRatio="784" firstSheet="10" activeTab="17" xr2:uid="{45C79576-D266-44E4-9E44-3FFC5A94C2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -29,13 +29,25 @@
     <sheet name="aircraft" sheetId="29" r:id="rId14"/>
     <sheet name="rail" sheetId="30" r:id="rId15"/>
     <sheet name="ships" sheetId="34" r:id="rId16"/>
-    <sheet name="SYFAFE-psgr" sheetId="16" r:id="rId17"/>
-    <sheet name="SYFAFE-frgt" sheetId="7" r:id="rId18"/>
+    <sheet name="AEO 7" sheetId="35" r:id="rId17"/>
+    <sheet name="SYFAFE-psgr" sheetId="16" r:id="rId18"/>
+    <sheet name="SYFAFE-frgt" sheetId="7" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="NTS_YR">[2]About!$B$136</definedName>
+    <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="ti_tbl_50">#REF!</definedName>
+    <definedName name="ti_tbl_69">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,10 +68,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="420">
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>battery electric vehicle</t>
@@ -105,7 +117,7 @@
   </si>
   <si>
     <t>km/kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
@@ -193,7 +205,7 @@
   </si>
   <si>
     <t>수소</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>기타연료</t>
@@ -203,19 +215,19 @@
   </si>
   <si>
     <t>passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>freight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>km/L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>km/kWh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>차 종 별</t>
@@ -636,34 +648,34 @@
   </si>
   <si>
     <t>passenger LDVs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>passenger HDVs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>freigt LDVs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>freigt HDVs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>해리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>meter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Number of Vehicles</t>
   </si>
   <si>
     <t>battery electric vehicle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Vehicle Loading (passengers)</t>
@@ -673,34 +685,34 @@
   </si>
   <si>
     <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sources:</t>
   </si>
   <si>
     <t>Ministry of Land, Infrastructure and Transport</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SYFAFE Start Year Fleet Avg Fuel Economy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>http://bpms.kemco.or.kr/transport_2012/download/download.aspx?path=gbn/2020_%EC%9E%90%EB%8F%99%EC%B0%A8%EC%97%90%EB%84%88%EC%A7%80%EC%86%8C%EB%B9%84%ED%9A%A8%EC%9C%A8%EB%B6%84%EC%84%9D%EC%A7%91.pdf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Korea Energy Agency</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Page 56, 79-82</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Page 176-202</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Energy Consumption Survey</t>
@@ -710,174 +722,174 @@
   </si>
   <si>
     <t xml:space="preserve">Page 5, 6 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>https://law.go.kr/flDownload.do?flSeq=104333519&amp;flNm=%5B%EB%B3%84%ED%91%9C+%5D+%EC%97%90%EB%84%88%EC%A7%80%EC%97%B4%EB%9F%89+%ED%99%98%EC%82%B0%EA%B8%B0%EC%A4%80%28%EC%A0%9C5%EC%A1%B0%EC%A0%9C1%ED%95%AD+%EA%B4%80%EB%A0%A8%29%0A</t>
   </si>
   <si>
     <t>Energy Conversion Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2020 Vehicle Fuel Economy and CO2 Emissions : Data and Analyses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Duty vehicle fuel economy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Vehicle fuel economy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Data not in sources were identified through distinct investigations.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Separate investigations were described in the etc sheet.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BTU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>miles</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel Economy (passenger*miles/BTU)</t>
   </si>
   <si>
     <t>https://kosis.kr/statHtml/statHtml.do?orgId=146&amp;tblId=DT_MLTM_1332</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KOSIS</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Statistics by tonnage and ship use(2019.12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ship classification by tonnage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Flight distance by airport based on ICN</t>
   </si>
   <si>
     <t>Korea Civil Aviation Association</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Fuel economy for aircraft</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>http://www.ekscc.re.kr/xml/02372/02372.pdf</t>
   </si>
   <si>
     <t>Lee, Ju Hyoung(Aviation Safety Division)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel consumption per operation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Page 6, 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>We used cell colors to identify different methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>We applied the US data as is due to the limited number of data in South Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>We applied the ratio of fuel shares in the US data to the KR data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>We assumed that the fuel economies of psgr and frgt aircraft are the same.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Annual Distance (miles/vehicle)</t>
   </si>
   <si>
     <t>Passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Freight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>rail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># of vehicles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HDV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDV-passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HDV-passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LDV-freight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HDV-freight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Travel distance (km)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel consumption (unit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel consumption (TJ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel consumption (MJ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kWh-&gt;MJ</t>
@@ -890,35 +902,35 @@
   </si>
   <si>
     <t>Adjust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Fuel consumption (BTU)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SYFAFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>kTOE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KOSIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Gasoline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># of registered motobikes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Total Cargo distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사업구분</t>
@@ -955,53 +967,452 @@
   </si>
   <si>
     <t>consumption (TJ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>pkm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>passengers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>km (total travel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>consumption (BTU)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Cargo Dist Transported Relative to Start Year (dimensionless)</t>
   </si>
   <si>
     <t>km-passenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>km-ton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Total (BTU)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>highogs.d112619a</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2020</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>highogs</t>
+  </si>
+  <si>
+    <t>High oil and gas supply</t>
+  </si>
+  <si>
+    <t>Datekey</t>
+  </si>
+  <si>
+    <t>d112619a</t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2020</t>
+  </si>
+  <si>
+    <t>TKI000</t>
+  </si>
+  <si>
+    <t>7. Transportation Sector Key Indicators and Delivered Energy Consumption</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2019-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Key Indicators and Consumption</t>
+  </si>
+  <si>
+    <t>Key Indicators</t>
+  </si>
+  <si>
+    <t>Travel Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (billion vehicle miles traveled)</t>
+  </si>
+  <si>
+    <t>TKI000:ba_Light-DutyVeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Light-Duty Vehicles less than 8,501 pounds</t>
+  </si>
+  <si>
+    <t>TKI000:ba_CommercialLig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Commercial Light Trucks 1/</t>
+  </si>
+  <si>
+    <t>TKI000:ba_FreightTrucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Freight Trucks greater than 10,000 pounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (billion passenger miles traveled)</t>
+  </si>
+  <si>
+    <t>TKI000:buspassmiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bus Transportation</t>
+  </si>
+  <si>
+    <t>TKI000:railpassmiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Passenger Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (billion seat miles available)</t>
+  </si>
+  <si>
+    <t>TKI000:ba_Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (billion ton miles traveled)</t>
+  </si>
+  <si>
+    <t>TKI000:ba_Rail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rail</t>
+  </si>
+  <si>
+    <t>TKI000:ba_DomesticShipp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Domestic Shipping</t>
+  </si>
+  <si>
+    <t>Energy Efficiency Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (miles per gallon)</t>
+  </si>
+  <si>
+    <t>TKI000:ca_AvgCAFEStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   New Light-Duty Vehicle CAFE Standard 2/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_CarCAFEStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Car 2/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_TwukCAFEStand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Light Truck 2/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_NewVehCred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Compliance New Light-Duty Vehicle 3/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_NewCarCred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Car 3/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_NewTwukCred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Light Truck 3/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_TestedNewVeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Tested New Light-Duty Vehicle 4/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_TestedNewCar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Car 4/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_TestedNewTwuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Light Truck 4/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_OnRoadNewVeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   On-Road New Light-Duty Vehicle 5/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_OnRoadNewCar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Car 5/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_OnRoadNewTwuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     New Light Truck 5/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_Light-DutySto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Light-Duty Stock 6/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_NewCommercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   New Commercial Light Truck 1/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_StockCommerci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Stock Commercial Light Truck 1/</t>
+  </si>
+  <si>
+    <t>TKI000:ca_FreightTruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Freight Truck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (seat miles per gallon)</t>
+  </si>
+  <si>
+    <t>TKI000:ca_Aircraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Aircraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ton miles/thousand Btu)</t>
+  </si>
+  <si>
+    <t>TKI000:ca_Rail</t>
+  </si>
+  <si>
+    <t>TKI000:ca_DomesticShipp</t>
+  </si>
+  <si>
+    <t>Energy Use by Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (quadrillion Btu)</t>
+  </si>
+  <si>
+    <t>TKI000:da_Light-DutyVeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Light-Duty Vehicles</t>
+  </si>
+  <si>
+    <t>TKI000:da_CommercialLig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial Light Trucks 1/</t>
+  </si>
+  <si>
+    <t>TKI000:da_BusTransporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Bus Transportation</t>
+  </si>
+  <si>
+    <t>TKI000:da_FreightTrucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Freight Trucks</t>
+  </si>
+  <si>
+    <t>TKI000:da_Rail,Passenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rail, Passenger</t>
+  </si>
+  <si>
+    <t>TKI000:da_Rail,Freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Rail, Freight</t>
+  </si>
+  <si>
+    <t>TKI000:da_Shipping,Dome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Shipping, Domestic</t>
+  </si>
+  <si>
+    <t>TKI000:da_Shipping,Inte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Shipping, International</t>
+  </si>
+  <si>
+    <t>TKI000:da_RecreationalB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Recreational Boats</t>
+  </si>
+  <si>
+    <t>TKI000:da_Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Air</t>
+  </si>
+  <si>
+    <t>TKI000:da_MilitaryUse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Military Use</t>
+  </si>
+  <si>
+    <t>TKI000:da_Lubricants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lubricants</t>
+  </si>
+  <si>
+    <t>TKI000:da_PipelineFuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Pipeline Fuel</t>
+  </si>
+  <si>
+    <t>TKI000:da_Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (million barrels per day oil equivalent)</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Light-DutyVeh</t>
+  </si>
+  <si>
+    <t>TKI000:ea_CommercialLig</t>
+  </si>
+  <si>
+    <t>TKI000:ea_BusTransporta</t>
+  </si>
+  <si>
+    <t>TKI000:ea_FreightTrucks</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Rail,Passenge</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Rail,Freight</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Shipping,Dome</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Shipping,Inte</t>
+  </si>
+  <si>
+    <t>TKI000:ea_RecreationalB</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Air</t>
+  </si>
+  <si>
+    <t>TKI000:ea_MilitaryUse</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Lubricants</t>
+  </si>
+  <si>
+    <t>TKI000:ea_PipelineFuel</t>
+  </si>
+  <si>
+    <t>TKI000:ea_Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1/ Commercial trucks 8,501 to 10,000 pounds gross vehicle weight rating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2/ CAFE standard based on projected new vehicle sales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3/ Includes CAFE credits for alternative fueled vehicle sales and credit banking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4/ Environmental Protection Agency rated miles per gallon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5/ Tested new vehicle efficiency revised for on-road performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6/ Combined "on-the-road" estimate for all cars and light trucks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CAFE = Corporate average fuel economy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Btu = British thermal unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Note:  Totals may not equal sum of components due to independent rounding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sources:  2019:  U.S. Energy Information Administration (EIA), Short-Term Energy Outlook, October 2019 and EIA, AEO2020 National</t>
+  </si>
+  <si>
+    <t>Energy Modeling System run highogs.d112619a.  Projections:  EIA, AEO2020 National Energy Modeling System run highogs.d112619a.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
@@ -1014,14 +1425,23 @@
     <numFmt numFmtId="173" formatCode="0.00.E+00"/>
     <numFmt numFmtId="174" formatCode="0.0E+00"/>
     <numFmt numFmtId="175" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,8 +1581,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1235,8 +1691,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1364,62 +1826,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0096D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0096D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1434,55 +1949,55 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1492,7 +2007,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -1505,25 +2020,13 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1532,16 +2035,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1568,7 +2083,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1577,48 +2092,107 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="9">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="12" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="12" applyFont="1" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="13" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="13">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="14">
+    <cellStyle name="Body: normal cell" xfId="12" xr:uid="{0A7EBA85-0124-4D78-A8C8-9648650E01A5}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="8" xr:uid="{34523F07-E2CD-4579-9CA9-7D60CF13F706}"/>
+    <cellStyle name="Footnotes: top row" xfId="13" xr:uid="{F2FEE8B8-B4DD-49F0-BF4F-351ED6A5D0FA}"/>
+    <cellStyle name="Header: bottom row" xfId="9" xr:uid="{E50C72D6-644D-4D1F-8316-F11BBEF35B6F}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{3D0F82BB-60BE-40A2-8B19-4AEB7941BBF8}"/>
+    <cellStyle name="Parent row" xfId="11" xr:uid="{A0593E00-0A26-40CB-BF73-3950DEBDC18C}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Table title" xfId="10" xr:uid="{ED917F40-A571-4790-AE56-2F27898370EE}"/>
     <cellStyle name="쉼표 [0] 16 2 6" xfId="3" xr:uid="{CA2D334C-FB06-4B16-B2FA-D9E471462E66}"/>
     <cellStyle name="쉼표 [0] 3" xfId="4" xr:uid="{45576677-57B5-4912-9759-265B367A28F1}"/>
     <cellStyle name="표준 10 6" xfId="2" xr:uid="{0AB2A41D-3C67-4259-8BF2-59AA13A212EB}"/>
@@ -1643,6 +2217,168 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Rail shipments 93-97"/>
+      <sheetName val="Waterborne Flows 93-97"/>
+      <sheetName val="Air and vessel 93-97"/>
+      <sheetName val="Figure 2 compare"/>
+      <sheetName val="Factors Comparisons"/>
+      <sheetName val="1997  Table 1a Modified"/>
+      <sheetName val="Figure 1"/>
+      <sheetName val="1993-97 Table 1  US Highlights"/>
+      <sheetName val="93-97 US Freight Table 1"/>
+      <sheetName val="93-97 US Freight Table 1 (b)"/>
+      <sheetName val="93-97 Percents Tab 2&amp;3"/>
+      <sheetName val="Integrated View 93-97"/>
+      <sheetName val="Figure 3 modal shares"/>
+      <sheetName val="1993-97 Percents"/>
+      <sheetName val="BTS &amp; ORNL estimates"/>
+      <sheetName val="Oil Pipeline (2)"/>
+      <sheetName val="1997 Table 2"/>
+      <sheetName val="Table 4 Distance"/>
+      <sheetName val="Distance percent change"/>
+      <sheetName val="Distance 93-97"/>
+      <sheetName val="Distance Fig value per ton"/>
+      <sheetName val="Distance Bar"/>
+      <sheetName val="Table 5 Size 93-97"/>
+      <sheetName val="Size percent change"/>
+      <sheetName val="Size Fig value per ton"/>
+      <sheetName val="Size Bar "/>
+      <sheetName val="BTS Mode"/>
+      <sheetName val="Ton-miles data"/>
+      <sheetName val="Ton-miles figure"/>
+      <sheetName val="table 3 commodities"/>
+      <sheetName val="Commodities ranked by value"/>
+      <sheetName val="Commod ranked by tons"/>
+      <sheetName val="Commod ranked by ton-miles"/>
+      <sheetName val="Commod ranked by miles per ton "/>
+      <sheetName val="Commod ranked by val per ton"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 7 (2020)"/>
+      <sheetName val="AEO 35"/>
+      <sheetName val="AEO 36"/>
+      <sheetName val="AEO 38"/>
+      <sheetName val="AEO 40"/>
+      <sheetName val="AEO 44"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 48"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="AEO 49 (2020)"/>
+      <sheetName val="psgr LDVs"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="NAP F28"/>
+      <sheetName val="SYFAFE-passenger"/>
+      <sheetName val="SYFAFE-freight"/>
+      <sheetName val="Calculations Etc"/>
+      <sheetName val="BNVFE-LDVs-psgr"/>
+      <sheetName val="BNVFE-LDVs-frgt"/>
+      <sheetName val="BNVFE-HDVs-psgr"/>
+      <sheetName val="BNVFE-HDVs-frgt"/>
+      <sheetName val="BNVFE-aircraft-psgr"/>
+      <sheetName val="BNVFE-aircraft-frgt"/>
+      <sheetName val="BNVFE-rail-psgr"/>
+      <sheetName val="BNVFE-rail-frgt"/>
+      <sheetName val="BNVFE-ships-psgr"/>
+      <sheetName val="BNVFE-ships-frgt"/>
+      <sheetName val="BNVFE-motorbikes-psgr"/>
+      <sheetName val="BNVFE-motorbikes-frgt"/>
+      <sheetName val="BNVFE_data for BHNVFEAL"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="136">
+          <cell r="B136">
+            <v>2019</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1792,7 +2528,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2165,11 +2901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F44B24-DE0E-4ECB-B35B-2DFD270C2A7C}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -2572,7 +3308,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{7F811800-23D5-492E-B633-4B116D5C4EE9}"/>
     <hyperlink ref="B7" r:id="rId2" display="http://stat.molit.go.kr/portal/common/downLoadFile.do" xr:uid="{0B0CA9C0-ED67-4C6C-AAE5-0D8125ABEBE6}"/>
@@ -2592,16 +3328,16 @@
       <selection sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3062,7 +3798,7 @@
       <c r="H16" s="51"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3075,11 +3811,11 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="33" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="33" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -4890,7 +5626,7 @@
       <c r="I16" s="51"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4903,25 +5639,25 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
@@ -11609,7 +12345,7 @@
         <v>14601</v>
       </c>
     </row>
-    <row r="481" spans="2:8" ht="15.75" thickBot="1">
+    <row r="481" spans="2:8" ht="15" thickBot="1">
       <c r="B481" s="64"/>
       <c r="C481" s="64"/>
       <c r="D481" s="64"/>
@@ -11636,14 +12372,14 @@
       </c>
       <c r="C484" s="70"/>
     </row>
-    <row r="485" spans="2:8" ht="15.75" thickBot="1">
+    <row r="485" spans="2:8" ht="15" thickBot="1">
       <c r="B485" s="71" t="s">
         <v>193</v>
       </c>
       <c r="C485" s="72"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11657,15 +12393,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -12015,7 +12751,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12029,17 +12765,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
@@ -12300,7 +13036,7 @@
         <v>770665118</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="30">
+    <row r="18" spans="2:9">
       <c r="B18" s="26" t="s">
         <v>258</v>
       </c>
@@ -12485,7 +13221,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12498,19 +13234,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30">
+    <row r="2" spans="2:9" ht="29">
       <c r="B2" s="26" t="s">
         <v>276</v>
       </c>
@@ -12550,7 +13286,7 @@
     <row r="4" spans="2:9">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="30">
+    <row r="5" spans="2:9" ht="29">
       <c r="B5" s="26" t="s">
         <v>276</v>
       </c>
@@ -12676,7 +13412,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="45">
+    <row r="17" spans="2:9" ht="29">
       <c r="B17" s="26" t="s">
         <v>281</v>
       </c>
@@ -12821,7 +13557,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12835,16 +13571,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12979,11 +13715,11 @@
       </c>
       <c r="D6" s="90">
         <f>IFERROR(ships!D2/'SYFAFE-psgr'!D6, 0)</f>
-        <v>0</v>
+        <v>170968106531.24783</v>
       </c>
       <c r="E6" s="90">
         <f>IFERROR(ships!E2/'SYFAFE-psgr'!E6, 0)</f>
-        <v>3673525978620.1094</v>
+        <v>116265151165509.75</v>
       </c>
       <c r="F6" s="90">
         <f>IFERROR(ships!F2/'SYFAFE-psgr'!F6, 0)</f>
@@ -13012,11 +13748,11 @@
       </c>
       <c r="D7" s="90">
         <f>IFERROR(ships!D3/'SYFAFE-frgt'!D6, 0)</f>
-        <v>3430126281743.5234</v>
+        <v>2315966871107.2168</v>
       </c>
       <c r="E7" s="90">
         <f>IFERROR(ships!E3/'SYFAFE-frgt'!E6, 0)</f>
-        <v>2110013848696562.8</v>
+        <v>1571707757408202</v>
       </c>
       <c r="F7" s="90">
         <f>IFERROR(ships!F3/'SYFAFE-frgt'!F6, 0)</f>
@@ -13032,36 +13768,6472 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB88325F-6B94-486E-9187-0EBC1406A66C}">
+  <dimension ref="A1:AI97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="31.81640625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="92" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+      <c r="B1" s="93" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="94">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="94">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="94">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="94">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="94">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="94">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="94">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="94">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="94">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="94">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="94">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="94">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="94">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="94">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="94">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="94">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="94">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="94">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="94">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="94">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="94">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="94">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="94">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="94">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="94">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="94">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="94">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="94">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="94">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="94">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="94">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="94">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1">
+      <c r="C3" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1">
+      <c r="C4" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="15" customHeight="1">
+      <c r="C5" s="95" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+    </row>
+    <row r="6" spans="1:35" ht="15" customHeight="1">
+      <c r="C6" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+    </row>
+    <row r="10" spans="1:35" ht="15" customHeight="1">
+      <c r="A10" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1">
+      <c r="B11" s="93" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1">
+      <c r="B12" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="I12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="O12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="P12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="R12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="T12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="U12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="V12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="W12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="X12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AF12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH12" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI12" s="98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="94">
+        <v>2019</v>
+      </c>
+      <c r="D13" s="94">
+        <v>2020</v>
+      </c>
+      <c r="E13" s="94">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="94">
+        <v>2022</v>
+      </c>
+      <c r="G13" s="94">
+        <v>2023</v>
+      </c>
+      <c r="H13" s="94">
+        <v>2024</v>
+      </c>
+      <c r="I13" s="94">
+        <v>2025</v>
+      </c>
+      <c r="J13" s="94">
+        <v>2026</v>
+      </c>
+      <c r="K13" s="94">
+        <v>2027</v>
+      </c>
+      <c r="L13" s="94">
+        <v>2028</v>
+      </c>
+      <c r="M13" s="94">
+        <v>2029</v>
+      </c>
+      <c r="N13" s="94">
+        <v>2030</v>
+      </c>
+      <c r="O13" s="94">
+        <v>2031</v>
+      </c>
+      <c r="P13" s="94">
+        <v>2032</v>
+      </c>
+      <c r="Q13" s="94">
+        <v>2033</v>
+      </c>
+      <c r="R13" s="94">
+        <v>2034</v>
+      </c>
+      <c r="S13" s="94">
+        <v>2035</v>
+      </c>
+      <c r="T13" s="94">
+        <v>2036</v>
+      </c>
+      <c r="U13" s="94">
+        <v>2037</v>
+      </c>
+      <c r="V13" s="94">
+        <v>2038</v>
+      </c>
+      <c r="W13" s="94">
+        <v>2039</v>
+      </c>
+      <c r="X13" s="94">
+        <v>2040</v>
+      </c>
+      <c r="Y13" s="94">
+        <v>2041</v>
+      </c>
+      <c r="Z13" s="94">
+        <v>2042</v>
+      </c>
+      <c r="AA13" s="94">
+        <v>2043</v>
+      </c>
+      <c r="AB13" s="94">
+        <v>2044</v>
+      </c>
+      <c r="AC13" s="94">
+        <v>2045</v>
+      </c>
+      <c r="AD13" s="94">
+        <v>2046</v>
+      </c>
+      <c r="AE13" s="94">
+        <v>2047</v>
+      </c>
+      <c r="AF13" s="94">
+        <v>2048</v>
+      </c>
+      <c r="AG13" s="94">
+        <v>2049</v>
+      </c>
+      <c r="AH13" s="94">
+        <v>2050</v>
+      </c>
+      <c r="AI13" s="94">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1">
+      <c r="B15" s="99" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1">
+      <c r="B16" s="99" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="15" customHeight="1">
+      <c r="B17" s="99" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15" customHeight="1">
+      <c r="A18" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="101">
+        <v>2917.2534179999998</v>
+      </c>
+      <c r="D18" s="101">
+        <v>2975.1254880000001</v>
+      </c>
+      <c r="E18" s="101">
+        <v>3025.3583979999999</v>
+      </c>
+      <c r="F18" s="101">
+        <v>3062.7468260000001</v>
+      </c>
+      <c r="G18" s="101">
+        <v>3083.977539</v>
+      </c>
+      <c r="H18" s="101">
+        <v>3096.5910640000002</v>
+      </c>
+      <c r="I18" s="101">
+        <v>3105.9812010000001</v>
+      </c>
+      <c r="J18" s="101">
+        <v>3125.5920409999999</v>
+      </c>
+      <c r="K18" s="101">
+        <v>3146.880615</v>
+      </c>
+      <c r="L18" s="101">
+        <v>3167.633057</v>
+      </c>
+      <c r="M18" s="101">
+        <v>3188.2370609999998</v>
+      </c>
+      <c r="N18" s="101">
+        <v>3209.845703</v>
+      </c>
+      <c r="O18" s="101">
+        <v>3233.3459469999998</v>
+      </c>
+      <c r="P18" s="101">
+        <v>3252.6281739999999</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>3271.139404</v>
+      </c>
+      <c r="R18" s="101">
+        <v>3285.1403810000002</v>
+      </c>
+      <c r="S18" s="101">
+        <v>3295.6909179999998</v>
+      </c>
+      <c r="T18" s="101">
+        <v>3311.9399410000001</v>
+      </c>
+      <c r="U18" s="101">
+        <v>3327.9958499999998</v>
+      </c>
+      <c r="V18" s="101">
+        <v>3344.2626949999999</v>
+      </c>
+      <c r="W18" s="101">
+        <v>3361.544922</v>
+      </c>
+      <c r="X18" s="101">
+        <v>3379.7543949999999</v>
+      </c>
+      <c r="Y18" s="101">
+        <v>3396.2570799999999</v>
+      </c>
+      <c r="Z18" s="101">
+        <v>3413.8405760000001</v>
+      </c>
+      <c r="AA18" s="101">
+        <v>3432.0297850000002</v>
+      </c>
+      <c r="AB18" s="101">
+        <v>3451.1577149999998</v>
+      </c>
+      <c r="AC18" s="101">
+        <v>3472.0922850000002</v>
+      </c>
+      <c r="AD18" s="101">
+        <v>3496.9057619999999</v>
+      </c>
+      <c r="AE18" s="101">
+        <v>3524.3183589999999</v>
+      </c>
+      <c r="AF18" s="101">
+        <v>3555.436768</v>
+      </c>
+      <c r="AG18" s="101">
+        <v>3588.8325199999999</v>
+      </c>
+      <c r="AH18" s="101">
+        <v>3624.4035640000002</v>
+      </c>
+      <c r="AI18" s="102">
+        <v>7.0260000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="15" customHeight="1">
+      <c r="A19" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="101">
+        <v>99.321113999999994</v>
+      </c>
+      <c r="D19" s="101">
+        <v>100.61537199999999</v>
+      </c>
+      <c r="E19" s="101">
+        <v>102.27555099999999</v>
+      </c>
+      <c r="F19" s="101">
+        <v>103.794495</v>
+      </c>
+      <c r="G19" s="101">
+        <v>104.99791</v>
+      </c>
+      <c r="H19" s="101">
+        <v>105.845024</v>
+      </c>
+      <c r="I19" s="101">
+        <v>106.78964999999999</v>
+      </c>
+      <c r="J19" s="101">
+        <v>107.83586099999999</v>
+      </c>
+      <c r="K19" s="101">
+        <v>109.086189</v>
+      </c>
+      <c r="L19" s="101">
+        <v>110.314789</v>
+      </c>
+      <c r="M19" s="101">
+        <v>111.61691999999999</v>
+      </c>
+      <c r="N19" s="101">
+        <v>112.770866</v>
+      </c>
+      <c r="O19" s="101">
+        <v>114.262428</v>
+      </c>
+      <c r="P19" s="101">
+        <v>115.52301</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>116.879272</v>
+      </c>
+      <c r="R19" s="101">
+        <v>118.14617200000001</v>
+      </c>
+      <c r="S19" s="101">
+        <v>119.40303</v>
+      </c>
+      <c r="T19" s="101">
+        <v>120.80527499999999</v>
+      </c>
+      <c r="U19" s="101">
+        <v>122.152451</v>
+      </c>
+      <c r="V19" s="101">
+        <v>123.496872</v>
+      </c>
+      <c r="W19" s="101">
+        <v>124.85643</v>
+      </c>
+      <c r="X19" s="101">
+        <v>126.275398</v>
+      </c>
+      <c r="Y19" s="101">
+        <v>127.716537</v>
+      </c>
+      <c r="Z19" s="101">
+        <v>129.18461600000001</v>
+      </c>
+      <c r="AA19" s="101">
+        <v>130.70700099999999</v>
+      </c>
+      <c r="AB19" s="101">
+        <v>132.37408400000001</v>
+      </c>
+      <c r="AC19" s="101">
+        <v>134.19018600000001</v>
+      </c>
+      <c r="AD19" s="101">
+        <v>136.27534499999999</v>
+      </c>
+      <c r="AE19" s="101">
+        <v>138.142303</v>
+      </c>
+      <c r="AF19" s="101">
+        <v>140.203461</v>
+      </c>
+      <c r="AG19" s="101">
+        <v>142.34049999999999</v>
+      </c>
+      <c r="AH19" s="101">
+        <v>144.479523</v>
+      </c>
+      <c r="AI19" s="102">
+        <v>1.2163E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="15" customHeight="1">
+      <c r="A20" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="101">
+        <v>299.98956299999998</v>
+      </c>
+      <c r="D20" s="101">
+        <v>302.99670400000002</v>
+      </c>
+      <c r="E20" s="101">
+        <v>307.861176</v>
+      </c>
+      <c r="F20" s="101">
+        <v>312.26748700000002</v>
+      </c>
+      <c r="G20" s="101">
+        <v>316.85519399999998</v>
+      </c>
+      <c r="H20" s="101">
+        <v>319.636932</v>
+      </c>
+      <c r="I20" s="101">
+        <v>322.737976</v>
+      </c>
+      <c r="J20" s="101">
+        <v>325.800049</v>
+      </c>
+      <c r="K20" s="101">
+        <v>329.40594499999997</v>
+      </c>
+      <c r="L20" s="101">
+        <v>332.56686400000001</v>
+      </c>
+      <c r="M20" s="101">
+        <v>335.87530500000003</v>
+      </c>
+      <c r="N20" s="101">
+        <v>338.360657</v>
+      </c>
+      <c r="O20" s="101">
+        <v>342.56182899999999</v>
+      </c>
+      <c r="P20" s="101">
+        <v>345.996307</v>
+      </c>
+      <c r="Q20" s="101">
+        <v>349.88958700000001</v>
+      </c>
+      <c r="R20" s="101">
+        <v>353.15029900000002</v>
+      </c>
+      <c r="S20" s="101">
+        <v>356.89837599999998</v>
+      </c>
+      <c r="T20" s="101">
+        <v>360.95452899999998</v>
+      </c>
+      <c r="U20" s="101">
+        <v>364.40631100000002</v>
+      </c>
+      <c r="V20" s="101">
+        <v>367.98541299999999</v>
+      </c>
+      <c r="W20" s="101">
+        <v>371.46130399999998</v>
+      </c>
+      <c r="X20" s="101">
+        <v>375.17526199999998</v>
+      </c>
+      <c r="Y20" s="101">
+        <v>378.96575899999999</v>
+      </c>
+      <c r="Z20" s="101">
+        <v>382.97610500000002</v>
+      </c>
+      <c r="AA20" s="101">
+        <v>386.869507</v>
+      </c>
+      <c r="AB20" s="101">
+        <v>391.47946200000001</v>
+      </c>
+      <c r="AC20" s="101">
+        <v>396.56829800000003</v>
+      </c>
+      <c r="AD20" s="101">
+        <v>402.70736699999998</v>
+      </c>
+      <c r="AE20" s="101">
+        <v>407.39862099999999</v>
+      </c>
+      <c r="AF20" s="101">
+        <v>413.09304800000001</v>
+      </c>
+      <c r="AG20" s="101">
+        <v>419.04983499999997</v>
+      </c>
+      <c r="AH20" s="101">
+        <v>425.07647700000001</v>
+      </c>
+      <c r="AI20" s="102">
+        <v>1.1306E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="15" customHeight="1">
+      <c r="B21" s="99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="15" customHeight="1">
+      <c r="A22" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="101">
+        <v>210.13850400000001</v>
+      </c>
+      <c r="D22" s="101">
+        <v>211.126205</v>
+      </c>
+      <c r="E22" s="101">
+        <v>212.116165</v>
+      </c>
+      <c r="F22" s="101">
+        <v>213.08595299999999</v>
+      </c>
+      <c r="G22" s="101">
+        <v>214.01353499999999</v>
+      </c>
+      <c r="H22" s="101">
+        <v>214.96095299999999</v>
+      </c>
+      <c r="I22" s="101">
+        <v>215.98413099999999</v>
+      </c>
+      <c r="J22" s="101">
+        <v>216.989777</v>
+      </c>
+      <c r="K22" s="101">
+        <v>217.98005699999999</v>
+      </c>
+      <c r="L22" s="101">
+        <v>218.98109400000001</v>
+      </c>
+      <c r="M22" s="101">
+        <v>219.96804800000001</v>
+      </c>
+      <c r="N22" s="101">
+        <v>220.90673799999999</v>
+      </c>
+      <c r="O22" s="101">
+        <v>221.807053</v>
+      </c>
+      <c r="P22" s="101">
+        <v>222.678833</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>223.455963</v>
+      </c>
+      <c r="R22" s="101">
+        <v>224.19052099999999</v>
+      </c>
+      <c r="S22" s="101">
+        <v>224.88494900000001</v>
+      </c>
+      <c r="T22" s="101">
+        <v>225.54260300000001</v>
+      </c>
+      <c r="U22" s="101">
+        <v>226.167709</v>
+      </c>
+      <c r="V22" s="101">
+        <v>226.76289399999999</v>
+      </c>
+      <c r="W22" s="101">
+        <v>227.33021500000001</v>
+      </c>
+      <c r="X22" s="101">
+        <v>227.87237500000001</v>
+      </c>
+      <c r="Y22" s="101">
+        <v>228.39172400000001</v>
+      </c>
+      <c r="Z22" s="101">
+        <v>228.89146400000001</v>
+      </c>
+      <c r="AA22" s="101">
+        <v>229.376724</v>
+      </c>
+      <c r="AB22" s="101">
+        <v>229.852081</v>
+      </c>
+      <c r="AC22" s="101">
+        <v>230.323227</v>
+      </c>
+      <c r="AD22" s="101">
+        <v>230.79690600000001</v>
+      </c>
+      <c r="AE22" s="101">
+        <v>231.280609</v>
+      </c>
+      <c r="AF22" s="101">
+        <v>231.78066999999999</v>
+      </c>
+      <c r="AG22" s="101">
+        <v>232.30583200000001</v>
+      </c>
+      <c r="AH22" s="101">
+        <v>232.850571</v>
+      </c>
+      <c r="AI22" s="102">
+        <v>3.3159999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="15" customHeight="1">
+      <c r="A23" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="101">
+        <v>41.270718000000002</v>
+      </c>
+      <c r="D23" s="101">
+        <v>41.874930999999997</v>
+      </c>
+      <c r="E23" s="101">
+        <v>42.455513000000003</v>
+      </c>
+      <c r="F23" s="101">
+        <v>42.941440999999998</v>
+      </c>
+      <c r="G23" s="101">
+        <v>43.403492</v>
+      </c>
+      <c r="H23" s="101">
+        <v>43.866782999999998</v>
+      </c>
+      <c r="I23" s="101">
+        <v>44.310471</v>
+      </c>
+      <c r="J23" s="101">
+        <v>44.751930000000002</v>
+      </c>
+      <c r="K23" s="101">
+        <v>45.177658000000001</v>
+      </c>
+      <c r="L23" s="101">
+        <v>45.617381999999999</v>
+      </c>
+      <c r="M23" s="101">
+        <v>46.05724</v>
+      </c>
+      <c r="N23" s="101">
+        <v>46.402245000000001</v>
+      </c>
+      <c r="O23" s="101">
+        <v>46.841445999999998</v>
+      </c>
+      <c r="P23" s="101">
+        <v>47.267837999999998</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>47.680484999999997</v>
+      </c>
+      <c r="R23" s="101">
+        <v>48.055225</v>
+      </c>
+      <c r="S23" s="101">
+        <v>48.435218999999996</v>
+      </c>
+      <c r="T23" s="101">
+        <v>48.803921000000003</v>
+      </c>
+      <c r="U23" s="101">
+        <v>49.166313000000002</v>
+      </c>
+      <c r="V23" s="101">
+        <v>49.530780999999998</v>
+      </c>
+      <c r="W23" s="101">
+        <v>49.890510999999996</v>
+      </c>
+      <c r="X23" s="101">
+        <v>50.244216999999999</v>
+      </c>
+      <c r="Y23" s="101">
+        <v>50.573273</v>
+      </c>
+      <c r="Z23" s="101">
+        <v>50.897018000000003</v>
+      </c>
+      <c r="AA23" s="101">
+        <v>51.222712999999999</v>
+      </c>
+      <c r="AB23" s="101">
+        <v>51.549354999999998</v>
+      </c>
+      <c r="AC23" s="101">
+        <v>51.873221999999998</v>
+      </c>
+      <c r="AD23" s="101">
+        <v>52.227497</v>
+      </c>
+      <c r="AE23" s="101">
+        <v>52.585467999999999</v>
+      </c>
+      <c r="AF23" s="101">
+        <v>52.972960999999998</v>
+      </c>
+      <c r="AG23" s="101">
+        <v>53.355491999999998</v>
+      </c>
+      <c r="AH23" s="101">
+        <v>53.757781999999999</v>
+      </c>
+      <c r="AI23" s="102">
+        <v>8.5629999999999994E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1">
+      <c r="B24" s="99" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="15" customHeight="1">
+      <c r="A25" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="101">
+        <v>1222.993408</v>
+      </c>
+      <c r="D25" s="101">
+        <v>1245.38501</v>
+      </c>
+      <c r="E25" s="101">
+        <v>1270.2579350000001</v>
+      </c>
+      <c r="F25" s="101">
+        <v>1290.457764</v>
+      </c>
+      <c r="G25" s="101">
+        <v>1307.1331789999999</v>
+      </c>
+      <c r="H25" s="101">
+        <v>1325.8835449999999</v>
+      </c>
+      <c r="I25" s="101">
+        <v>1346.39978</v>
+      </c>
+      <c r="J25" s="101">
+        <v>1366.3946530000001</v>
+      </c>
+      <c r="K25" s="101">
+        <v>1386.9772949999999</v>
+      </c>
+      <c r="L25" s="101">
+        <v>1409.3758539999999</v>
+      </c>
+      <c r="M25" s="101">
+        <v>1434.0158690000001</v>
+      </c>
+      <c r="N25" s="101">
+        <v>1459.4761960000001</v>
+      </c>
+      <c r="O25" s="101">
+        <v>1485.517212</v>
+      </c>
+      <c r="P25" s="101">
+        <v>1512.3081050000001</v>
+      </c>
+      <c r="Q25" s="101">
+        <v>1538.8709719999999</v>
+      </c>
+      <c r="R25" s="101">
+        <v>1563.6232910000001</v>
+      </c>
+      <c r="S25" s="101">
+        <v>1587.8289789999999</v>
+      </c>
+      <c r="T25" s="101">
+        <v>1613.7332759999999</v>
+      </c>
+      <c r="U25" s="101">
+        <v>1640.1088870000001</v>
+      </c>
+      <c r="V25" s="101">
+        <v>1667.4398189999999</v>
+      </c>
+      <c r="W25" s="101">
+        <v>1695.8133539999999</v>
+      </c>
+      <c r="X25" s="101">
+        <v>1724.8636469999999</v>
+      </c>
+      <c r="Y25" s="101">
+        <v>1752.975586</v>
+      </c>
+      <c r="Z25" s="101">
+        <v>1781.3413089999999</v>
+      </c>
+      <c r="AA25" s="101">
+        <v>1810.3131100000001</v>
+      </c>
+      <c r="AB25" s="101">
+        <v>1840.630981</v>
+      </c>
+      <c r="AC25" s="101">
+        <v>1874.0067140000001</v>
+      </c>
+      <c r="AD25" s="101">
+        <v>1909.959595</v>
+      </c>
+      <c r="AE25" s="101">
+        <v>1947.451172</v>
+      </c>
+      <c r="AF25" s="101">
+        <v>1987.4025879999999</v>
+      </c>
+      <c r="AG25" s="101">
+        <v>2028.573975</v>
+      </c>
+      <c r="AH25" s="101">
+        <v>2071.0893550000001</v>
+      </c>
+      <c r="AI25" s="102">
+        <v>1.7138E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="15" customHeight="1">
+      <c r="B26" s="99" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="15" customHeight="1">
+      <c r="A27" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="101">
+        <v>1807.96228</v>
+      </c>
+      <c r="D27" s="101">
+        <v>1730.8404539999999</v>
+      </c>
+      <c r="E27" s="101">
+        <v>1660.033447</v>
+      </c>
+      <c r="F27" s="101">
+        <v>1651.259399</v>
+      </c>
+      <c r="G27" s="101">
+        <v>1652.7242429999999</v>
+      </c>
+      <c r="H27" s="101">
+        <v>1638.4692379999999</v>
+      </c>
+      <c r="I27" s="101">
+        <v>1604.7768550000001</v>
+      </c>
+      <c r="J27" s="101">
+        <v>1643.9995120000001</v>
+      </c>
+      <c r="K27" s="101">
+        <v>1652.7871090000001</v>
+      </c>
+      <c r="L27" s="101">
+        <v>1662.7436520000001</v>
+      </c>
+      <c r="M27" s="101">
+        <v>1655.604004</v>
+      </c>
+      <c r="N27" s="101">
+        <v>1648.302124</v>
+      </c>
+      <c r="O27" s="101">
+        <v>1654.8007809999999</v>
+      </c>
+      <c r="P27" s="101">
+        <v>1663.8508300000001</v>
+      </c>
+      <c r="Q27" s="101">
+        <v>1673.9210210000001</v>
+      </c>
+      <c r="R27" s="101">
+        <v>1684.4979249999999</v>
+      </c>
+      <c r="S27" s="101">
+        <v>1686.8079829999999</v>
+      </c>
+      <c r="T27" s="101">
+        <v>1698.2738039999999</v>
+      </c>
+      <c r="U27" s="101">
+        <v>1704.6904300000001</v>
+      </c>
+      <c r="V27" s="101">
+        <v>1701.2554929999999</v>
+      </c>
+      <c r="W27" s="101">
+        <v>1711.9681399999999</v>
+      </c>
+      <c r="X27" s="101">
+        <v>1715.1282960000001</v>
+      </c>
+      <c r="Y27" s="101">
+        <v>1722.2583010000001</v>
+      </c>
+      <c r="Z27" s="101">
+        <v>1735.240356</v>
+      </c>
+      <c r="AA27" s="101">
+        <v>1747.2885739999999</v>
+      </c>
+      <c r="AB27" s="101">
+        <v>1760.9610600000001</v>
+      </c>
+      <c r="AC27" s="101">
+        <v>1777.279663</v>
+      </c>
+      <c r="AD27" s="101">
+        <v>1802.0692140000001</v>
+      </c>
+      <c r="AE27" s="101">
+        <v>1818.081543</v>
+      </c>
+      <c r="AF27" s="101">
+        <v>1839.2490230000001</v>
+      </c>
+      <c r="AG27" s="101">
+        <v>1861.996948</v>
+      </c>
+      <c r="AH27" s="101">
+        <v>1888.5421140000001</v>
+      </c>
+      <c r="AI27" s="102">
+        <v>1.408E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="15" customHeight="1">
+      <c r="A28" s="96" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="101">
+        <v>416.68075599999997</v>
+      </c>
+      <c r="D28" s="101">
+        <v>409.15490699999998</v>
+      </c>
+      <c r="E28" s="101">
+        <v>404.529877</v>
+      </c>
+      <c r="F28" s="101">
+        <v>396.47796599999998</v>
+      </c>
+      <c r="G28" s="101">
+        <v>388.98980699999998</v>
+      </c>
+      <c r="H28" s="101">
+        <v>379.45697000000001</v>
+      </c>
+      <c r="I28" s="101">
+        <v>370.07324199999999</v>
+      </c>
+      <c r="J28" s="101">
+        <v>361.44610599999999</v>
+      </c>
+      <c r="K28" s="101">
+        <v>352.76406900000001</v>
+      </c>
+      <c r="L28" s="101">
+        <v>343.56066900000002</v>
+      </c>
+      <c r="M28" s="101">
+        <v>333.81878699999999</v>
+      </c>
+      <c r="N28" s="101">
+        <v>323.794983</v>
+      </c>
+      <c r="O28" s="101">
+        <v>320.25204500000001</v>
+      </c>
+      <c r="P28" s="101">
+        <v>316.14532500000001</v>
+      </c>
+      <c r="Q28" s="101">
+        <v>312.65210000000002</v>
+      </c>
+      <c r="R28" s="101">
+        <v>308.385468</v>
+      </c>
+      <c r="S28" s="101">
+        <v>304.23715199999998</v>
+      </c>
+      <c r="T28" s="101">
+        <v>300.63772599999999</v>
+      </c>
+      <c r="U28" s="101">
+        <v>296.55325299999998</v>
+      </c>
+      <c r="V28" s="101">
+        <v>292.41882299999997</v>
+      </c>
+      <c r="W28" s="101">
+        <v>288.76394699999997</v>
+      </c>
+      <c r="X28" s="101">
+        <v>284.95684799999998</v>
+      </c>
+      <c r="Y28" s="101">
+        <v>283.66168199999998</v>
+      </c>
+      <c r="Z28" s="101">
+        <v>282.64859000000001</v>
+      </c>
+      <c r="AA28" s="101">
+        <v>281.33288599999997</v>
+      </c>
+      <c r="AB28" s="101">
+        <v>280.511841</v>
+      </c>
+      <c r="AC28" s="101">
+        <v>279.87280299999998</v>
+      </c>
+      <c r="AD28" s="101">
+        <v>280.18786599999999</v>
+      </c>
+      <c r="AE28" s="101">
+        <v>279.40164199999998</v>
+      </c>
+      <c r="AF28" s="101">
+        <v>279.350281</v>
+      </c>
+      <c r="AG28" s="101">
+        <v>279.69216899999998</v>
+      </c>
+      <c r="AH28" s="101">
+        <v>280.25091600000002</v>
+      </c>
+      <c r="AI28" s="102">
+        <v>-1.2713E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="15" customHeight="1">
+      <c r="B30" s="99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="15" customHeight="1">
+      <c r="B31" s="99" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1">
+      <c r="A32" s="96" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="103">
+        <v>34.359935999999998</v>
+      </c>
+      <c r="D32" s="103">
+        <v>35.284824</v>
+      </c>
+      <c r="E32" s="103">
+        <v>36.831001000000001</v>
+      </c>
+      <c r="F32" s="103">
+        <v>38.399506000000002</v>
+      </c>
+      <c r="G32" s="103">
+        <v>40.110416000000001</v>
+      </c>
+      <c r="H32" s="103">
+        <v>41.695168000000002</v>
+      </c>
+      <c r="I32" s="103">
+        <v>43.801582000000003</v>
+      </c>
+      <c r="J32" s="103">
+        <v>43.785815999999997</v>
+      </c>
+      <c r="K32" s="103">
+        <v>43.851311000000003</v>
+      </c>
+      <c r="L32" s="103">
+        <v>43.924210000000002</v>
+      </c>
+      <c r="M32" s="103">
+        <v>44.014651999999998</v>
+      </c>
+      <c r="N32" s="103">
+        <v>44.196795999999999</v>
+      </c>
+      <c r="O32" s="103">
+        <v>44.303348999999997</v>
+      </c>
+      <c r="P32" s="103">
+        <v>44.390171000000002</v>
+      </c>
+      <c r="Q32" s="103">
+        <v>44.493732000000001</v>
+      </c>
+      <c r="R32" s="103">
+        <v>44.608539999999998</v>
+      </c>
+      <c r="S32" s="103">
+        <v>44.698715</v>
+      </c>
+      <c r="T32" s="103">
+        <v>44.789574000000002</v>
+      </c>
+      <c r="U32" s="103">
+        <v>44.882373999999999</v>
+      </c>
+      <c r="V32" s="103">
+        <v>44.963428</v>
+      </c>
+      <c r="W32" s="103">
+        <v>45.039088999999997</v>
+      </c>
+      <c r="X32" s="103">
+        <v>45.114040000000003</v>
+      </c>
+      <c r="Y32" s="103">
+        <v>45.192309999999999</v>
+      </c>
+      <c r="Z32" s="103">
+        <v>45.257289999999998</v>
+      </c>
+      <c r="AA32" s="103">
+        <v>45.303879000000002</v>
+      </c>
+      <c r="AB32" s="103">
+        <v>45.340485000000001</v>
+      </c>
+      <c r="AC32" s="103">
+        <v>45.390273999999998</v>
+      </c>
+      <c r="AD32" s="103">
+        <v>45.422103999999997</v>
+      </c>
+      <c r="AE32" s="103">
+        <v>45.456977999999999</v>
+      </c>
+      <c r="AF32" s="103">
+        <v>45.479819999999997</v>
+      </c>
+      <c r="AG32" s="103">
+        <v>45.506923999999998</v>
+      </c>
+      <c r="AH32" s="103">
+        <v>45.514235999999997</v>
+      </c>
+      <c r="AI32" s="102">
+        <v>9.11E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="15" customHeight="1">
+      <c r="A33" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="103">
+        <v>40.551155000000001</v>
+      </c>
+      <c r="D33" s="103">
+        <v>42.338371000000002</v>
+      </c>
+      <c r="E33" s="103">
+        <v>44.294533000000001</v>
+      </c>
+      <c r="F33" s="103">
+        <v>46.414017000000001</v>
+      </c>
+      <c r="G33" s="103">
+        <v>48.711933000000002</v>
+      </c>
+      <c r="H33" s="103">
+        <v>50.082985000000001</v>
+      </c>
+      <c r="I33" s="103">
+        <v>52.773457000000001</v>
+      </c>
+      <c r="J33" s="103">
+        <v>52.773730999999998</v>
+      </c>
+      <c r="K33" s="103">
+        <v>52.786338999999998</v>
+      </c>
+      <c r="L33" s="103">
+        <v>52.786338999999998</v>
+      </c>
+      <c r="M33" s="103">
+        <v>52.798622000000002</v>
+      </c>
+      <c r="N33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="O33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="P33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="Q33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="R33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="S33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="T33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="U33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="V33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="W33" s="103">
+        <v>52.841563999999998</v>
+      </c>
+      <c r="X33" s="103">
+        <v>52.842728000000001</v>
+      </c>
+      <c r="Y33" s="103">
+        <v>52.844788000000001</v>
+      </c>
+      <c r="Z33" s="103">
+        <v>52.844788000000001</v>
+      </c>
+      <c r="AA33" s="103">
+        <v>52.844788000000001</v>
+      </c>
+      <c r="AB33" s="103">
+        <v>52.844788000000001</v>
+      </c>
+      <c r="AC33" s="103">
+        <v>52.847529999999999</v>
+      </c>
+      <c r="AD33" s="103">
+        <v>52.847529999999999</v>
+      </c>
+      <c r="AE33" s="103">
+        <v>52.848723999999997</v>
+      </c>
+      <c r="AF33" s="103">
+        <v>52.848723999999997</v>
+      </c>
+      <c r="AG33" s="103">
+        <v>52.849879999999999</v>
+      </c>
+      <c r="AH33" s="103">
+        <v>52.849879999999999</v>
+      </c>
+      <c r="AI33" s="102">
+        <v>8.5819999999999994E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="15" customHeight="1">
+      <c r="A34" s="96" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" s="103">
+        <v>30.299700000000001</v>
+      </c>
+      <c r="D34" s="103">
+        <v>30.889185000000001</v>
+      </c>
+      <c r="E34" s="103">
+        <v>32.380001</v>
+      </c>
+      <c r="F34" s="103">
+        <v>33.779899999999998</v>
+      </c>
+      <c r="G34" s="103">
+        <v>35.309071000000003</v>
+      </c>
+      <c r="H34" s="103">
+        <v>36.976478999999998</v>
+      </c>
+      <c r="I34" s="103">
+        <v>38.765255000000003</v>
+      </c>
+      <c r="J34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="K34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="L34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="M34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="N34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="O34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="P34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="Q34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="R34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="S34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="T34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="U34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="V34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="W34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="X34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="Y34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="Z34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AA34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AB34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AC34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AD34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AE34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AF34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AG34" s="103">
+        <v>38.772990999999998</v>
+      </c>
+      <c r="AH34" s="103">
+        <v>38.773014000000003</v>
+      </c>
+      <c r="AI34" s="102">
+        <v>7.986E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="15" customHeight="1">
+      <c r="A35" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="103">
+        <v>35.348213000000001</v>
+      </c>
+      <c r="D35" s="103">
+        <v>36.238525000000003</v>
+      </c>
+      <c r="E35" s="103">
+        <v>37.596539</v>
+      </c>
+      <c r="F35" s="103">
+        <v>39.379330000000003</v>
+      </c>
+      <c r="G35" s="103">
+        <v>40.901978</v>
+      </c>
+      <c r="H35" s="103">
+        <v>42.360343999999998</v>
+      </c>
+      <c r="I35" s="103">
+        <v>44.567290999999997</v>
+      </c>
+      <c r="J35" s="103">
+        <v>44.831283999999997</v>
+      </c>
+      <c r="K35" s="103">
+        <v>44.934002</v>
+      </c>
+      <c r="L35" s="103">
+        <v>45.040806000000003</v>
+      </c>
+      <c r="M35" s="103">
+        <v>45.183762000000002</v>
+      </c>
+      <c r="N35" s="103">
+        <v>45.495753999999998</v>
+      </c>
+      <c r="O35" s="103">
+        <v>45.787571</v>
+      </c>
+      <c r="P35" s="103">
+        <v>46.034675999999997</v>
+      </c>
+      <c r="Q35" s="103">
+        <v>46.317447999999999</v>
+      </c>
+      <c r="R35" s="103">
+        <v>46.60257</v>
+      </c>
+      <c r="S35" s="103">
+        <v>46.849384000000001</v>
+      </c>
+      <c r="T35" s="103">
+        <v>47.060443999999997</v>
+      </c>
+      <c r="U35" s="103">
+        <v>47.280040999999997</v>
+      </c>
+      <c r="V35" s="103">
+        <v>47.481696999999997</v>
+      </c>
+      <c r="W35" s="103">
+        <v>47.659728999999999</v>
+      </c>
+      <c r="X35" s="103">
+        <v>47.830649999999999</v>
+      </c>
+      <c r="Y35" s="103">
+        <v>47.980514999999997</v>
+      </c>
+      <c r="Z35" s="103">
+        <v>48.108443999999999</v>
+      </c>
+      <c r="AA35" s="103">
+        <v>48.197189000000002</v>
+      </c>
+      <c r="AB35" s="103">
+        <v>48.262737000000001</v>
+      </c>
+      <c r="AC35" s="103">
+        <v>48.354900000000001</v>
+      </c>
+      <c r="AD35" s="103">
+        <v>48.425739</v>
+      </c>
+      <c r="AE35" s="103">
+        <v>48.504185</v>
+      </c>
+      <c r="AF35" s="103">
+        <v>48.562854999999999</v>
+      </c>
+      <c r="AG35" s="103">
+        <v>48.634819</v>
+      </c>
+      <c r="AH35" s="103">
+        <v>48.674247999999999</v>
+      </c>
+      <c r="AI35" s="102">
+        <v>1.0373E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="15" customHeight="1">
+      <c r="A36" s="96" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="103">
+        <v>42.356316</v>
+      </c>
+      <c r="D36" s="103">
+        <v>43.482601000000003</v>
+      </c>
+      <c r="E36" s="103">
+        <v>45.545634999999997</v>
+      </c>
+      <c r="F36" s="103">
+        <v>47.835650999999999</v>
+      </c>
+      <c r="G36" s="103">
+        <v>49.962463</v>
+      </c>
+      <c r="H36" s="103">
+        <v>51.477432</v>
+      </c>
+      <c r="I36" s="103">
+        <v>54.131186999999997</v>
+      </c>
+      <c r="J36" s="103">
+        <v>54.288181000000002</v>
+      </c>
+      <c r="K36" s="103">
+        <v>54.274036000000002</v>
+      </c>
+      <c r="L36" s="103">
+        <v>54.345481999999997</v>
+      </c>
+      <c r="M36" s="103">
+        <v>54.476520999999998</v>
+      </c>
+      <c r="N36" s="103">
+        <v>54.755726000000003</v>
+      </c>
+      <c r="O36" s="103">
+        <v>55.198650000000001</v>
+      </c>
+      <c r="P36" s="103">
+        <v>55.546596999999998</v>
+      </c>
+      <c r="Q36" s="103">
+        <v>55.910609999999998</v>
+      </c>
+      <c r="R36" s="103">
+        <v>56.268237999999997</v>
+      </c>
+      <c r="S36" s="103">
+        <v>56.616008999999998</v>
+      </c>
+      <c r="T36" s="103">
+        <v>56.875309000000001</v>
+      </c>
+      <c r="U36" s="103">
+        <v>57.153564000000003</v>
+      </c>
+      <c r="V36" s="103">
+        <v>57.421860000000002</v>
+      </c>
+      <c r="W36" s="103">
+        <v>57.643833000000001</v>
+      </c>
+      <c r="X36" s="103">
+        <v>57.841147999999997</v>
+      </c>
+      <c r="Y36" s="103">
+        <v>57.984363999999999</v>
+      </c>
+      <c r="Z36" s="103">
+        <v>58.118862</v>
+      </c>
+      <c r="AA36" s="103">
+        <v>58.223202000000001</v>
+      </c>
+      <c r="AB36" s="103">
+        <v>58.303882999999999</v>
+      </c>
+      <c r="AC36" s="103">
+        <v>58.397022</v>
+      </c>
+      <c r="AD36" s="103">
+        <v>58.512680000000003</v>
+      </c>
+      <c r="AE36" s="103">
+        <v>58.621887000000001</v>
+      </c>
+      <c r="AF36" s="103">
+        <v>58.738182000000002</v>
+      </c>
+      <c r="AG36" s="103">
+        <v>58.859608000000001</v>
+      </c>
+      <c r="AH36" s="103">
+        <v>58.987617</v>
+      </c>
+      <c r="AI36" s="102">
+        <v>1.0741000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="15" customHeight="1">
+      <c r="A37" s="96" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>337</v>
+      </c>
+      <c r="C37" s="103">
+        <v>30.865908000000001</v>
+      </c>
+      <c r="D37" s="103">
+        <v>31.724129000000001</v>
+      </c>
+      <c r="E37" s="103">
+        <v>32.910632999999997</v>
+      </c>
+      <c r="F37" s="103">
+        <v>34.543072000000002</v>
+      </c>
+      <c r="G37" s="103">
+        <v>35.889904000000001</v>
+      </c>
+      <c r="H37" s="103">
+        <v>37.32349</v>
+      </c>
+      <c r="I37" s="103">
+        <v>39.265720000000002</v>
+      </c>
+      <c r="J37" s="103">
+        <v>39.595291000000003</v>
+      </c>
+      <c r="K37" s="103">
+        <v>39.653728000000001</v>
+      </c>
+      <c r="L37" s="103">
+        <v>39.666462000000003</v>
+      </c>
+      <c r="M37" s="103">
+        <v>39.683132000000001</v>
+      </c>
+      <c r="N37" s="103">
+        <v>39.748066000000001</v>
+      </c>
+      <c r="O37" s="103">
+        <v>39.797893999999999</v>
+      </c>
+      <c r="P37" s="103">
+        <v>39.852974000000003</v>
+      </c>
+      <c r="Q37" s="103">
+        <v>39.920296</v>
+      </c>
+      <c r="R37" s="103">
+        <v>39.970134999999999</v>
+      </c>
+      <c r="S37" s="103">
+        <v>40.005046999999998</v>
+      </c>
+      <c r="T37" s="103">
+        <v>40.026470000000003</v>
+      </c>
+      <c r="U37" s="103">
+        <v>40.043441999999999</v>
+      </c>
+      <c r="V37" s="103">
+        <v>40.056137</v>
+      </c>
+      <c r="W37" s="103">
+        <v>40.064692999999998</v>
+      </c>
+      <c r="X37" s="103">
+        <v>40.075218</v>
+      </c>
+      <c r="Y37" s="103">
+        <v>40.075614999999999</v>
+      </c>
+      <c r="Z37" s="103">
+        <v>40.069695000000003</v>
+      </c>
+      <c r="AA37" s="103">
+        <v>40.055481</v>
+      </c>
+      <c r="AB37" s="103">
+        <v>40.038029000000002</v>
+      </c>
+      <c r="AC37" s="103">
+        <v>40.029407999999997</v>
+      </c>
+      <c r="AD37" s="103">
+        <v>40.008018</v>
+      </c>
+      <c r="AE37" s="103">
+        <v>39.996074999999998</v>
+      </c>
+      <c r="AF37" s="103">
+        <v>39.972541999999997</v>
+      </c>
+      <c r="AG37" s="103">
+        <v>39.958122000000003</v>
+      </c>
+      <c r="AH37" s="103">
+        <v>39.929473999999999</v>
+      </c>
+      <c r="AI37" s="102">
+        <v>8.3400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="15" customHeight="1">
+      <c r="A38" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38" s="103">
+        <v>34.962322</v>
+      </c>
+      <c r="D38" s="103">
+        <v>35.991081000000001</v>
+      </c>
+      <c r="E38" s="103">
+        <v>37.288235</v>
+      </c>
+      <c r="F38" s="103">
+        <v>39.051093999999999</v>
+      </c>
+      <c r="G38" s="103">
+        <v>40.553646000000001</v>
+      </c>
+      <c r="H38" s="103">
+        <v>41.976016999999999</v>
+      </c>
+      <c r="I38" s="103">
+        <v>44.120575000000002</v>
+      </c>
+      <c r="J38" s="103">
+        <v>44.336227000000001</v>
+      </c>
+      <c r="K38" s="103">
+        <v>44.414065999999998</v>
+      </c>
+      <c r="L38" s="103">
+        <v>44.500385000000001</v>
+      </c>
+      <c r="M38" s="103">
+        <v>44.615799000000003</v>
+      </c>
+      <c r="N38" s="103">
+        <v>44.876506999999997</v>
+      </c>
+      <c r="O38" s="103">
+        <v>45.111603000000002</v>
+      </c>
+      <c r="P38" s="103">
+        <v>45.306648000000003</v>
+      </c>
+      <c r="Q38" s="103">
+        <v>45.531081999999998</v>
+      </c>
+      <c r="R38" s="103">
+        <v>45.754570000000001</v>
+      </c>
+      <c r="S38" s="103">
+        <v>45.942371000000001</v>
+      </c>
+      <c r="T38" s="103">
+        <v>46.099640000000001</v>
+      </c>
+      <c r="U38" s="103">
+        <v>46.263412000000002</v>
+      </c>
+      <c r="V38" s="103">
+        <v>46.411850000000001</v>
+      </c>
+      <c r="W38" s="103">
+        <v>46.541386000000003</v>
+      </c>
+      <c r="X38" s="103">
+        <v>46.666012000000002</v>
+      </c>
+      <c r="Y38" s="103">
+        <v>46.777721</v>
+      </c>
+      <c r="Z38" s="103">
+        <v>46.871037000000001</v>
+      </c>
+      <c r="AA38" s="103">
+        <v>46.931049000000002</v>
+      </c>
+      <c r="AB38" s="103">
+        <v>46.971848000000001</v>
+      </c>
+      <c r="AC38" s="103">
+        <v>47.034362999999999</v>
+      </c>
+      <c r="AD38" s="103">
+        <v>47.077263000000002</v>
+      </c>
+      <c r="AE38" s="103">
+        <v>47.126358000000003</v>
+      </c>
+      <c r="AF38" s="103">
+        <v>47.158011999999999</v>
+      </c>
+      <c r="AG38" s="103">
+        <v>47.200370999999997</v>
+      </c>
+      <c r="AH38" s="103">
+        <v>47.214767000000002</v>
+      </c>
+      <c r="AI38" s="102">
+        <v>9.7389999999999994E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="15" customHeight="1">
+      <c r="A39" s="96" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" s="103">
+        <v>41.715885</v>
+      </c>
+      <c r="D39" s="103">
+        <v>42.872379000000002</v>
+      </c>
+      <c r="E39" s="103">
+        <v>44.733494</v>
+      </c>
+      <c r="F39" s="103">
+        <v>46.957068999999997</v>
+      </c>
+      <c r="G39" s="103">
+        <v>49.003487</v>
+      </c>
+      <c r="H39" s="103">
+        <v>50.415680000000002</v>
+      </c>
+      <c r="I39" s="103">
+        <v>52.908669000000003</v>
+      </c>
+      <c r="J39" s="103">
+        <v>53.035347000000002</v>
+      </c>
+      <c r="K39" s="103">
+        <v>53.002814999999998</v>
+      </c>
+      <c r="L39" s="103">
+        <v>53.031281</v>
+      </c>
+      <c r="M39" s="103">
+        <v>53.101596999999998</v>
+      </c>
+      <c r="N39" s="103">
+        <v>53.283951000000002</v>
+      </c>
+      <c r="O39" s="103">
+        <v>53.593539999999997</v>
+      </c>
+      <c r="P39" s="103">
+        <v>53.827370000000002</v>
+      </c>
+      <c r="Q39" s="103">
+        <v>54.068119000000003</v>
+      </c>
+      <c r="R39" s="103">
+        <v>54.300162999999998</v>
+      </c>
+      <c r="S39" s="103">
+        <v>54.521735999999997</v>
+      </c>
+      <c r="T39" s="103">
+        <v>54.675041</v>
+      </c>
+      <c r="U39" s="103">
+        <v>54.843936999999997</v>
+      </c>
+      <c r="V39" s="103">
+        <v>55.006740999999998</v>
+      </c>
+      <c r="W39" s="103">
+        <v>55.136218999999997</v>
+      </c>
+      <c r="X39" s="103">
+        <v>55.248565999999997</v>
+      </c>
+      <c r="Y39" s="103">
+        <v>55.326115000000001</v>
+      </c>
+      <c r="Z39" s="103">
+        <v>55.397579</v>
+      </c>
+      <c r="AA39" s="103">
+        <v>55.445976000000002</v>
+      </c>
+      <c r="AB39" s="103">
+        <v>55.477283</v>
+      </c>
+      <c r="AC39" s="103">
+        <v>55.516716000000002</v>
+      </c>
+      <c r="AD39" s="103">
+        <v>55.571734999999997</v>
+      </c>
+      <c r="AE39" s="103">
+        <v>55.621513</v>
+      </c>
+      <c r="AF39" s="103">
+        <v>55.67548</v>
+      </c>
+      <c r="AG39" s="103">
+        <v>55.732970999999999</v>
+      </c>
+      <c r="AH39" s="103">
+        <v>55.794552000000003</v>
+      </c>
+      <c r="AI39" s="102">
+        <v>9.4249999999999994E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="15" customHeight="1">
+      <c r="A40" s="96" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" s="103">
+        <v>30.612513</v>
+      </c>
+      <c r="D40" s="103">
+        <v>31.651661000000001</v>
+      </c>
+      <c r="E40" s="103">
+        <v>32.830523999999997</v>
+      </c>
+      <c r="F40" s="103">
+        <v>34.456524000000002</v>
+      </c>
+      <c r="G40" s="103">
+        <v>35.799854000000003</v>
+      </c>
+      <c r="H40" s="103">
+        <v>37.227469999999997</v>
+      </c>
+      <c r="I40" s="103">
+        <v>39.151051000000002</v>
+      </c>
+      <c r="J40" s="103">
+        <v>39.426971000000002</v>
+      </c>
+      <c r="K40" s="103">
+        <v>39.465645000000002</v>
+      </c>
+      <c r="L40" s="103">
+        <v>39.475208000000002</v>
+      </c>
+      <c r="M40" s="103">
+        <v>39.488101999999998</v>
+      </c>
+      <c r="N40" s="103">
+        <v>39.541682999999999</v>
+      </c>
+      <c r="O40" s="103">
+        <v>39.581786999999998</v>
+      </c>
+      <c r="P40" s="103">
+        <v>39.624954000000002</v>
+      </c>
+      <c r="Q40" s="103">
+        <v>39.679687999999999</v>
+      </c>
+      <c r="R40" s="103">
+        <v>39.716709000000002</v>
+      </c>
+      <c r="S40" s="103">
+        <v>39.740402000000003</v>
+      </c>
+      <c r="T40" s="103">
+        <v>39.750675000000001</v>
+      </c>
+      <c r="U40" s="103">
+        <v>39.756599000000001</v>
+      </c>
+      <c r="V40" s="103">
+        <v>39.759041000000003</v>
+      </c>
+      <c r="W40" s="103">
+        <v>39.758136999999998</v>
+      </c>
+      <c r="X40" s="103">
+        <v>39.759655000000002</v>
+      </c>
+      <c r="Y40" s="103">
+        <v>39.754989999999999</v>
+      </c>
+      <c r="Z40" s="103">
+        <v>39.745635999999998</v>
+      </c>
+      <c r="AA40" s="103">
+        <v>39.729228999999997</v>
+      </c>
+      <c r="AB40" s="103">
+        <v>39.710048999999998</v>
+      </c>
+      <c r="AC40" s="103">
+        <v>39.698334000000003</v>
+      </c>
+      <c r="AD40" s="103">
+        <v>39.675387999999998</v>
+      </c>
+      <c r="AE40" s="103">
+        <v>39.66048</v>
+      </c>
+      <c r="AF40" s="103">
+        <v>39.635680999999998</v>
+      </c>
+      <c r="AG40" s="103">
+        <v>39.618450000000003</v>
+      </c>
+      <c r="AH40" s="103">
+        <v>39.589142000000002</v>
+      </c>
+      <c r="AI40" s="102">
+        <v>8.3300000000000006E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="15" customHeight="1">
+      <c r="A41" s="96" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" s="103">
+        <v>28.524006</v>
+      </c>
+      <c r="D41" s="103">
+        <v>29.363092000000002</v>
+      </c>
+      <c r="E41" s="103">
+        <v>30.420794000000001</v>
+      </c>
+      <c r="F41" s="103">
+        <v>31.858644000000002</v>
+      </c>
+      <c r="G41" s="103">
+        <v>33.084071999999999</v>
+      </c>
+      <c r="H41" s="103">
+        <v>34.244456999999997</v>
+      </c>
+      <c r="I41" s="103">
+        <v>35.994076</v>
+      </c>
+      <c r="J41" s="103">
+        <v>36.169978999999998</v>
+      </c>
+      <c r="K41" s="103">
+        <v>36.233745999999996</v>
+      </c>
+      <c r="L41" s="103">
+        <v>36.304462000000001</v>
+      </c>
+      <c r="M41" s="103">
+        <v>36.398952000000001</v>
+      </c>
+      <c r="N41" s="103">
+        <v>36.612296999999998</v>
+      </c>
+      <c r="O41" s="103">
+        <v>36.804462000000001</v>
+      </c>
+      <c r="P41" s="103">
+        <v>36.963898</v>
+      </c>
+      <c r="Q41" s="103">
+        <v>37.147385</v>
+      </c>
+      <c r="R41" s="103">
+        <v>37.330143</v>
+      </c>
+      <c r="S41" s="103">
+        <v>37.483685000000001</v>
+      </c>
+      <c r="T41" s="103">
+        <v>37.612338999999999</v>
+      </c>
+      <c r="U41" s="103">
+        <v>37.746299999999998</v>
+      </c>
+      <c r="V41" s="103">
+        <v>37.867699000000002</v>
+      </c>
+      <c r="W41" s="103">
+        <v>37.973671000000003</v>
+      </c>
+      <c r="X41" s="103">
+        <v>38.075637999999998</v>
+      </c>
+      <c r="Y41" s="103">
+        <v>38.167079999999999</v>
+      </c>
+      <c r="Z41" s="103">
+        <v>38.243473000000002</v>
+      </c>
+      <c r="AA41" s="103">
+        <v>38.292617999999997</v>
+      </c>
+      <c r="AB41" s="103">
+        <v>38.326034999999997</v>
+      </c>
+      <c r="AC41" s="103">
+        <v>38.377234999999999</v>
+      </c>
+      <c r="AD41" s="103">
+        <v>38.412345999999999</v>
+      </c>
+      <c r="AE41" s="103">
+        <v>38.452530000000003</v>
+      </c>
+      <c r="AF41" s="103">
+        <v>38.478436000000002</v>
+      </c>
+      <c r="AG41" s="103">
+        <v>38.513092</v>
+      </c>
+      <c r="AH41" s="103">
+        <v>38.524833999999998</v>
+      </c>
+      <c r="AI41" s="102">
+        <v>9.7420000000000007E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" ht="15" customHeight="1">
+      <c r="A42" s="96" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="103">
+        <v>34.065807</v>
+      </c>
+      <c r="D42" s="103">
+        <v>35.010216</v>
+      </c>
+      <c r="E42" s="103">
+        <v>36.530028999999999</v>
+      </c>
+      <c r="F42" s="103">
+        <v>38.345837000000003</v>
+      </c>
+      <c r="G42" s="103">
+        <v>40.016972000000003</v>
+      </c>
+      <c r="H42" s="103">
+        <v>41.170189000000001</v>
+      </c>
+      <c r="I42" s="103">
+        <v>43.205997000000004</v>
+      </c>
+      <c r="J42" s="103">
+        <v>43.309448000000003</v>
+      </c>
+      <c r="K42" s="103">
+        <v>43.282879000000001</v>
+      </c>
+      <c r="L42" s="103">
+        <v>43.306125999999999</v>
+      </c>
+      <c r="M42" s="103">
+        <v>43.363548000000002</v>
+      </c>
+      <c r="N42" s="103">
+        <v>43.512459</v>
+      </c>
+      <c r="O42" s="103">
+        <v>43.765273999999998</v>
+      </c>
+      <c r="P42" s="103">
+        <v>43.956223000000001</v>
+      </c>
+      <c r="Q42" s="103">
+        <v>44.152824000000003</v>
+      </c>
+      <c r="R42" s="103">
+        <v>44.342315999999997</v>
+      </c>
+      <c r="S42" s="103">
+        <v>44.523254000000001</v>
+      </c>
+      <c r="T42" s="103">
+        <v>44.648445000000002</v>
+      </c>
+      <c r="U42" s="103">
+        <v>44.786369000000001</v>
+      </c>
+      <c r="V42" s="103">
+        <v>44.919314999999997</v>
+      </c>
+      <c r="W42" s="103">
+        <v>45.025050999999998</v>
+      </c>
+      <c r="X42" s="103">
+        <v>45.116795000000003</v>
+      </c>
+      <c r="Y42" s="103">
+        <v>45.180121999999997</v>
+      </c>
+      <c r="Z42" s="103">
+        <v>45.238480000000003</v>
+      </c>
+      <c r="AA42" s="103">
+        <v>45.278004000000003</v>
+      </c>
+      <c r="AB42" s="103">
+        <v>45.303566000000004</v>
+      </c>
+      <c r="AC42" s="103">
+        <v>45.335769999999997</v>
+      </c>
+      <c r="AD42" s="103">
+        <v>45.380699</v>
+      </c>
+      <c r="AE42" s="103">
+        <v>45.421348999999999</v>
+      </c>
+      <c r="AF42" s="103">
+        <v>45.465420000000002</v>
+      </c>
+      <c r="AG42" s="103">
+        <v>45.512366999999998</v>
+      </c>
+      <c r="AH42" s="103">
+        <v>45.562652999999997</v>
+      </c>
+      <c r="AI42" s="102">
+        <v>9.4249999999999994E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="15" customHeight="1">
+      <c r="A43" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="103">
+        <v>24.960156999999999</v>
+      </c>
+      <c r="D43" s="103">
+        <v>25.807435999999999</v>
+      </c>
+      <c r="E43" s="103">
+        <v>26.768633000000001</v>
+      </c>
+      <c r="F43" s="103">
+        <v>28.094404000000001</v>
+      </c>
+      <c r="G43" s="103">
+        <v>29.189699000000001</v>
+      </c>
+      <c r="H43" s="103">
+        <v>30.353718000000001</v>
+      </c>
+      <c r="I43" s="103">
+        <v>31.922125000000001</v>
+      </c>
+      <c r="J43" s="103">
+        <v>32.147098999999997</v>
+      </c>
+      <c r="K43" s="103">
+        <v>32.178631000000003</v>
+      </c>
+      <c r="L43" s="103">
+        <v>32.186427999999999</v>
+      </c>
+      <c r="M43" s="103">
+        <v>32.196941000000002</v>
+      </c>
+      <c r="N43" s="103">
+        <v>32.240631</v>
+      </c>
+      <c r="O43" s="103">
+        <v>32.273327000000002</v>
+      </c>
+      <c r="P43" s="103">
+        <v>32.308525000000003</v>
+      </c>
+      <c r="Q43" s="103">
+        <v>32.353152999999999</v>
+      </c>
+      <c r="R43" s="103">
+        <v>32.383338999999999</v>
+      </c>
+      <c r="S43" s="103">
+        <v>32.402656999999998</v>
+      </c>
+      <c r="T43" s="103">
+        <v>32.411034000000001</v>
+      </c>
+      <c r="U43" s="103">
+        <v>32.415863000000002</v>
+      </c>
+      <c r="V43" s="103">
+        <v>32.417853999999998</v>
+      </c>
+      <c r="W43" s="103">
+        <v>32.417118000000002</v>
+      </c>
+      <c r="X43" s="103">
+        <v>32.418354000000001</v>
+      </c>
+      <c r="Y43" s="103">
+        <v>32.414551000000003</v>
+      </c>
+      <c r="Z43" s="103">
+        <v>32.406925000000001</v>
+      </c>
+      <c r="AA43" s="103">
+        <v>32.393546999999998</v>
+      </c>
+      <c r="AB43" s="103">
+        <v>32.377907</v>
+      </c>
+      <c r="AC43" s="103">
+        <v>32.368355000000001</v>
+      </c>
+      <c r="AD43" s="103">
+        <v>32.349648000000002</v>
+      </c>
+      <c r="AE43" s="103">
+        <v>32.337490000000003</v>
+      </c>
+      <c r="AF43" s="103">
+        <v>32.317272000000003</v>
+      </c>
+      <c r="AG43" s="103">
+        <v>32.303223000000003</v>
+      </c>
+      <c r="AH43" s="103">
+        <v>32.279324000000003</v>
+      </c>
+      <c r="AI43" s="102">
+        <v>8.3300000000000006E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="15" customHeight="1">
+      <c r="A44" s="96" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="100" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="103">
+        <v>23.821982999999999</v>
+      </c>
+      <c r="D44" s="103">
+        <v>24.306308999999999</v>
+      </c>
+      <c r="E44" s="103">
+        <v>24.833947999999999</v>
+      </c>
+      <c r="F44" s="103">
+        <v>25.423760999999999</v>
+      </c>
+      <c r="G44" s="103">
+        <v>26.058413000000002</v>
+      </c>
+      <c r="H44" s="103">
+        <v>26.717703</v>
+      </c>
+      <c r="I44" s="103">
+        <v>27.428259000000001</v>
+      </c>
+      <c r="J44" s="103">
+        <v>28.114606999999999</v>
+      </c>
+      <c r="K44" s="103">
+        <v>28.770239</v>
+      </c>
+      <c r="L44" s="103">
+        <v>29.396702000000001</v>
+      </c>
+      <c r="M44" s="103">
+        <v>29.996196999999999</v>
+      </c>
+      <c r="N44" s="103">
+        <v>30.570719</v>
+      </c>
+      <c r="O44" s="103">
+        <v>31.119152</v>
+      </c>
+      <c r="P44" s="103">
+        <v>31.645043999999999</v>
+      </c>
+      <c r="Q44" s="103">
+        <v>32.146507</v>
+      </c>
+      <c r="R44" s="103">
+        <v>32.624386000000001</v>
+      </c>
+      <c r="S44" s="103">
+        <v>33.076698</v>
+      </c>
+      <c r="T44" s="103">
+        <v>33.502513999999998</v>
+      </c>
+      <c r="U44" s="103">
+        <v>33.899712000000001</v>
+      </c>
+      <c r="V44" s="103">
+        <v>34.266941000000003</v>
+      </c>
+      <c r="W44" s="103">
+        <v>34.603637999999997</v>
+      </c>
+      <c r="X44" s="103">
+        <v>34.907772000000001</v>
+      </c>
+      <c r="Y44" s="103">
+        <v>35.185284000000003</v>
+      </c>
+      <c r="Z44" s="103">
+        <v>35.43647</v>
+      </c>
+      <c r="AA44" s="103">
+        <v>35.660904000000002</v>
+      </c>
+      <c r="AB44" s="103">
+        <v>35.862267000000003</v>
+      </c>
+      <c r="AC44" s="103">
+        <v>36.047432000000001</v>
+      </c>
+      <c r="AD44" s="103">
+        <v>36.213295000000002</v>
+      </c>
+      <c r="AE44" s="103">
+        <v>36.364738000000003</v>
+      </c>
+      <c r="AF44" s="103">
+        <v>36.501759</v>
+      </c>
+      <c r="AG44" s="103">
+        <v>36.625895999999997</v>
+      </c>
+      <c r="AH44" s="103">
+        <v>36.736789999999999</v>
+      </c>
+      <c r="AI44" s="102">
+        <v>1.4071E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" ht="15" customHeight="1">
+      <c r="A45" s="96" t="s">
+        <v>352</v>
+      </c>
+      <c r="B45" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" s="103">
+        <v>15.062469</v>
+      </c>
+      <c r="D45" s="103">
+        <v>15.147629</v>
+      </c>
+      <c r="E45" s="103">
+        <v>15.353208</v>
+      </c>
+      <c r="F45" s="103">
+        <v>15.505561</v>
+      </c>
+      <c r="G45" s="103">
+        <v>15.702185999999999</v>
+      </c>
+      <c r="H45" s="103">
+        <v>15.942138999999999</v>
+      </c>
+      <c r="I45" s="103">
+        <v>16.225162999999998</v>
+      </c>
+      <c r="J45" s="103">
+        <v>16.512391999999998</v>
+      </c>
+      <c r="K45" s="103">
+        <v>16.752602</v>
+      </c>
+      <c r="L45" s="103">
+        <v>16.764824000000001</v>
+      </c>
+      <c r="M45" s="103">
+        <v>16.822996</v>
+      </c>
+      <c r="N45" s="103">
+        <v>16.881540000000001</v>
+      </c>
+      <c r="O45" s="103">
+        <v>16.860873999999999</v>
+      </c>
+      <c r="P45" s="103">
+        <v>16.878285999999999</v>
+      </c>
+      <c r="Q45" s="103">
+        <v>16.873719999999999</v>
+      </c>
+      <c r="R45" s="103">
+        <v>16.871492</v>
+      </c>
+      <c r="S45" s="103">
+        <v>16.868994000000001</v>
+      </c>
+      <c r="T45" s="103">
+        <v>16.856480000000001</v>
+      </c>
+      <c r="U45" s="103">
+        <v>16.837173</v>
+      </c>
+      <c r="V45" s="103">
+        <v>16.819607000000001</v>
+      </c>
+      <c r="W45" s="103">
+        <v>16.810314000000002</v>
+      </c>
+      <c r="X45" s="103">
+        <v>16.793268000000001</v>
+      </c>
+      <c r="Y45" s="103">
+        <v>16.786476</v>
+      </c>
+      <c r="Z45" s="103">
+        <v>16.779654000000001</v>
+      </c>
+      <c r="AA45" s="103">
+        <v>16.770454000000001</v>
+      </c>
+      <c r="AB45" s="103">
+        <v>16.760960000000001</v>
+      </c>
+      <c r="AC45" s="103">
+        <v>16.751949</v>
+      </c>
+      <c r="AD45" s="103">
+        <v>16.717970000000001</v>
+      </c>
+      <c r="AE45" s="103">
+        <v>16.720061999999999</v>
+      </c>
+      <c r="AF45" s="103">
+        <v>16.725259999999999</v>
+      </c>
+      <c r="AG45" s="103">
+        <v>16.741181999999998</v>
+      </c>
+      <c r="AH45" s="103">
+        <v>16.761585</v>
+      </c>
+      <c r="AI45" s="102">
+        <v>3.454E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" ht="15" customHeight="1">
+      <c r="A46" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="100" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="103">
+        <v>13.941457</v>
+      </c>
+      <c r="D46" s="103">
+        <v>14.109275999999999</v>
+      </c>
+      <c r="E46" s="103">
+        <v>14.278264999999999</v>
+      </c>
+      <c r="F46" s="103">
+        <v>14.458361999999999</v>
+      </c>
+      <c r="G46" s="103">
+        <v>14.638702</v>
+      </c>
+      <c r="H46" s="103">
+        <v>14.82142</v>
+      </c>
+      <c r="I46" s="103">
+        <v>14.962795</v>
+      </c>
+      <c r="J46" s="103">
+        <v>15.119911</v>
+      </c>
+      <c r="K46" s="103">
+        <v>15.285099000000001</v>
+      </c>
+      <c r="L46" s="103">
+        <v>15.439226</v>
+      </c>
+      <c r="M46" s="103">
+        <v>15.589396000000001</v>
+      </c>
+      <c r="N46" s="103">
+        <v>15.729022000000001</v>
+      </c>
+      <c r="O46" s="103">
+        <v>15.855642</v>
+      </c>
+      <c r="P46" s="103">
+        <v>15.968056000000001</v>
+      </c>
+      <c r="Q46" s="103">
+        <v>16.066538000000001</v>
+      </c>
+      <c r="R46" s="103">
+        <v>16.149981</v>
+      </c>
+      <c r="S46" s="103">
+        <v>16.228159000000002</v>
+      </c>
+      <c r="T46" s="103">
+        <v>16.297737000000001</v>
+      </c>
+      <c r="U46" s="103">
+        <v>16.352411</v>
+      </c>
+      <c r="V46" s="103">
+        <v>16.404261000000002</v>
+      </c>
+      <c r="W46" s="103">
+        <v>16.450655000000001</v>
+      </c>
+      <c r="X46" s="103">
+        <v>16.489477000000001</v>
+      </c>
+      <c r="Y46" s="103">
+        <v>16.521460999999999</v>
+      </c>
+      <c r="Z46" s="103">
+        <v>16.556208000000002</v>
+      </c>
+      <c r="AA46" s="103">
+        <v>16.577981999999999</v>
+      </c>
+      <c r="AB46" s="103">
+        <v>16.592866999999998</v>
+      </c>
+      <c r="AC46" s="103">
+        <v>16.605879000000002</v>
+      </c>
+      <c r="AD46" s="103">
+        <v>16.594866</v>
+      </c>
+      <c r="AE46" s="103">
+        <v>16.608923000000001</v>
+      </c>
+      <c r="AF46" s="103">
+        <v>16.628026999999999</v>
+      </c>
+      <c r="AG46" s="103">
+        <v>16.649794</v>
+      </c>
+      <c r="AH46" s="103">
+        <v>16.673071</v>
+      </c>
+      <c r="AI46" s="102">
+        <v>5.7889999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" ht="15" customHeight="1">
+      <c r="A47" s="96" t="s">
+        <v>356</v>
+      </c>
+      <c r="B47" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="C47" s="103">
+        <v>7.1191649999999997</v>
+      </c>
+      <c r="D47" s="103">
+        <v>7.1709399999999999</v>
+      </c>
+      <c r="E47" s="103">
+        <v>7.2359859999999996</v>
+      </c>
+      <c r="F47" s="103">
+        <v>7.3072999999999997</v>
+      </c>
+      <c r="G47" s="103">
+        <v>7.3885160000000001</v>
+      </c>
+      <c r="H47" s="103">
+        <v>7.4812799999999999</v>
+      </c>
+      <c r="I47" s="103">
+        <v>7.5863670000000001</v>
+      </c>
+      <c r="J47" s="103">
+        <v>7.7038349999999998</v>
+      </c>
+      <c r="K47" s="103">
+        <v>7.8342210000000003</v>
+      </c>
+      <c r="L47" s="103">
+        <v>7.9678849999999999</v>
+      </c>
+      <c r="M47" s="103">
+        <v>8.1082149999999995</v>
+      </c>
+      <c r="N47" s="103">
+        <v>8.2517910000000008</v>
+      </c>
+      <c r="O47" s="103">
+        <v>8.3964689999999997</v>
+      </c>
+      <c r="P47" s="103">
+        <v>8.5377449999999993</v>
+      </c>
+      <c r="Q47" s="103">
+        <v>8.6695860000000007</v>
+      </c>
+      <c r="R47" s="103">
+        <v>8.7911870000000008</v>
+      </c>
+      <c r="S47" s="103">
+        <v>8.9024380000000001</v>
+      </c>
+      <c r="T47" s="103">
+        <v>9.0043740000000003</v>
+      </c>
+      <c r="U47" s="103">
+        <v>9.0969149999999992</v>
+      </c>
+      <c r="V47" s="103">
+        <v>9.1809999999999992</v>
+      </c>
+      <c r="W47" s="103">
+        <v>9.2583680000000008</v>
+      </c>
+      <c r="X47" s="103">
+        <v>9.3276850000000007</v>
+      </c>
+      <c r="Y47" s="103">
+        <v>9.3914950000000008</v>
+      </c>
+      <c r="Z47" s="103">
+        <v>9.4486720000000002</v>
+      </c>
+      <c r="AA47" s="103">
+        <v>9.5002829999999996</v>
+      </c>
+      <c r="AB47" s="103">
+        <v>9.5474910000000008</v>
+      </c>
+      <c r="AC47" s="103">
+        <v>9.591628</v>
+      </c>
+      <c r="AD47" s="103">
+        <v>9.6341230000000007</v>
+      </c>
+      <c r="AE47" s="103">
+        <v>9.6755969999999998</v>
+      </c>
+      <c r="AF47" s="103">
+        <v>9.7162889999999997</v>
+      </c>
+      <c r="AG47" s="103">
+        <v>9.7564329999999995</v>
+      </c>
+      <c r="AH47" s="103">
+        <v>9.7974809999999994</v>
+      </c>
+      <c r="AI47" s="102">
+        <v>1.0354E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" ht="15" customHeight="1">
+      <c r="B48" s="99" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" ht="15" customHeight="1">
+      <c r="A49" s="96" t="s">
+        <v>359</v>
+      </c>
+      <c r="B49" s="100" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="103">
+        <v>69.061408999999998</v>
+      </c>
+      <c r="D49" s="103">
+        <v>69.384444999999999</v>
+      </c>
+      <c r="E49" s="103">
+        <v>69.706733999999997</v>
+      </c>
+      <c r="F49" s="103">
+        <v>70.035477</v>
+      </c>
+      <c r="G49" s="103">
+        <v>70.376755000000003</v>
+      </c>
+      <c r="H49" s="103">
+        <v>70.734436000000002</v>
+      </c>
+      <c r="I49" s="103">
+        <v>71.082642000000007</v>
+      </c>
+      <c r="J49" s="103">
+        <v>71.464614999999995</v>
+      </c>
+      <c r="K49" s="103">
+        <v>71.895363000000003</v>
+      </c>
+      <c r="L49" s="103">
+        <v>72.350364999999996</v>
+      </c>
+      <c r="M49" s="103">
+        <v>72.824805999999995</v>
+      </c>
+      <c r="N49" s="103">
+        <v>73.293342999999993</v>
+      </c>
+      <c r="O49" s="103">
+        <v>73.757735999999994</v>
+      </c>
+      <c r="P49" s="103">
+        <v>74.234024000000005</v>
+      </c>
+      <c r="Q49" s="103">
+        <v>74.700492999999994</v>
+      </c>
+      <c r="R49" s="103">
+        <v>75.177054999999996</v>
+      </c>
+      <c r="S49" s="103">
+        <v>75.653640999999993</v>
+      </c>
+      <c r="T49" s="103">
+        <v>76.137352000000007</v>
+      </c>
+      <c r="U49" s="103">
+        <v>76.621902000000006</v>
+      </c>
+      <c r="V49" s="103">
+        <v>77.107963999999996</v>
+      </c>
+      <c r="W49" s="103">
+        <v>77.601532000000006</v>
+      </c>
+      <c r="X49" s="103">
+        <v>78.099959999999996</v>
+      </c>
+      <c r="Y49" s="103">
+        <v>78.565910000000002</v>
+      </c>
+      <c r="Z49" s="103">
+        <v>79.031158000000005</v>
+      </c>
+      <c r="AA49" s="103">
+        <v>79.489036999999996</v>
+      </c>
+      <c r="AB49" s="103">
+        <v>79.918777000000006</v>
+      </c>
+      <c r="AC49" s="103">
+        <v>80.345123000000001</v>
+      </c>
+      <c r="AD49" s="103">
+        <v>80.761702999999997</v>
+      </c>
+      <c r="AE49" s="103">
+        <v>81.177620000000005</v>
+      </c>
+      <c r="AF49" s="103">
+        <v>81.591446000000005</v>
+      </c>
+      <c r="AG49" s="103">
+        <v>81.990547000000007</v>
+      </c>
+      <c r="AH49" s="103">
+        <v>82.372414000000006</v>
+      </c>
+      <c r="AI49" s="102">
+        <v>5.7019999999999996E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" ht="15" customHeight="1">
+      <c r="B50" s="99" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" ht="15" customHeight="1">
+      <c r="A51" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="B51" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="103">
+        <v>3.4668839999999999</v>
+      </c>
+      <c r="D51" s="103">
+        <v>3.4893709999999998</v>
+      </c>
+      <c r="E51" s="103">
+        <v>3.512003</v>
+      </c>
+      <c r="F51" s="103">
+        <v>3.5347819999999999</v>
+      </c>
+      <c r="G51" s="103">
+        <v>3.5577100000000002</v>
+      </c>
+      <c r="H51" s="103">
+        <v>3.5807850000000001</v>
+      </c>
+      <c r="I51" s="103">
+        <v>3.6040100000000002</v>
+      </c>
+      <c r="J51" s="103">
+        <v>3.627386</v>
+      </c>
+      <c r="K51" s="103">
+        <v>3.6509140000000002</v>
+      </c>
+      <c r="L51" s="103">
+        <v>3.6745939999999999</v>
+      </c>
+      <c r="M51" s="103">
+        <v>3.6984279999999998</v>
+      </c>
+      <c r="N51" s="103">
+        <v>3.7224159999999999</v>
+      </c>
+      <c r="O51" s="103">
+        <v>3.7465600000000001</v>
+      </c>
+      <c r="P51" s="103">
+        <v>3.7708599999999999</v>
+      </c>
+      <c r="Q51" s="103">
+        <v>3.795318</v>
+      </c>
+      <c r="R51" s="103">
+        <v>3.8199350000000001</v>
+      </c>
+      <c r="S51" s="103">
+        <v>3.8447119999999999</v>
+      </c>
+      <c r="T51" s="103">
+        <v>3.8696489999999999</v>
+      </c>
+      <c r="U51" s="103">
+        <v>3.8947479999999999</v>
+      </c>
+      <c r="V51" s="103">
+        <v>3.9200089999999999</v>
+      </c>
+      <c r="W51" s="103">
+        <v>3.9454349999999998</v>
+      </c>
+      <c r="X51" s="103">
+        <v>3.971025</v>
+      </c>
+      <c r="Y51" s="103">
+        <v>3.9967820000000001</v>
+      </c>
+      <c r="Z51" s="103">
+        <v>4.0227050000000002</v>
+      </c>
+      <c r="AA51" s="103">
+        <v>4.0487970000000004</v>
+      </c>
+      <c r="AB51" s="103">
+        <v>4.0750580000000003</v>
+      </c>
+      <c r="AC51" s="103">
+        <v>4.1014889999999999</v>
+      </c>
+      <c r="AD51" s="103">
+        <v>4.1280910000000004</v>
+      </c>
+      <c r="AE51" s="103">
+        <v>4.1548660000000002</v>
+      </c>
+      <c r="AF51" s="103">
+        <v>4.1818150000000003</v>
+      </c>
+      <c r="AG51" s="103">
+        <v>4.208939</v>
+      </c>
+      <c r="AH51" s="103">
+        <v>4.2362380000000002</v>
+      </c>
+      <c r="AI51" s="102">
+        <v>6.4859999999999996E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" ht="15" customHeight="1">
+      <c r="A52" s="104" t="s">
+        <v>363</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="106">
+        <v>4.8133650000000001</v>
+      </c>
+      <c r="D52" s="106">
+        <v>4.8419600000000003</v>
+      </c>
+      <c r="E52" s="106">
+        <v>4.8707260000000003</v>
+      </c>
+      <c r="F52" s="106">
+        <v>4.8996630000000003</v>
+      </c>
+      <c r="G52" s="106">
+        <v>4.9287720000000004</v>
+      </c>
+      <c r="H52" s="106">
+        <v>4.9580539999999997</v>
+      </c>
+      <c r="I52" s="106">
+        <v>4.9875090000000002</v>
+      </c>
+      <c r="J52" s="106">
+        <v>5.0171400000000004</v>
+      </c>
+      <c r="K52" s="106">
+        <v>5.0469470000000003</v>
+      </c>
+      <c r="L52" s="106">
+        <v>5.0769310000000001</v>
+      </c>
+      <c r="M52" s="106">
+        <v>5.1070919999999997</v>
+      </c>
+      <c r="N52" s="106">
+        <v>5.1374339999999998</v>
+      </c>
+      <c r="O52" s="106">
+        <v>5.1679550000000001</v>
+      </c>
+      <c r="P52" s="106">
+        <v>5.198658</v>
+      </c>
+      <c r="Q52" s="106">
+        <v>5.2295429999999996</v>
+      </c>
+      <c r="R52" s="106">
+        <v>5.2606109999999999</v>
+      </c>
+      <c r="S52" s="106">
+        <v>5.2918640000000003</v>
+      </c>
+      <c r="T52" s="106">
+        <v>5.3233030000000001</v>
+      </c>
+      <c r="U52" s="106">
+        <v>5.3549290000000003</v>
+      </c>
+      <c r="V52" s="106">
+        <v>5.3867419999999999</v>
+      </c>
+      <c r="W52" s="106">
+        <v>5.4187450000000004</v>
+      </c>
+      <c r="X52" s="106">
+        <v>5.4509379999999998</v>
+      </c>
+      <c r="Y52" s="106">
+        <v>5.4833220000000003</v>
+      </c>
+      <c r="Z52" s="106">
+        <v>5.515898</v>
+      </c>
+      <c r="AA52" s="106">
+        <v>5.548667</v>
+      </c>
+      <c r="AB52" s="106">
+        <v>5.5816319999999999</v>
+      </c>
+      <c r="AC52" s="106">
+        <v>5.6147919999999996</v>
+      </c>
+      <c r="AD52" s="106">
+        <v>5.6481500000000002</v>
+      </c>
+      <c r="AE52" s="106">
+        <v>5.681705</v>
+      </c>
+      <c r="AF52" s="106">
+        <v>5.7154600000000002</v>
+      </c>
+      <c r="AG52" s="106">
+        <v>5.7494160000000001</v>
+      </c>
+      <c r="AH52" s="106">
+        <v>5.7835729999999996</v>
+      </c>
+      <c r="AI52" s="107">
+        <v>5.9410000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" ht="15" customHeight="1">
+      <c r="B54" s="99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" ht="15" customHeight="1">
+      <c r="B55" s="99" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" ht="15" customHeight="1">
+      <c r="A56" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" s="108">
+        <v>15.312445</v>
+      </c>
+      <c r="D56" s="108">
+        <v>15.30714</v>
+      </c>
+      <c r="E56" s="108">
+        <v>15.236718</v>
+      </c>
+      <c r="F56" s="108">
+        <v>15.068806</v>
+      </c>
+      <c r="G56" s="108">
+        <v>14.804812999999999</v>
+      </c>
+      <c r="H56" s="108">
+        <v>14.499307</v>
+      </c>
+      <c r="I56" s="108">
+        <v>14.167157</v>
+      </c>
+      <c r="J56" s="108">
+        <v>13.909196</v>
+      </c>
+      <c r="K56" s="108">
+        <v>13.685458000000001</v>
+      </c>
+      <c r="L56" s="108">
+        <v>13.482775999999999</v>
+      </c>
+      <c r="M56" s="108">
+        <v>13.299863</v>
+      </c>
+      <c r="N56" s="108">
+        <v>13.139068999999999</v>
+      </c>
+      <c r="O56" s="108">
+        <v>13.002687</v>
+      </c>
+      <c r="P56" s="108">
+        <v>12.863337</v>
+      </c>
+      <c r="Q56" s="108">
+        <v>12.735182999999999</v>
+      </c>
+      <c r="R56" s="108">
+        <v>12.602709000000001</v>
+      </c>
+      <c r="S56" s="108">
+        <v>12.470579000000001</v>
+      </c>
+      <c r="T56" s="108">
+        <v>12.372916</v>
+      </c>
+      <c r="U56" s="108">
+        <v>12.287333</v>
+      </c>
+      <c r="V56" s="108">
+        <v>12.215109</v>
+      </c>
+      <c r="W56" s="108">
+        <v>12.15875</v>
+      </c>
+      <c r="X56" s="108">
+        <v>12.118073000000001</v>
+      </c>
+      <c r="Y56" s="108">
+        <v>12.081137</v>
+      </c>
+      <c r="Z56" s="108">
+        <v>12.057517000000001</v>
+      </c>
+      <c r="AA56" s="108">
+        <v>12.045367000000001</v>
+      </c>
+      <c r="AB56" s="108">
+        <v>12.044356000000001</v>
+      </c>
+      <c r="AC56" s="108">
+        <v>12.055040999999999</v>
+      </c>
+      <c r="AD56" s="108">
+        <v>12.085419</v>
+      </c>
+      <c r="AE56" s="108">
+        <v>12.129275</v>
+      </c>
+      <c r="AF56" s="108">
+        <v>12.190246</v>
+      </c>
+      <c r="AG56" s="108">
+        <v>12.262822999999999</v>
+      </c>
+      <c r="AH56" s="108">
+        <v>12.346762</v>
+      </c>
+      <c r="AI56" s="102">
+        <v>-6.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" ht="15" customHeight="1">
+      <c r="A57" s="96" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="108">
+        <v>0.89102800000000004</v>
+      </c>
+      <c r="D57" s="108">
+        <v>0.891903</v>
+      </c>
+      <c r="E57" s="108">
+        <v>0.89588900000000005</v>
+      </c>
+      <c r="F57" s="108">
+        <v>0.89786999999999995</v>
+      </c>
+      <c r="G57" s="108">
+        <v>0.89709000000000005</v>
+      </c>
+      <c r="H57" s="108">
+        <v>0.89317999999999997</v>
+      </c>
+      <c r="I57" s="108">
+        <v>0.89263599999999999</v>
+      </c>
+      <c r="J57" s="108">
+        <v>0.892015</v>
+      </c>
+      <c r="K57" s="108">
+        <v>0.89260600000000001</v>
+      </c>
+      <c r="L57" s="108">
+        <v>0.893648</v>
+      </c>
+      <c r="M57" s="108">
+        <v>0.895486</v>
+      </c>
+      <c r="N57" s="108">
+        <v>0.89671299999999998</v>
+      </c>
+      <c r="O57" s="108">
+        <v>0.90131700000000003</v>
+      </c>
+      <c r="P57" s="108">
+        <v>0.90484600000000004</v>
+      </c>
+      <c r="Q57" s="108">
+        <v>0.90985700000000003</v>
+      </c>
+      <c r="R57" s="108">
+        <v>0.914968</v>
+      </c>
+      <c r="S57" s="108">
+        <v>0.92024600000000001</v>
+      </c>
+      <c r="T57" s="108">
+        <v>0.92707899999999999</v>
+      </c>
+      <c r="U57" s="108">
+        <v>0.93428299999999997</v>
+      </c>
+      <c r="V57" s="108">
+        <v>0.94157999999999997</v>
+      </c>
+      <c r="W57" s="108">
+        <v>0.94926100000000002</v>
+      </c>
+      <c r="X57" s="108">
+        <v>0.957789</v>
+      </c>
+      <c r="Y57" s="108">
+        <v>0.96684499999999995</v>
+      </c>
+      <c r="Z57" s="108">
+        <v>0.97590600000000005</v>
+      </c>
+      <c r="AA57" s="108">
+        <v>0.98611000000000004</v>
+      </c>
+      <c r="AB57" s="108">
+        <v>0.99779099999999998</v>
+      </c>
+      <c r="AC57" s="108">
+        <v>1.0106869999999999</v>
+      </c>
+      <c r="AD57" s="108">
+        <v>1.027074</v>
+      </c>
+      <c r="AE57" s="108">
+        <v>1.0402640000000001</v>
+      </c>
+      <c r="AF57" s="108">
+        <v>1.0545720000000001</v>
+      </c>
+      <c r="AG57" s="108">
+        <v>1.0692459999999999</v>
+      </c>
+      <c r="AH57" s="108">
+        <v>1.083799</v>
+      </c>
+      <c r="AI57" s="102">
+        <v>6.3379999999999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" ht="15" customHeight="1">
+      <c r="A58" s="96" t="s">
+        <v>370</v>
+      </c>
+      <c r="B58" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="108">
+        <v>0.23853099999999999</v>
+      </c>
+      <c r="D58" s="108">
+        <v>0.23988999999999999</v>
+      </c>
+      <c r="E58" s="108">
+        <v>0.241259</v>
+      </c>
+      <c r="F58" s="108">
+        <v>0.24260899999999999</v>
+      </c>
+      <c r="G58" s="108">
+        <v>0.24391299999999999</v>
+      </c>
+      <c r="H58" s="108">
+        <v>0.245252</v>
+      </c>
+      <c r="I58" s="108">
+        <v>0.24668399999999999</v>
+      </c>
+      <c r="J58" s="108">
+        <v>0.24810399999999999</v>
+      </c>
+      <c r="K58" s="108">
+        <v>0.24951599999999999</v>
+      </c>
+      <c r="L58" s="108">
+        <v>0.25095299999999998</v>
+      </c>
+      <c r="M58" s="108">
+        <v>0.25238300000000002</v>
+      </c>
+      <c r="N58" s="108">
+        <v>0.25371700000000003</v>
+      </c>
+      <c r="O58" s="108">
+        <v>0.25501000000000001</v>
+      </c>
+      <c r="P58" s="108">
+        <v>0.25626900000000002</v>
+      </c>
+      <c r="Q58" s="108">
+        <v>0.25740600000000002</v>
+      </c>
+      <c r="R58" s="108">
+        <v>0.25848599999999999</v>
+      </c>
+      <c r="S58" s="108">
+        <v>0.25950800000000002</v>
+      </c>
+      <c r="T58" s="108">
+        <v>0.26046999999999998</v>
+      </c>
+      <c r="U58" s="108">
+        <v>0.26137700000000003</v>
+      </c>
+      <c r="V58" s="108">
+        <v>0.26222299999999998</v>
+      </c>
+      <c r="W58" s="108">
+        <v>0.26300299999999999</v>
+      </c>
+      <c r="X58" s="108">
+        <v>0.263714</v>
+      </c>
+      <c r="Y58" s="108">
+        <v>0.264353</v>
+      </c>
+      <c r="Z58" s="108">
+        <v>0.26492500000000002</v>
+      </c>
+      <c r="AA58" s="108">
+        <v>0.26543899999999998</v>
+      </c>
+      <c r="AB58" s="108">
+        <v>0.26590399999999997</v>
+      </c>
+      <c r="AC58" s="108">
+        <v>0.26633299999999999</v>
+      </c>
+      <c r="AD58" s="108">
+        <v>0.26674799999999999</v>
+      </c>
+      <c r="AE58" s="108">
+        <v>0.267177</v>
+      </c>
+      <c r="AF58" s="108">
+        <v>0.267648</v>
+      </c>
+      <c r="AG58" s="108">
+        <v>0.268208</v>
+      </c>
+      <c r="AH58" s="108">
+        <v>0.26887699999999998</v>
+      </c>
+      <c r="AI58" s="102">
+        <v>3.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" ht="15" customHeight="1">
+      <c r="A59" s="96" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" s="108">
+        <v>5.8809579999999997</v>
+      </c>
+      <c r="D59" s="108">
+        <v>5.9040049999999997</v>
+      </c>
+      <c r="E59" s="108">
+        <v>5.9517569999999997</v>
+      </c>
+      <c r="F59" s="108">
+        <v>5.9839580000000003</v>
+      </c>
+      <c r="G59" s="108">
+        <v>6.0106469999999996</v>
+      </c>
+      <c r="H59" s="108">
+        <v>5.9934820000000002</v>
+      </c>
+      <c r="I59" s="108">
+        <v>5.9729049999999999</v>
+      </c>
+      <c r="J59" s="108">
+        <v>5.942755</v>
+      </c>
+      <c r="K59" s="108">
+        <v>5.9138310000000001</v>
+      </c>
+      <c r="L59" s="108">
+        <v>5.875737</v>
+      </c>
+      <c r="M59" s="108">
+        <v>5.8369559999999998</v>
+      </c>
+      <c r="N59" s="108">
+        <v>5.7832369999999997</v>
+      </c>
+      <c r="O59" s="108">
+        <v>5.7600280000000001</v>
+      </c>
+      <c r="P59" s="108">
+        <v>5.7273540000000001</v>
+      </c>
+      <c r="Q59" s="108">
+        <v>5.709549</v>
+      </c>
+      <c r="R59" s="108">
+        <v>5.6887650000000001</v>
+      </c>
+      <c r="S59" s="108">
+        <v>5.6829890000000001</v>
+      </c>
+      <c r="T59" s="108">
+        <v>5.6880410000000001</v>
+      </c>
+      <c r="U59" s="108">
+        <v>5.6894450000000001</v>
+      </c>
+      <c r="V59" s="108">
+        <v>5.6978169999999997</v>
+      </c>
+      <c r="W59" s="108">
+        <v>5.7092549999999997</v>
+      </c>
+      <c r="X59" s="108">
+        <v>5.7294109999999998</v>
+      </c>
+      <c r="Y59" s="108">
+        <v>5.7541630000000001</v>
+      </c>
+      <c r="Z59" s="108">
+        <v>5.7868459999999997</v>
+      </c>
+      <c r="AA59" s="108">
+        <v>5.8210759999999997</v>
+      </c>
+      <c r="AB59" s="108">
+        <v>5.8691979999999999</v>
+      </c>
+      <c r="AC59" s="108">
+        <v>5.9272929999999997</v>
+      </c>
+      <c r="AD59" s="108">
+        <v>6.0019349999999996</v>
+      </c>
+      <c r="AE59" s="108">
+        <v>6.0561199999999999</v>
+      </c>
+      <c r="AF59" s="108">
+        <v>6.1258460000000001</v>
+      </c>
+      <c r="AG59" s="108">
+        <v>6.2000320000000002</v>
+      </c>
+      <c r="AH59" s="108">
+        <v>6.2750170000000001</v>
+      </c>
+      <c r="AI59" s="102">
+        <v>2.0939999999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" ht="15" customHeight="1">
+      <c r="A60" s="96" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="C60" s="108">
+        <v>4.9125000000000002E-2</v>
+      </c>
+      <c r="D60" s="108">
+        <v>5.0001999999999998E-2</v>
+      </c>
+      <c r="E60" s="108">
+        <v>5.0828999999999999E-2</v>
+      </c>
+      <c r="F60" s="108">
+        <v>5.1513000000000003E-2</v>
+      </c>
+      <c r="G60" s="108">
+        <v>5.2172999999999997E-2</v>
+      </c>
+      <c r="H60" s="108">
+        <v>5.2830000000000002E-2</v>
+      </c>
+      <c r="I60" s="108">
+        <v>5.3461000000000002E-2</v>
+      </c>
+      <c r="J60" s="108">
+        <v>5.4087999999999997E-2</v>
+      </c>
+      <c r="K60" s="108">
+        <v>5.4688000000000001E-2</v>
+      </c>
+      <c r="L60" s="108">
+        <v>5.5315000000000003E-2</v>
+      </c>
+      <c r="M60" s="108">
+        <v>5.5939999999999997E-2</v>
+      </c>
+      <c r="N60" s="108">
+        <v>5.6411000000000003E-2</v>
+      </c>
+      <c r="O60" s="108">
+        <v>5.7056999999999997E-2</v>
+      </c>
+      <c r="P60" s="108">
+        <v>5.7682999999999998E-2</v>
+      </c>
+      <c r="Q60" s="108">
+        <v>5.8288E-2</v>
+      </c>
+      <c r="R60" s="108">
+        <v>5.8840999999999997E-2</v>
+      </c>
+      <c r="S60" s="108">
+        <v>5.9416999999999998E-2</v>
+      </c>
+      <c r="T60" s="108">
+        <v>5.9977000000000003E-2</v>
+      </c>
+      <c r="U60" s="108">
+        <v>6.0532000000000002E-2</v>
+      </c>
+      <c r="V60" s="108">
+        <v>6.1099000000000001E-2</v>
+      </c>
+      <c r="W60" s="108">
+        <v>6.1667E-2</v>
+      </c>
+      <c r="X60" s="108">
+        <v>6.2233999999999998E-2</v>
+      </c>
+      <c r="Y60" s="108">
+        <v>6.2771999999999994E-2</v>
+      </c>
+      <c r="Z60" s="108">
+        <v>6.3311000000000006E-2</v>
+      </c>
+      <c r="AA60" s="108">
+        <v>6.3864000000000004E-2</v>
+      </c>
+      <c r="AB60" s="108">
+        <v>6.4421999999999993E-2</v>
+      </c>
+      <c r="AC60" s="108">
+        <v>6.4971000000000001E-2</v>
+      </c>
+      <c r="AD60" s="108">
+        <v>6.5568000000000001E-2</v>
+      </c>
+      <c r="AE60" s="108">
+        <v>6.6151000000000001E-2</v>
+      </c>
+      <c r="AF60" s="108">
+        <v>6.6765000000000005E-2</v>
+      </c>
+      <c r="AG60" s="108">
+        <v>6.7348000000000005E-2</v>
+      </c>
+      <c r="AH60" s="108">
+        <v>6.7945000000000005E-2</v>
+      </c>
+      <c r="AI60" s="102">
+        <v>1.0517E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" ht="15" customHeight="1">
+      <c r="A61" s="96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="C61" s="108">
+        <v>0.52149500000000004</v>
+      </c>
+      <c r="D61" s="108">
+        <v>0.49603199999999997</v>
+      </c>
+      <c r="E61" s="108">
+        <v>0.47267399999999998</v>
+      </c>
+      <c r="F61" s="108">
+        <v>0.46714600000000001</v>
+      </c>
+      <c r="G61" s="108">
+        <v>0.46454699999999999</v>
+      </c>
+      <c r="H61" s="108">
+        <v>0.45757300000000001</v>
+      </c>
+      <c r="I61" s="108">
+        <v>0.44527499999999998</v>
+      </c>
+      <c r="J61" s="108">
+        <v>0.45321899999999998</v>
+      </c>
+      <c r="K61" s="108">
+        <v>0.45270500000000002</v>
+      </c>
+      <c r="L61" s="108">
+        <v>0.45249699999999998</v>
+      </c>
+      <c r="M61" s="108">
+        <v>0.44765100000000002</v>
+      </c>
+      <c r="N61" s="108">
+        <v>0.44280399999999998</v>
+      </c>
+      <c r="O61" s="108">
+        <v>0.44168499999999999</v>
+      </c>
+      <c r="P61" s="108">
+        <v>0.44123899999999999</v>
+      </c>
+      <c r="Q61" s="108">
+        <v>0.44104900000000002</v>
+      </c>
+      <c r="R61" s="108">
+        <v>0.44097599999999998</v>
+      </c>
+      <c r="S61" s="108">
+        <v>0.43873499999999999</v>
+      </c>
+      <c r="T61" s="108">
+        <v>0.43886999999999998</v>
+      </c>
+      <c r="U61" s="108">
+        <v>0.43769000000000002</v>
+      </c>
+      <c r="V61" s="108">
+        <v>0.43399300000000002</v>
+      </c>
+      <c r="W61" s="108">
+        <v>0.43391099999999999</v>
+      </c>
+      <c r="X61" s="108">
+        <v>0.43191099999999999</v>
+      </c>
+      <c r="Y61" s="108">
+        <v>0.43091099999999999</v>
+      </c>
+      <c r="Z61" s="108">
+        <v>0.43136200000000002</v>
+      </c>
+      <c r="AA61" s="108">
+        <v>0.431558</v>
+      </c>
+      <c r="AB61" s="108">
+        <v>0.43213200000000002</v>
+      </c>
+      <c r="AC61" s="108">
+        <v>0.43332599999999999</v>
+      </c>
+      <c r="AD61" s="108">
+        <v>0.43653799999999998</v>
+      </c>
+      <c r="AE61" s="108">
+        <v>0.437579</v>
+      </c>
+      <c r="AF61" s="108">
+        <v>0.43982100000000002</v>
+      </c>
+      <c r="AG61" s="108">
+        <v>0.44239099999999998</v>
+      </c>
+      <c r="AH61" s="108">
+        <v>0.44580599999999998</v>
+      </c>
+      <c r="AI61" s="102">
+        <v>-5.0460000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" ht="15" customHeight="1">
+      <c r="A62" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C62" s="108">
+        <v>8.9409000000000002E-2</v>
+      </c>
+      <c r="D62" s="108">
+        <v>8.7946999999999997E-2</v>
+      </c>
+      <c r="E62" s="108">
+        <v>8.5824999999999999E-2</v>
+      </c>
+      <c r="F62" s="108">
+        <v>8.3143999999999996E-2</v>
+      </c>
+      <c r="G62" s="108">
+        <v>8.1043000000000004E-2</v>
+      </c>
+      <c r="H62" s="108">
+        <v>7.8539999999999999E-2</v>
+      </c>
+      <c r="I62" s="108">
+        <v>7.6103000000000004E-2</v>
+      </c>
+      <c r="J62" s="108">
+        <v>7.3851E-2</v>
+      </c>
+      <c r="K62" s="108">
+        <v>7.1606000000000003E-2</v>
+      </c>
+      <c r="L62" s="108">
+        <v>6.9278000000000006E-2</v>
+      </c>
+      <c r="M62" s="108">
+        <v>6.6864999999999994E-2</v>
+      </c>
+      <c r="N62" s="108">
+        <v>6.4421000000000006E-2</v>
+      </c>
+      <c r="O62" s="108">
+        <v>6.3281000000000004E-2</v>
+      </c>
+      <c r="P62" s="108">
+        <v>6.2044000000000002E-2</v>
+      </c>
+      <c r="Q62" s="108">
+        <v>6.0933000000000001E-2</v>
+      </c>
+      <c r="R62" s="108">
+        <v>5.9680999999999998E-2</v>
+      </c>
+      <c r="S62" s="108">
+        <v>5.8471000000000002E-2</v>
+      </c>
+      <c r="T62" s="108">
+        <v>5.7384999999999999E-2</v>
+      </c>
+      <c r="U62" s="108">
+        <v>5.6209000000000002E-2</v>
+      </c>
+      <c r="V62" s="108">
+        <v>5.5024999999999998E-2</v>
+      </c>
+      <c r="W62" s="108">
+        <v>5.3933000000000002E-2</v>
+      </c>
+      <c r="X62" s="108">
+        <v>5.2831000000000003E-2</v>
+      </c>
+      <c r="Y62" s="108">
+        <v>5.2283000000000003E-2</v>
+      </c>
+      <c r="Z62" s="108">
+        <v>5.1791999999999998E-2</v>
+      </c>
+      <c r="AA62" s="108">
+        <v>5.1248000000000002E-2</v>
+      </c>
+      <c r="AB62" s="108">
+        <v>5.0798999999999997E-2</v>
+      </c>
+      <c r="AC62" s="108">
+        <v>5.0387000000000001E-2</v>
+      </c>
+      <c r="AD62" s="108">
+        <v>5.0148999999999999E-2</v>
+      </c>
+      <c r="AE62" s="108">
+        <v>4.9715000000000002E-2</v>
+      </c>
+      <c r="AF62" s="108">
+        <v>4.9415000000000001E-2</v>
+      </c>
+      <c r="AG62" s="108">
+        <v>4.9187000000000002E-2</v>
+      </c>
+      <c r="AH62" s="108">
+        <v>4.8996999999999999E-2</v>
+      </c>
+      <c r="AI62" s="102">
+        <v>-1.9214999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" ht="15" customHeight="1">
+      <c r="A63" s="96" t="s">
+        <v>380</v>
+      </c>
+      <c r="B63" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="C63" s="108">
+        <v>0.92732700000000001</v>
+      </c>
+      <c r="D63" s="108">
+        <v>1.0088379999999999</v>
+      </c>
+      <c r="E63" s="108">
+        <v>0.97111599999999998</v>
+      </c>
+      <c r="F63" s="108">
+        <v>0.88697199999999998</v>
+      </c>
+      <c r="G63" s="108">
+        <v>0.89194899999999999</v>
+      </c>
+      <c r="H63" s="108">
+        <v>0.87592300000000001</v>
+      </c>
+      <c r="I63" s="108">
+        <v>0.889297</v>
+      </c>
+      <c r="J63" s="108">
+        <v>0.86436500000000005</v>
+      </c>
+      <c r="K63" s="108">
+        <v>0.87566699999999997</v>
+      </c>
+      <c r="L63" s="108">
+        <v>0.87673500000000004</v>
+      </c>
+      <c r="M63" s="108">
+        <v>0.86275199999999996</v>
+      </c>
+      <c r="N63" s="108">
+        <v>0.87661100000000003</v>
+      </c>
+      <c r="O63" s="108">
+        <v>0.87746100000000005</v>
+      </c>
+      <c r="P63" s="108">
+        <v>0.86594400000000005</v>
+      </c>
+      <c r="Q63" s="108">
+        <v>0.87606399999999995</v>
+      </c>
+      <c r="R63" s="108">
+        <v>0.87610900000000003</v>
+      </c>
+      <c r="S63" s="108">
+        <v>0.87291200000000002</v>
+      </c>
+      <c r="T63" s="108">
+        <v>0.86272700000000002</v>
+      </c>
+      <c r="U63" s="108">
+        <v>0.869371</v>
+      </c>
+      <c r="V63" s="108">
+        <v>0.85895600000000005</v>
+      </c>
+      <c r="W63" s="108">
+        <v>0.85843599999999998</v>
+      </c>
+      <c r="X63" s="108">
+        <v>0.864699</v>
+      </c>
+      <c r="Y63" s="108">
+        <v>0.85375100000000004</v>
+      </c>
+      <c r="Z63" s="108">
+        <v>0.85230899999999998</v>
+      </c>
+      <c r="AA63" s="108">
+        <v>0.84980699999999998</v>
+      </c>
+      <c r="AB63" s="108">
+        <v>0.84660400000000002</v>
+      </c>
+      <c r="AC63" s="108">
+        <v>0.84451500000000002</v>
+      </c>
+      <c r="AD63" s="108">
+        <v>0.843746</v>
+      </c>
+      <c r="AE63" s="108">
+        <v>0.841557</v>
+      </c>
+      <c r="AF63" s="108">
+        <v>0.84054899999999999</v>
+      </c>
+      <c r="AG63" s="108">
+        <v>0.83998899999999999</v>
+      </c>
+      <c r="AH63" s="108">
+        <v>0.84009100000000003</v>
+      </c>
+      <c r="AI63" s="102">
+        <v>-3.1819999999999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" ht="15" customHeight="1">
+      <c r="A64" s="96" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="108">
+        <v>0.24548700000000001</v>
+      </c>
+      <c r="D64" s="108">
+        <v>0.24624699999999999</v>
+      </c>
+      <c r="E64" s="108">
+        <v>0.246891</v>
+      </c>
+      <c r="F64" s="108">
+        <v>0.247228</v>
+      </c>
+      <c r="G64" s="108">
+        <v>0.24740100000000001</v>
+      </c>
+      <c r="H64" s="108">
+        <v>0.247561</v>
+      </c>
+      <c r="I64" s="108">
+        <v>0.247747</v>
+      </c>
+      <c r="J64" s="108">
+        <v>0.24787200000000001</v>
+      </c>
+      <c r="K64" s="108">
+        <v>0.247948</v>
+      </c>
+      <c r="L64" s="108">
+        <v>0.248034</v>
+      </c>
+      <c r="M64" s="108">
+        <v>0.24811900000000001</v>
+      </c>
+      <c r="N64" s="108">
+        <v>0.24812799999999999</v>
+      </c>
+      <c r="O64" s="108">
+        <v>0.24811900000000001</v>
+      </c>
+      <c r="P64" s="108">
+        <v>0.24807899999999999</v>
+      </c>
+      <c r="Q64" s="108">
+        <v>0.247943</v>
+      </c>
+      <c r="R64" s="108">
+        <v>0.24770400000000001</v>
+      </c>
+      <c r="S64" s="108">
+        <v>0.24738199999999999</v>
+      </c>
+      <c r="T64" s="108">
+        <v>0.24705099999999999</v>
+      </c>
+      <c r="U64" s="108">
+        <v>0.246672</v>
+      </c>
+      <c r="V64" s="108">
+        <v>0.24627099999999999</v>
+      </c>
+      <c r="W64" s="108">
+        <v>0.24584500000000001</v>
+      </c>
+      <c r="X64" s="108">
+        <v>0.245364</v>
+      </c>
+      <c r="Y64" s="108">
+        <v>0.244837</v>
+      </c>
+      <c r="Z64" s="108">
+        <v>0.24424299999999999</v>
+      </c>
+      <c r="AA64" s="108">
+        <v>0.24363599999999999</v>
+      </c>
+      <c r="AB64" s="108">
+        <v>0.243037</v>
+      </c>
+      <c r="AC64" s="108">
+        <v>0.24246699999999999</v>
+      </c>
+      <c r="AD64" s="108">
+        <v>0.241926</v>
+      </c>
+      <c r="AE64" s="108">
+        <v>0.24138699999999999</v>
+      </c>
+      <c r="AF64" s="108">
+        <v>0.24085799999999999</v>
+      </c>
+      <c r="AG64" s="108">
+        <v>0.240316</v>
+      </c>
+      <c r="AH64" s="108">
+        <v>0.23976</v>
+      </c>
+      <c r="AI64" s="102">
+        <v>-7.6099999999999996E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" ht="15" customHeight="1">
+      <c r="A65" s="96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B65" s="100" t="s">
+        <v>385</v>
+      </c>
+      <c r="C65" s="108">
+        <v>2.6409440000000002</v>
+      </c>
+      <c r="D65" s="108">
+        <v>2.6730670000000001</v>
+      </c>
+      <c r="E65" s="108">
+        <v>2.70635</v>
+      </c>
+      <c r="F65" s="108">
+        <v>2.7321909999999998</v>
+      </c>
+      <c r="G65" s="108">
+        <v>2.7524329999999999</v>
+      </c>
+      <c r="H65" s="108">
+        <v>2.7760940000000001</v>
+      </c>
+      <c r="I65" s="108">
+        <v>2.803131</v>
+      </c>
+      <c r="J65" s="108">
+        <v>2.8286799999999999</v>
+      </c>
+      <c r="K65" s="108">
+        <v>2.8535170000000001</v>
+      </c>
+      <c r="L65" s="108">
+        <v>2.8798110000000001</v>
+      </c>
+      <c r="M65" s="108">
+        <v>2.9085220000000001</v>
+      </c>
+      <c r="N65" s="108">
+        <v>2.9371990000000001</v>
+      </c>
+      <c r="O65" s="108">
+        <v>2.9673980000000002</v>
+      </c>
+      <c r="P65" s="108">
+        <v>2.997719</v>
+      </c>
+      <c r="Q65" s="108">
+        <v>3.0276000000000001</v>
+      </c>
+      <c r="R65" s="108">
+        <v>3.0532080000000001</v>
+      </c>
+      <c r="S65" s="108">
+        <v>3.0776520000000001</v>
+      </c>
+      <c r="T65" s="108">
+        <v>3.1044260000000001</v>
+      </c>
+      <c r="U65" s="108">
+        <v>3.132126</v>
+      </c>
+      <c r="V65" s="108">
+        <v>3.1603249999999998</v>
+      </c>
+      <c r="W65" s="108">
+        <v>3.1898339999999998</v>
+      </c>
+      <c r="X65" s="108">
+        <v>3.220148</v>
+      </c>
+      <c r="Y65" s="108">
+        <v>3.2501730000000002</v>
+      </c>
+      <c r="Z65" s="108">
+        <v>3.2799529999999999</v>
+      </c>
+      <c r="AA65" s="108">
+        <v>3.3107310000000001</v>
+      </c>
+      <c r="AB65" s="108">
+        <v>3.34457</v>
+      </c>
+      <c r="AC65" s="108">
+        <v>3.3831250000000002</v>
+      </c>
+      <c r="AD65" s="108">
+        <v>3.4260440000000001</v>
+      </c>
+      <c r="AE65" s="108">
+        <v>3.4711810000000001</v>
+      </c>
+      <c r="AF65" s="108">
+        <v>3.5203720000000001</v>
+      </c>
+      <c r="AG65" s="108">
+        <v>3.5717430000000001</v>
+      </c>
+      <c r="AH65" s="108">
+        <v>3.6248130000000001</v>
+      </c>
+      <c r="AI65" s="102">
+        <v>1.0267E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" ht="15" customHeight="1">
+      <c r="A66" s="96" t="s">
+        <v>386</v>
+      </c>
+      <c r="B66" s="100" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="108">
+        <v>0.51250099999999998</v>
+      </c>
+      <c r="D66" s="108">
+        <v>0.52636899999999998</v>
+      </c>
+      <c r="E66" s="108">
+        <v>0.51597700000000002</v>
+      </c>
+      <c r="F66" s="108">
+        <v>0.504054</v>
+      </c>
+      <c r="G66" s="108">
+        <v>0.48897299999999999</v>
+      </c>
+      <c r="H66" s="108">
+        <v>0.47893000000000002</v>
+      </c>
+      <c r="I66" s="108">
+        <v>0.47705999999999998</v>
+      </c>
+      <c r="J66" s="108">
+        <v>0.475186</v>
+      </c>
+      <c r="K66" s="108">
+        <v>0.47461300000000001</v>
+      </c>
+      <c r="L66" s="108">
+        <v>0.47716599999999998</v>
+      </c>
+      <c r="M66" s="108">
+        <v>0.47609899999999999</v>
+      </c>
+      <c r="N66" s="108">
+        <v>0.47538999999999998</v>
+      </c>
+      <c r="O66" s="108">
+        <v>0.47547800000000001</v>
+      </c>
+      <c r="P66" s="108">
+        <v>0.47558800000000001</v>
+      </c>
+      <c r="Q66" s="108">
+        <v>0.47572599999999998</v>
+      </c>
+      <c r="R66" s="108">
+        <v>0.475885</v>
+      </c>
+      <c r="S66" s="108">
+        <v>0.47606500000000002</v>
+      </c>
+      <c r="T66" s="108">
+        <v>0.47626800000000002</v>
+      </c>
+      <c r="U66" s="108">
+        <v>0.47649900000000001</v>
+      </c>
+      <c r="V66" s="108">
+        <v>0.47674699999999998</v>
+      </c>
+      <c r="W66" s="108">
+        <v>0.47701500000000002</v>
+      </c>
+      <c r="X66" s="108">
+        <v>0.477302</v>
+      </c>
+      <c r="Y66" s="108">
+        <v>0.47760000000000002</v>
+      </c>
+      <c r="Z66" s="108">
+        <v>0.47791299999999998</v>
+      </c>
+      <c r="AA66" s="108">
+        <v>0.47823700000000002</v>
+      </c>
+      <c r="AB66" s="108">
+        <v>0.47857100000000002</v>
+      </c>
+      <c r="AC66" s="108">
+        <v>0.47891499999999998</v>
+      </c>
+      <c r="AD66" s="108">
+        <v>0.47926800000000003</v>
+      </c>
+      <c r="AE66" s="108">
+        <v>0.47962700000000003</v>
+      </c>
+      <c r="AF66" s="108">
+        <v>0.479993</v>
+      </c>
+      <c r="AG66" s="108">
+        <v>0.48036400000000001</v>
+      </c>
+      <c r="AH66" s="108">
+        <v>0.48074099999999997</v>
+      </c>
+      <c r="AI66" s="102">
+        <v>-2.062E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" ht="15" customHeight="1">
+      <c r="A67" s="96" t="s">
+        <v>388</v>
+      </c>
+      <c r="B67" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="C67" s="108">
+        <v>0.131469</v>
+      </c>
+      <c r="D67" s="108">
+        <v>0.130998</v>
+      </c>
+      <c r="E67" s="108">
+        <v>0.13061700000000001</v>
+      </c>
+      <c r="F67" s="108">
+        <v>0.130166</v>
+      </c>
+      <c r="G67" s="108">
+        <v>0.129716</v>
+      </c>
+      <c r="H67" s="108">
+        <v>0.12923599999999999</v>
+      </c>
+      <c r="I67" s="108">
+        <v>0.128717</v>
+      </c>
+      <c r="J67" s="108">
+        <v>0.12820999999999999</v>
+      </c>
+      <c r="K67" s="108">
+        <v>0.12773799999999999</v>
+      </c>
+      <c r="L67" s="108">
+        <v>0.127329</v>
+      </c>
+      <c r="M67" s="108">
+        <v>0.126997</v>
+      </c>
+      <c r="N67" s="108">
+        <v>0.12667600000000001</v>
+      </c>
+      <c r="O67" s="108">
+        <v>0.12639500000000001</v>
+      </c>
+      <c r="P67" s="108">
+        <v>0.126142</v>
+      </c>
+      <c r="Q67" s="108">
+        <v>0.12589600000000001</v>
+      </c>
+      <c r="R67" s="108">
+        <v>0.12570400000000001</v>
+      </c>
+      <c r="S67" s="108">
+        <v>0.12554999999999999</v>
+      </c>
+      <c r="T67" s="108">
+        <v>0.12548999999999999</v>
+      </c>
+      <c r="U67" s="108">
+        <v>0.12546399999999999</v>
+      </c>
+      <c r="V67" s="108">
+        <v>0.125469</v>
+      </c>
+      <c r="W67" s="108">
+        <v>0.12551200000000001</v>
+      </c>
+      <c r="X67" s="108">
+        <v>0.125529</v>
+      </c>
+      <c r="Y67" s="108">
+        <v>0.12553300000000001</v>
+      </c>
+      <c r="Z67" s="108">
+        <v>0.125612</v>
+      </c>
+      <c r="AA67" s="108">
+        <v>0.125667</v>
+      </c>
+      <c r="AB67" s="108">
+        <v>0.12576499999999999</v>
+      </c>
+      <c r="AC67" s="108">
+        <v>0.12594</v>
+      </c>
+      <c r="AD67" s="108">
+        <v>0.12614400000000001</v>
+      </c>
+      <c r="AE67" s="108">
+        <v>0.126361</v>
+      </c>
+      <c r="AF67" s="108">
+        <v>0.12662699999999999</v>
+      </c>
+      <c r="AG67" s="108">
+        <v>0.126863</v>
+      </c>
+      <c r="AH67" s="108">
+        <v>0.127078</v>
+      </c>
+      <c r="AI67" s="102">
+        <v>-1.0950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" ht="15" customHeight="1">
+      <c r="A68" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="B68" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C68" s="108">
+        <v>0.67192099999999999</v>
+      </c>
+      <c r="D68" s="108">
+        <v>0.66721600000000003</v>
+      </c>
+      <c r="E68" s="108">
+        <v>0.70137700000000003</v>
+      </c>
+      <c r="F68" s="108">
+        <v>0.71380600000000005</v>
+      </c>
+      <c r="G68" s="108">
+        <v>0.720885</v>
+      </c>
+      <c r="H68" s="108">
+        <v>0.73513099999999998</v>
+      </c>
+      <c r="I68" s="108">
+        <v>0.75184700000000004</v>
+      </c>
+      <c r="J68" s="108">
+        <v>0.76075700000000002</v>
+      </c>
+      <c r="K68" s="108">
+        <v>0.75591399999999997</v>
+      </c>
+      <c r="L68" s="108">
+        <v>0.75647799999999998</v>
+      </c>
+      <c r="M68" s="108">
+        <v>0.76330200000000004</v>
+      </c>
+      <c r="N68" s="108">
+        <v>0.76538499999999998</v>
+      </c>
+      <c r="O68" s="108">
+        <v>0.77258099999999996</v>
+      </c>
+      <c r="P68" s="108">
+        <v>0.775926</v>
+      </c>
+      <c r="Q68" s="108">
+        <v>0.77605999999999997</v>
+      </c>
+      <c r="R68" s="108">
+        <v>0.77757399999999999</v>
+      </c>
+      <c r="S68" s="108">
+        <v>0.78055399999999997</v>
+      </c>
+      <c r="T68" s="108">
+        <v>0.79148700000000005</v>
+      </c>
+      <c r="U68" s="108">
+        <v>0.79676000000000002</v>
+      </c>
+      <c r="V68" s="108">
+        <v>0.80471300000000001</v>
+      </c>
+      <c r="W68" s="108">
+        <v>0.81585600000000003</v>
+      </c>
+      <c r="X68" s="108">
+        <v>0.82309900000000003</v>
+      </c>
+      <c r="Y68" s="108">
+        <v>0.829399</v>
+      </c>
+      <c r="Z68" s="108">
+        <v>0.84421900000000005</v>
+      </c>
+      <c r="AA68" s="108">
+        <v>0.85306599999999999</v>
+      </c>
+      <c r="AB68" s="108">
+        <v>0.86144500000000002</v>
+      </c>
+      <c r="AC68" s="108">
+        <v>0.86952799999999997</v>
+      </c>
+      <c r="AD68" s="108">
+        <v>0.87944999999999995</v>
+      </c>
+      <c r="AE68" s="108">
+        <v>0.88793500000000003</v>
+      </c>
+      <c r="AF68" s="108">
+        <v>0.89792799999999995</v>
+      </c>
+      <c r="AG68" s="108">
+        <v>0.90513600000000005</v>
+      </c>
+      <c r="AH68" s="108">
+        <v>0.912443</v>
+      </c>
+      <c r="AI68" s="102">
+        <v>9.9190000000000007E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" ht="15" customHeight="1">
+      <c r="A69" s="96" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="109">
+        <v>28.112638</v>
+      </c>
+      <c r="D69" s="109">
+        <v>28.229655999999999</v>
+      </c>
+      <c r="E69" s="109">
+        <v>28.207280999999998</v>
+      </c>
+      <c r="F69" s="109">
+        <v>28.009460000000001</v>
+      </c>
+      <c r="G69" s="109">
+        <v>27.785589000000002</v>
+      </c>
+      <c r="H69" s="109">
+        <v>27.463035999999999</v>
+      </c>
+      <c r="I69" s="109">
+        <v>27.152018000000002</v>
+      </c>
+      <c r="J69" s="109">
+        <v>26.878295999999999</v>
+      </c>
+      <c r="K69" s="109">
+        <v>26.655809000000001</v>
+      </c>
+      <c r="L69" s="109">
+        <v>26.445753</v>
+      </c>
+      <c r="M69" s="109">
+        <v>26.240933999999999</v>
+      </c>
+      <c r="N69" s="109">
+        <v>26.065761999999999</v>
+      </c>
+      <c r="O69" s="109">
+        <v>25.948495999999999</v>
+      </c>
+      <c r="P69" s="109">
+        <v>25.80217</v>
+      </c>
+      <c r="Q69" s="109">
+        <v>25.701550999999998</v>
+      </c>
+      <c r="R69" s="109">
+        <v>25.580608000000002</v>
+      </c>
+      <c r="S69" s="109">
+        <v>25.470058000000002</v>
+      </c>
+      <c r="T69" s="109">
+        <v>25.412188</v>
+      </c>
+      <c r="U69" s="109">
+        <v>25.373760000000001</v>
+      </c>
+      <c r="V69" s="109">
+        <v>25.339328999999999</v>
+      </c>
+      <c r="W69" s="109">
+        <v>25.342278</v>
+      </c>
+      <c r="X69" s="109">
+        <v>25.372105000000001</v>
+      </c>
+      <c r="Y69" s="109">
+        <v>25.393758999999999</v>
+      </c>
+      <c r="Z69" s="109">
+        <v>25.455908000000001</v>
+      </c>
+      <c r="AA69" s="109">
+        <v>25.525803</v>
+      </c>
+      <c r="AB69" s="109">
+        <v>25.624593999999998</v>
+      </c>
+      <c r="AC69" s="109">
+        <v>25.752531000000001</v>
+      </c>
+      <c r="AD69" s="109">
+        <v>25.930012000000001</v>
+      </c>
+      <c r="AE69" s="109">
+        <v>26.094328000000001</v>
+      </c>
+      <c r="AF69" s="109">
+        <v>26.300637999999999</v>
+      </c>
+      <c r="AG69" s="109">
+        <v>26.523647</v>
+      </c>
+      <c r="AH69" s="109">
+        <v>26.762129000000002</v>
+      </c>
+      <c r="AI69" s="110">
+        <v>-1.5870000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" ht="15" customHeight="1">
+      <c r="B71" s="99" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" ht="15" customHeight="1">
+      <c r="A72" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="C72" s="108">
+        <v>8.2994579999999996</v>
+      </c>
+      <c r="D72" s="108">
+        <v>8.2974309999999996</v>
+      </c>
+      <c r="E72" s="108">
+        <v>8.2588670000000004</v>
+      </c>
+      <c r="F72" s="108">
+        <v>8.1675760000000004</v>
+      </c>
+      <c r="G72" s="108">
+        <v>8.0243540000000007</v>
+      </c>
+      <c r="H72" s="108">
+        <v>7.8586140000000002</v>
+      </c>
+      <c r="I72" s="108">
+        <v>7.6801620000000002</v>
+      </c>
+      <c r="J72" s="108">
+        <v>7.5412800000000004</v>
+      </c>
+      <c r="K72" s="108">
+        <v>7.4203780000000004</v>
+      </c>
+      <c r="L72" s="108">
+        <v>7.3110980000000003</v>
+      </c>
+      <c r="M72" s="108">
+        <v>7.2125899999999996</v>
+      </c>
+      <c r="N72" s="108">
+        <v>7.1268469999999997</v>
+      </c>
+      <c r="O72" s="108">
+        <v>7.0531100000000002</v>
+      </c>
+      <c r="P72" s="108">
+        <v>6.9779020000000003</v>
+      </c>
+      <c r="Q72" s="108">
+        <v>6.9087529999999999</v>
+      </c>
+      <c r="R72" s="108">
+        <v>6.8371320000000004</v>
+      </c>
+      <c r="S72" s="108">
+        <v>6.7657759999999998</v>
+      </c>
+      <c r="T72" s="108">
+        <v>6.7127330000000001</v>
+      </c>
+      <c r="U72" s="108">
+        <v>6.6661789999999996</v>
+      </c>
+      <c r="V72" s="108">
+        <v>6.6268250000000002</v>
+      </c>
+      <c r="W72" s="108">
+        <v>6.5956390000000003</v>
+      </c>
+      <c r="X72" s="108">
+        <v>6.5729730000000002</v>
+      </c>
+      <c r="Y72" s="108">
+        <v>6.552473</v>
+      </c>
+      <c r="Z72" s="108">
+        <v>6.5389530000000002</v>
+      </c>
+      <c r="AA72" s="108">
+        <v>6.5320929999999997</v>
+      </c>
+      <c r="AB72" s="108">
+        <v>6.5313109999999996</v>
+      </c>
+      <c r="AC72" s="108">
+        <v>6.536314</v>
+      </c>
+      <c r="AD72" s="108">
+        <v>6.5523569999999998</v>
+      </c>
+      <c r="AE72" s="108">
+        <v>6.5756370000000004</v>
+      </c>
+      <c r="AF72" s="108">
+        <v>6.6085200000000004</v>
+      </c>
+      <c r="AG72" s="108">
+        <v>6.6477279999999999</v>
+      </c>
+      <c r="AH72" s="108">
+        <v>6.6932349999999996</v>
+      </c>
+      <c r="AI72" s="102">
+        <v>-6.914E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" ht="15" customHeight="1">
+      <c r="A73" s="96" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C73" s="108">
+        <v>0.46364499999999997</v>
+      </c>
+      <c r="D73" s="108">
+        <v>0.46393800000000002</v>
+      </c>
+      <c r="E73" s="108">
+        <v>0.46578599999999998</v>
+      </c>
+      <c r="F73" s="108">
+        <v>0.46665899999999999</v>
+      </c>
+      <c r="G73" s="108">
+        <v>0.46610800000000002</v>
+      </c>
+      <c r="H73" s="108">
+        <v>0.46401399999999998</v>
+      </c>
+      <c r="I73" s="108">
+        <v>0.46384199999999998</v>
+      </c>
+      <c r="J73" s="108">
+        <v>0.463561</v>
+      </c>
+      <c r="K73" s="108">
+        <v>0.46387699999999998</v>
+      </c>
+      <c r="L73" s="108">
+        <v>0.46449000000000001</v>
+      </c>
+      <c r="M73" s="108">
+        <v>0.46555299999999999</v>
+      </c>
+      <c r="N73" s="108">
+        <v>0.46645199999999998</v>
+      </c>
+      <c r="O73" s="108">
+        <v>0.468995</v>
+      </c>
+      <c r="P73" s="108">
+        <v>0.47097899999999998</v>
+      </c>
+      <c r="Q73" s="108">
+        <v>0.47375400000000001</v>
+      </c>
+      <c r="R73" s="108">
+        <v>0.476574</v>
+      </c>
+      <c r="S73" s="108">
+        <v>0.47956399999999999</v>
+      </c>
+      <c r="T73" s="108">
+        <v>0.48335600000000001</v>
+      </c>
+      <c r="U73" s="108">
+        <v>0.48743799999999998</v>
+      </c>
+      <c r="V73" s="108">
+        <v>0.49151800000000001</v>
+      </c>
+      <c r="W73" s="108">
+        <v>0.49564900000000001</v>
+      </c>
+      <c r="X73" s="108">
+        <v>0.500162</v>
+      </c>
+      <c r="Y73" s="108">
+        <v>0.50509199999999999</v>
+      </c>
+      <c r="Z73" s="108">
+        <v>0.50988299999999998</v>
+      </c>
+      <c r="AA73" s="108">
+        <v>0.51541300000000001</v>
+      </c>
+      <c r="AB73" s="108">
+        <v>0.52169200000000004</v>
+      </c>
+      <c r="AC73" s="108">
+        <v>0.52834599999999998</v>
+      </c>
+      <c r="AD73" s="108">
+        <v>0.53695999999999999</v>
+      </c>
+      <c r="AE73" s="108">
+        <v>0.54386599999999996</v>
+      </c>
+      <c r="AF73" s="108">
+        <v>0.55152599999999996</v>
+      </c>
+      <c r="AG73" s="108">
+        <v>0.55940400000000001</v>
+      </c>
+      <c r="AH73" s="108">
+        <v>0.56731500000000001</v>
+      </c>
+      <c r="AI73" s="102">
+        <v>6.5310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" ht="15" customHeight="1">
+      <c r="A74" s="96" t="s">
+        <v>397</v>
+      </c>
+      <c r="B74" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.115227</v>
+      </c>
+      <c r="D74" s="108">
+        <v>0.115901</v>
+      </c>
+      <c r="E74" s="108">
+        <v>0.116581</v>
+      </c>
+      <c r="F74" s="108">
+        <v>0.11725099999999999</v>
+      </c>
+      <c r="G74" s="108">
+        <v>0.117882</v>
+      </c>
+      <c r="H74" s="108">
+        <v>0.118551</v>
+      </c>
+      <c r="I74" s="108">
+        <v>0.11926</v>
+      </c>
+      <c r="J74" s="108">
+        <v>0.11995</v>
+      </c>
+      <c r="K74" s="108">
+        <v>0.120641</v>
+      </c>
+      <c r="L74" s="108">
+        <v>0.12134</v>
+      </c>
+      <c r="M74" s="108">
+        <v>0.122028</v>
+      </c>
+      <c r="N74" s="108">
+        <v>0.122645</v>
+      </c>
+      <c r="O74" s="108">
+        <v>0.12329</v>
+      </c>
+      <c r="P74" s="108">
+        <v>0.123892</v>
+      </c>
+      <c r="Q74" s="108">
+        <v>0.124421</v>
+      </c>
+      <c r="R74" s="108">
+        <v>0.12492399999999999</v>
+      </c>
+      <c r="S74" s="108">
+        <v>0.12542900000000001</v>
+      </c>
+      <c r="T74" s="108">
+        <v>0.125889</v>
+      </c>
+      <c r="U74" s="108">
+        <v>0.12637499999999999</v>
+      </c>
+      <c r="V74" s="108">
+        <v>0.12679099999999999</v>
+      </c>
+      <c r="W74" s="108">
+        <v>0.12717300000000001</v>
+      </c>
+      <c r="X74" s="108">
+        <v>0.127473</v>
+      </c>
+      <c r="Y74" s="108">
+        <v>0.12779799999999999</v>
+      </c>
+      <c r="Z74" s="108">
+        <v>0.12806300000000001</v>
+      </c>
+      <c r="AA74" s="108">
+        <v>0.12831100000000001</v>
+      </c>
+      <c r="AB74" s="108">
+        <v>0.12853899999999999</v>
+      </c>
+      <c r="AC74" s="108">
+        <v>0.12875300000000001</v>
+      </c>
+      <c r="AD74" s="108">
+        <v>0.12895599999999999</v>
+      </c>
+      <c r="AE74" s="108">
+        <v>0.12916</v>
+      </c>
+      <c r="AF74" s="108">
+        <v>0.129386</v>
+      </c>
+      <c r="AG74" s="108">
+        <v>0.12965699999999999</v>
+      </c>
+      <c r="AH74" s="108">
+        <v>0.12998299999999999</v>
+      </c>
+      <c r="AI74" s="102">
+        <v>3.895E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" ht="15" customHeight="1">
+      <c r="A75" s="96" t="s">
+        <v>398</v>
+      </c>
+      <c r="B75" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C75" s="108">
+        <v>2.827296</v>
+      </c>
+      <c r="D75" s="108">
+        <v>2.8381769999999999</v>
+      </c>
+      <c r="E75" s="108">
+        <v>2.8615330000000001</v>
+      </c>
+      <c r="F75" s="108">
+        <v>2.8774790000000001</v>
+      </c>
+      <c r="G75" s="108">
+        <v>2.8904100000000001</v>
+      </c>
+      <c r="H75" s="108">
+        <v>2.883003</v>
+      </c>
+      <c r="I75" s="108">
+        <v>2.873901</v>
+      </c>
+      <c r="J75" s="108">
+        <v>2.859937</v>
+      </c>
+      <c r="K75" s="108">
+        <v>2.8467769999999999</v>
+      </c>
+      <c r="L75" s="108">
+        <v>2.829164</v>
+      </c>
+      <c r="M75" s="108">
+        <v>2.8111160000000002</v>
+      </c>
+      <c r="N75" s="108">
+        <v>2.7852190000000001</v>
+      </c>
+      <c r="O75" s="108">
+        <v>2.7753410000000001</v>
+      </c>
+      <c r="P75" s="108">
+        <v>2.7602579999999999</v>
+      </c>
+      <c r="Q75" s="108">
+        <v>2.7520319999999998</v>
+      </c>
+      <c r="R75" s="108">
+        <v>2.7423989999999998</v>
+      </c>
+      <c r="S75" s="108">
+        <v>2.740685</v>
+      </c>
+      <c r="T75" s="108">
+        <v>2.7438159999999998</v>
+      </c>
+      <c r="U75" s="108">
+        <v>2.7465440000000001</v>
+      </c>
+      <c r="V75" s="108">
+        <v>2.7515149999999999</v>
+      </c>
+      <c r="W75" s="108">
+        <v>2.7579820000000002</v>
+      </c>
+      <c r="X75" s="108">
+        <v>2.7674479999999999</v>
+      </c>
+      <c r="Y75" s="108">
+        <v>2.7806380000000002</v>
+      </c>
+      <c r="Z75" s="108">
+        <v>2.797015</v>
+      </c>
+      <c r="AA75" s="108">
+        <v>2.8143769999999999</v>
+      </c>
+      <c r="AB75" s="108">
+        <v>2.8386049999999998</v>
+      </c>
+      <c r="AC75" s="108">
+        <v>2.8677969999999999</v>
+      </c>
+      <c r="AD75" s="108">
+        <v>2.9048660000000002</v>
+      </c>
+      <c r="AE75" s="108">
+        <v>2.9319310000000001</v>
+      </c>
+      <c r="AF75" s="108">
+        <v>2.966593</v>
+      </c>
+      <c r="AG75" s="108">
+        <v>3.0034960000000002</v>
+      </c>
+      <c r="AH75" s="108">
+        <v>3.0408949999999999</v>
+      </c>
+      <c r="AI75" s="102">
+        <v>2.3519999999999999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" ht="15" customHeight="1">
+      <c r="A76" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="B76" s="100" t="s">
+        <v>375</v>
+      </c>
+      <c r="C76" s="108">
+        <v>2.3255000000000001E-2</v>
+      </c>
+      <c r="D76" s="108">
+        <v>2.3671000000000001E-2</v>
+      </c>
+      <c r="E76" s="108">
+        <v>2.4065E-2</v>
+      </c>
+      <c r="F76" s="108">
+        <v>2.4389999999999998E-2</v>
+      </c>
+      <c r="G76" s="108">
+        <v>2.4702999999999999E-2</v>
+      </c>
+      <c r="H76" s="108">
+        <v>2.5016E-2</v>
+      </c>
+      <c r="I76" s="108">
+        <v>2.5316999999999999E-2</v>
+      </c>
+      <c r="J76" s="108">
+        <v>2.5614000000000001E-2</v>
+      </c>
+      <c r="K76" s="108">
+        <v>2.5898999999999998E-2</v>
+      </c>
+      <c r="L76" s="108">
+        <v>2.6196000000000001E-2</v>
+      </c>
+      <c r="M76" s="108">
+        <v>2.6491000000000001E-2</v>
+      </c>
+      <c r="N76" s="108">
+        <v>2.6709E-2</v>
+      </c>
+      <c r="O76" s="108">
+        <v>2.7018E-2</v>
+      </c>
+      <c r="P76" s="108">
+        <v>2.7313E-2</v>
+      </c>
+      <c r="Q76" s="108">
+        <v>2.7597E-2</v>
+      </c>
+      <c r="R76" s="108">
+        <v>2.7855999999999999E-2</v>
+      </c>
+      <c r="S76" s="108">
+        <v>2.8129999999999999E-2</v>
+      </c>
+      <c r="T76" s="108">
+        <v>2.8393000000000002E-2</v>
+      </c>
+      <c r="U76" s="108">
+        <v>2.8663000000000001E-2</v>
+      </c>
+      <c r="V76" s="108">
+        <v>2.8931999999999999E-2</v>
+      </c>
+      <c r="W76" s="108">
+        <v>2.9201999999999999E-2</v>
+      </c>
+      <c r="X76" s="108">
+        <v>2.9463E-2</v>
+      </c>
+      <c r="Y76" s="108">
+        <v>2.972E-2</v>
+      </c>
+      <c r="Z76" s="108">
+        <v>2.9973E-2</v>
+      </c>
+      <c r="AA76" s="108">
+        <v>3.0235000000000001E-2</v>
+      </c>
+      <c r="AB76" s="108">
+        <v>3.0498999999999998E-2</v>
+      </c>
+      <c r="AC76" s="108">
+        <v>3.0761E-2</v>
+      </c>
+      <c r="AD76" s="108">
+        <v>3.1043000000000001E-2</v>
+      </c>
+      <c r="AE76" s="108">
+        <v>3.1319E-2</v>
+      </c>
+      <c r="AF76" s="108">
+        <v>3.1608999999999998E-2</v>
+      </c>
+      <c r="AG76" s="108">
+        <v>3.1884999999999997E-2</v>
+      </c>
+      <c r="AH76" s="108">
+        <v>3.2168000000000002E-2</v>
+      </c>
+      <c r="AI76" s="102">
+        <v>1.0521000000000001E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" ht="15" customHeight="1">
+      <c r="A77" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B77" s="100" t="s">
+        <v>377</v>
+      </c>
+      <c r="C77" s="108">
+        <v>0.24742500000000001</v>
+      </c>
+      <c r="D77" s="108">
+        <v>0.235349</v>
+      </c>
+      <c r="E77" s="108">
+        <v>0.22429399999999999</v>
+      </c>
+      <c r="F77" s="108">
+        <v>0.22170300000000001</v>
+      </c>
+      <c r="G77" s="108">
+        <v>0.22045799999999999</v>
+      </c>
+      <c r="H77" s="108">
+        <v>0.21718599999999999</v>
+      </c>
+      <c r="I77" s="108">
+        <v>0.211368</v>
+      </c>
+      <c r="J77" s="108">
+        <v>0.21512300000000001</v>
+      </c>
+      <c r="K77" s="108">
+        <v>0.21487100000000001</v>
+      </c>
+      <c r="L77" s="108">
+        <v>0.214751</v>
+      </c>
+      <c r="M77" s="108">
+        <v>0.21241499999999999</v>
+      </c>
+      <c r="N77" s="108">
+        <v>0.21002999999999999</v>
+      </c>
+      <c r="O77" s="108">
+        <v>0.20951500000000001</v>
+      </c>
+      <c r="P77" s="108">
+        <v>0.20926700000000001</v>
+      </c>
+      <c r="Q77" s="108">
+        <v>0.209119</v>
+      </c>
+      <c r="R77" s="108">
+        <v>0.20902899999999999</v>
+      </c>
+      <c r="S77" s="108">
+        <v>0.20796100000000001</v>
+      </c>
+      <c r="T77" s="108">
+        <v>0.20799300000000001</v>
+      </c>
+      <c r="U77" s="108">
+        <v>0.20749400000000001</v>
+      </c>
+      <c r="V77" s="108">
+        <v>0.20572799999999999</v>
+      </c>
+      <c r="W77" s="108">
+        <v>0.205676</v>
+      </c>
+      <c r="X77" s="108">
+        <v>0.20463999999999999</v>
+      </c>
+      <c r="Y77" s="108">
+        <v>0.20417199999999999</v>
+      </c>
+      <c r="Z77" s="108">
+        <v>0.20435200000000001</v>
+      </c>
+      <c r="AA77" s="108">
+        <v>0.204426</v>
+      </c>
+      <c r="AB77" s="108">
+        <v>0.20468800000000001</v>
+      </c>
+      <c r="AC77" s="108">
+        <v>0.20524800000000001</v>
+      </c>
+      <c r="AD77" s="108">
+        <v>0.206758</v>
+      </c>
+      <c r="AE77" s="108">
+        <v>0.207232</v>
+      </c>
+      <c r="AF77" s="108">
+        <v>0.20827699999999999</v>
+      </c>
+      <c r="AG77" s="108">
+        <v>0.209481</v>
+      </c>
+      <c r="AH77" s="108">
+        <v>0.211086</v>
+      </c>
+      <c r="AI77" s="102">
+        <v>-5.1110000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" ht="15" customHeight="1">
+      <c r="A78" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="B78" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C78" s="108">
+        <v>4.2333000000000003E-2</v>
+      </c>
+      <c r="D78" s="108">
+        <v>4.1603000000000001E-2</v>
+      </c>
+      <c r="E78" s="108">
+        <v>4.0634999999999998E-2</v>
+      </c>
+      <c r="F78" s="108">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="G78" s="108">
+        <v>3.8405000000000002E-2</v>
+      </c>
+      <c r="H78" s="108">
+        <v>3.7228999999999998E-2</v>
+      </c>
+      <c r="I78" s="108">
+        <v>3.6080000000000001E-2</v>
+      </c>
+      <c r="J78" s="108">
+        <v>3.5014000000000003E-2</v>
+      </c>
+      <c r="K78" s="108">
+        <v>3.3952999999999997E-2</v>
+      </c>
+      <c r="L78" s="108">
+        <v>3.2850999999999998E-2</v>
+      </c>
+      <c r="M78" s="108">
+        <v>3.1706999999999999E-2</v>
+      </c>
+      <c r="N78" s="108">
+        <v>3.0539E-2</v>
+      </c>
+      <c r="O78" s="108">
+        <v>3.0006000000000001E-2</v>
+      </c>
+      <c r="P78" s="108">
+        <v>2.9419000000000001E-2</v>
+      </c>
+      <c r="Q78" s="108">
+        <v>2.8888E-2</v>
+      </c>
+      <c r="R78" s="108">
+        <v>2.8289999999999999E-2</v>
+      </c>
+      <c r="S78" s="108">
+        <v>2.7720000000000002E-2</v>
+      </c>
+      <c r="T78" s="108">
+        <v>2.7203999999999999E-2</v>
+      </c>
+      <c r="U78" s="108">
+        <v>2.666E-2</v>
+      </c>
+      <c r="V78" s="108">
+        <v>2.6100999999999999E-2</v>
+      </c>
+      <c r="W78" s="108">
+        <v>2.5585E-2</v>
+      </c>
+      <c r="X78" s="108">
+        <v>2.5052000000000001E-2</v>
+      </c>
+      <c r="Y78" s="108">
+        <v>2.4795000000000001E-2</v>
+      </c>
+      <c r="Z78" s="108">
+        <v>2.4559000000000001E-2</v>
+      </c>
+      <c r="AA78" s="108">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="AB78" s="108">
+        <v>2.4087999999999998E-2</v>
+      </c>
+      <c r="AC78" s="108">
+        <v>2.3893000000000001E-2</v>
+      </c>
+      <c r="AD78" s="108">
+        <v>2.3781E-2</v>
+      </c>
+      <c r="AE78" s="108">
+        <v>2.3574000000000001E-2</v>
+      </c>
+      <c r="AF78" s="108">
+        <v>2.3429999999999999E-2</v>
+      </c>
+      <c r="AG78" s="108">
+        <v>2.3321999999999999E-2</v>
+      </c>
+      <c r="AH78" s="108">
+        <v>2.3231000000000002E-2</v>
+      </c>
+      <c r="AI78" s="102">
+        <v>-1.9171000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" ht="15" customHeight="1">
+      <c r="A79" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B79" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="108">
+        <v>0.41904400000000003</v>
+      </c>
+      <c r="D79" s="108">
+        <v>0.45932400000000001</v>
+      </c>
+      <c r="E79" s="108">
+        <v>0.44025500000000001</v>
+      </c>
+      <c r="F79" s="108">
+        <v>0.39814699999999997</v>
+      </c>
+      <c r="G79" s="108">
+        <v>0.4</v>
+      </c>
+      <c r="H79" s="108">
+        <v>0.39439400000000002</v>
+      </c>
+      <c r="I79" s="108">
+        <v>0.39922200000000002</v>
+      </c>
+      <c r="J79" s="108">
+        <v>0.39042500000000002</v>
+      </c>
+      <c r="K79" s="108">
+        <v>0.394511</v>
+      </c>
+      <c r="L79" s="108">
+        <v>0.39495000000000002</v>
+      </c>
+      <c r="M79" s="108">
+        <v>0.39003300000000002</v>
+      </c>
+      <c r="N79" s="108">
+        <v>0.394978</v>
+      </c>
+      <c r="O79" s="108">
+        <v>0.39536399999999999</v>
+      </c>
+      <c r="P79" s="108">
+        <v>0.39130700000000002</v>
+      </c>
+      <c r="Q79" s="108">
+        <v>0.39493099999999998</v>
+      </c>
+      <c r="R79" s="108">
+        <v>0.39496900000000001</v>
+      </c>
+      <c r="S79" s="108">
+        <v>0.39388800000000002</v>
+      </c>
+      <c r="T79" s="108">
+        <v>0.39029199999999997</v>
+      </c>
+      <c r="U79" s="108">
+        <v>0.39277800000000002</v>
+      </c>
+      <c r="V79" s="108">
+        <v>0.38911699999999999</v>
+      </c>
+      <c r="W79" s="108">
+        <v>0.38897999999999999</v>
+      </c>
+      <c r="X79" s="108">
+        <v>0.39118900000000001</v>
+      </c>
+      <c r="Y79" s="108">
+        <v>0.387353</v>
+      </c>
+      <c r="Z79" s="108">
+        <v>0.38686100000000001</v>
+      </c>
+      <c r="AA79" s="108">
+        <v>0.38600800000000002</v>
+      </c>
+      <c r="AB79" s="108">
+        <v>0.38491500000000001</v>
+      </c>
+      <c r="AC79" s="108">
+        <v>0.38422600000000001</v>
+      </c>
+      <c r="AD79" s="108">
+        <v>0.38400499999999999</v>
+      </c>
+      <c r="AE79" s="108">
+        <v>0.38326900000000003</v>
+      </c>
+      <c r="AF79" s="108">
+        <v>0.382965</v>
+      </c>
+      <c r="AG79" s="108">
+        <v>0.38282300000000002</v>
+      </c>
+      <c r="AH79" s="108">
+        <v>0.382909</v>
+      </c>
+      <c r="AI79" s="102">
+        <v>-2.905E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" ht="15" customHeight="1">
+      <c r="A80" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80" s="100" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="108">
+        <v>0.13308</v>
+      </c>
+      <c r="D80" s="108">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="E80" s="108">
+        <v>0.133858</v>
+      </c>
+      <c r="F80" s="108">
+        <v>0.134049</v>
+      </c>
+      <c r="G80" s="108">
+        <v>0.13415199999999999</v>
+      </c>
+      <c r="H80" s="108">
+        <v>0.13424700000000001</v>
+      </c>
+      <c r="I80" s="108">
+        <v>0.134378</v>
+      </c>
+      <c r="J80" s="108">
+        <v>0.13447700000000001</v>
+      </c>
+      <c r="K80" s="108">
+        <v>0.134548</v>
+      </c>
+      <c r="L80" s="108">
+        <v>0.13462499999999999</v>
+      </c>
+      <c r="M80" s="108">
+        <v>0.13470099999999999</v>
+      </c>
+      <c r="N80" s="108">
+        <v>0.134737</v>
+      </c>
+      <c r="O80" s="108">
+        <v>0.13476199999999999</v>
+      </c>
+      <c r="P80" s="108">
+        <v>0.134771</v>
+      </c>
+      <c r="Q80" s="108">
+        <v>0.13472700000000001</v>
+      </c>
+      <c r="R80" s="108">
+        <v>0.134629</v>
+      </c>
+      <c r="S80" s="108">
+        <v>0.13448399999999999</v>
+      </c>
+      <c r="T80" s="108">
+        <v>0.134326</v>
+      </c>
+      <c r="U80" s="108">
+        <v>0.13414300000000001</v>
+      </c>
+      <c r="V80" s="108">
+        <v>0.13394700000000001</v>
+      </c>
+      <c r="W80" s="108">
+        <v>0.133738</v>
+      </c>
+      <c r="X80" s="108">
+        <v>0.13349800000000001</v>
+      </c>
+      <c r="Y80" s="108">
+        <v>0.13322999999999999</v>
+      </c>
+      <c r="Z80" s="108">
+        <v>0.13292499999999999</v>
+      </c>
+      <c r="AA80" s="108">
+        <v>0.13261300000000001</v>
+      </c>
+      <c r="AB80" s="108">
+        <v>0.13230500000000001</v>
+      </c>
+      <c r="AC80" s="108">
+        <v>0.13201299999999999</v>
+      </c>
+      <c r="AD80" s="108">
+        <v>0.13173699999999999</v>
+      </c>
+      <c r="AE80" s="108">
+        <v>0.13146099999999999</v>
+      </c>
+      <c r="AF80" s="108">
+        <v>0.131191</v>
+      </c>
+      <c r="AG80" s="108">
+        <v>0.130914</v>
+      </c>
+      <c r="AH80" s="108">
+        <v>0.130629</v>
+      </c>
+      <c r="AI80" s="102">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" ht="15" customHeight="1">
+      <c r="A81" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="100" t="s">
+        <v>385</v>
+      </c>
+      <c r="C81" s="108">
+        <v>1.2774190000000001</v>
+      </c>
+      <c r="D81" s="108">
+        <v>1.2929409999999999</v>
+      </c>
+      <c r="E81" s="108">
+        <v>1.309023</v>
+      </c>
+      <c r="F81" s="108">
+        <v>1.321509</v>
+      </c>
+      <c r="G81" s="108">
+        <v>1.3312900000000001</v>
+      </c>
+      <c r="H81" s="108">
+        <v>1.3427230000000001</v>
+      </c>
+      <c r="I81" s="108">
+        <v>1.3557900000000001</v>
+      </c>
+      <c r="J81" s="108">
+        <v>1.3681369999999999</v>
+      </c>
+      <c r="K81" s="108">
+        <v>1.3801410000000001</v>
+      </c>
+      <c r="L81" s="108">
+        <v>1.3928480000000001</v>
+      </c>
+      <c r="M81" s="108">
+        <v>1.4067240000000001</v>
+      </c>
+      <c r="N81" s="108">
+        <v>1.4205829999999999</v>
+      </c>
+      <c r="O81" s="108">
+        <v>1.4351780000000001</v>
+      </c>
+      <c r="P81" s="108">
+        <v>1.449832</v>
+      </c>
+      <c r="Q81" s="108">
+        <v>1.464272</v>
+      </c>
+      <c r="R81" s="108">
+        <v>1.4766490000000001</v>
+      </c>
+      <c r="S81" s="108">
+        <v>1.4884630000000001</v>
+      </c>
+      <c r="T81" s="108">
+        <v>1.5014019999999999</v>
+      </c>
+      <c r="U81" s="108">
+        <v>1.5147889999999999</v>
+      </c>
+      <c r="V81" s="108">
+        <v>1.528416</v>
+      </c>
+      <c r="W81" s="108">
+        <v>1.5426770000000001</v>
+      </c>
+      <c r="X81" s="108">
+        <v>1.5573269999999999</v>
+      </c>
+      <c r="Y81" s="108">
+        <v>1.571836</v>
+      </c>
+      <c r="Z81" s="108">
+        <v>1.586228</v>
+      </c>
+      <c r="AA81" s="108">
+        <v>1.6011010000000001</v>
+      </c>
+      <c r="AB81" s="108">
+        <v>1.6174539999999999</v>
+      </c>
+      <c r="AC81" s="108">
+        <v>1.636085</v>
+      </c>
+      <c r="AD81" s="108">
+        <v>1.656825</v>
+      </c>
+      <c r="AE81" s="108">
+        <v>1.6786369999999999</v>
+      </c>
+      <c r="AF81" s="108">
+        <v>1.702407</v>
+      </c>
+      <c r="AG81" s="108">
+        <v>1.727231</v>
+      </c>
+      <c r="AH81" s="108">
+        <v>1.7528760000000001</v>
+      </c>
+      <c r="AI81" s="102">
+        <v>1.0259000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" ht="15" customHeight="1">
+      <c r="A82" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="B82" s="100" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" s="108">
+        <v>0.245757</v>
+      </c>
+      <c r="D82" s="108">
+        <v>0.25195600000000001</v>
+      </c>
+      <c r="E82" s="108">
+        <v>0.24727399999999999</v>
+      </c>
+      <c r="F82" s="108">
+        <v>0.24185499999999999</v>
+      </c>
+      <c r="G82" s="108">
+        <v>0.23461799999999999</v>
+      </c>
+      <c r="H82" s="108">
+        <v>0.22980800000000001</v>
+      </c>
+      <c r="I82" s="108">
+        <v>0.22891800000000001</v>
+      </c>
+      <c r="J82" s="108">
+        <v>0.228018</v>
+      </c>
+      <c r="K82" s="108">
+        <v>0.227745</v>
+      </c>
+      <c r="L82" s="108">
+        <v>0.22897000000000001</v>
+      </c>
+      <c r="M82" s="108">
+        <v>0.22845399999999999</v>
+      </c>
+      <c r="N82" s="108">
+        <v>0.228098</v>
+      </c>
+      <c r="O82" s="108">
+        <v>0.22814899999999999</v>
+      </c>
+      <c r="P82" s="108">
+        <v>0.22819700000000001</v>
+      </c>
+      <c r="Q82" s="108">
+        <v>0.22825300000000001</v>
+      </c>
+      <c r="R82" s="108">
+        <v>0.22831799999999999</v>
+      </c>
+      <c r="S82" s="108">
+        <v>0.228408</v>
+      </c>
+      <c r="T82" s="108">
+        <v>0.22850100000000001</v>
+      </c>
+      <c r="U82" s="108">
+        <v>0.228635</v>
+      </c>
+      <c r="V82" s="108">
+        <v>0.22875499999999999</v>
+      </c>
+      <c r="W82" s="108">
+        <v>0.22888500000000001</v>
+      </c>
+      <c r="X82" s="108">
+        <v>0.22899900000000001</v>
+      </c>
+      <c r="Y82" s="108">
+        <v>0.22914799999999999</v>
+      </c>
+      <c r="Z82" s="108">
+        <v>0.22929099999999999</v>
+      </c>
+      <c r="AA82" s="108">
+        <v>0.22944500000000001</v>
+      </c>
+      <c r="AB82" s="108">
+        <v>0.22960700000000001</v>
+      </c>
+      <c r="AC82" s="108">
+        <v>0.22977500000000001</v>
+      </c>
+      <c r="AD82" s="108">
+        <v>0.22994500000000001</v>
+      </c>
+      <c r="AE82" s="108">
+        <v>0.23011400000000001</v>
+      </c>
+      <c r="AF82" s="108">
+        <v>0.23028799999999999</v>
+      </c>
+      <c r="AG82" s="108">
+        <v>0.230466</v>
+      </c>
+      <c r="AH82" s="108">
+        <v>0.23064699999999999</v>
+      </c>
+      <c r="AI82" s="102">
+        <v>-2.0449999999999999E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35" ht="15" customHeight="1">
+      <c r="A83" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="B83" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" s="108">
+        <v>6.2101000000000003E-2</v>
+      </c>
+      <c r="D83" s="108">
+        <v>6.1879000000000003E-2</v>
+      </c>
+      <c r="E83" s="108">
+        <v>6.1698999999999997E-2</v>
+      </c>
+      <c r="F83" s="108">
+        <v>6.1485999999999999E-2</v>
+      </c>
+      <c r="G83" s="108">
+        <v>6.1273000000000001E-2</v>
+      </c>
+      <c r="H83" s="108">
+        <v>6.1046999999999997E-2</v>
+      </c>
+      <c r="I83" s="108">
+        <v>6.0801000000000001E-2</v>
+      </c>
+      <c r="J83" s="108">
+        <v>6.0561999999999998E-2</v>
+      </c>
+      <c r="K83" s="108">
+        <v>6.0338999999999997E-2</v>
+      </c>
+      <c r="L83" s="108">
+        <v>6.0145999999999998E-2</v>
+      </c>
+      <c r="M83" s="108">
+        <v>5.9989000000000001E-2</v>
+      </c>
+      <c r="N83" s="108">
+        <v>5.9838000000000002E-2</v>
+      </c>
+      <c r="O83" s="108">
+        <v>5.9705000000000001E-2</v>
+      </c>
+      <c r="P83" s="108">
+        <v>5.9584999999999999E-2</v>
+      </c>
+      <c r="Q83" s="108">
+        <v>5.9469000000000001E-2</v>
+      </c>
+      <c r="R83" s="108">
+        <v>5.9378E-2</v>
+      </c>
+      <c r="S83" s="108">
+        <v>5.9305999999999998E-2</v>
+      </c>
+      <c r="T83" s="108">
+        <v>5.9277000000000003E-2</v>
+      </c>
+      <c r="U83" s="108">
+        <v>5.9264999999999998E-2</v>
+      </c>
+      <c r="V83" s="108">
+        <v>5.9268000000000001E-2</v>
+      </c>
+      <c r="W83" s="108">
+        <v>5.9288E-2</v>
+      </c>
+      <c r="X83" s="108">
+        <v>5.9296000000000001E-2</v>
+      </c>
+      <c r="Y83" s="108">
+        <v>5.9297999999999997E-2</v>
+      </c>
+      <c r="Z83" s="108">
+        <v>5.9334999999999999E-2</v>
+      </c>
+      <c r="AA83" s="108">
+        <v>5.9360999999999997E-2</v>
+      </c>
+      <c r="AB83" s="108">
+        <v>5.9407000000000001E-2</v>
+      </c>
+      <c r="AC83" s="108">
+        <v>5.9490000000000001E-2</v>
+      </c>
+      <c r="AD83" s="108">
+        <v>5.9586E-2</v>
+      </c>
+      <c r="AE83" s="108">
+        <v>5.9687999999999998E-2</v>
+      </c>
+      <c r="AF83" s="108">
+        <v>5.9813999999999999E-2</v>
+      </c>
+      <c r="AG83" s="108">
+        <v>5.9926E-2</v>
+      </c>
+      <c r="AH83" s="108">
+        <v>6.0026999999999997E-2</v>
+      </c>
+      <c r="AI83" s="102">
+        <v>-1.0950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35" ht="15" customHeight="1">
+      <c r="A84" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="B84" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C84" s="108">
+        <v>0.31739299999999998</v>
+      </c>
+      <c r="D84" s="108">
+        <v>0.31517099999999998</v>
+      </c>
+      <c r="E84" s="108">
+        <v>0.33130700000000002</v>
+      </c>
+      <c r="F84" s="108">
+        <v>0.33717799999999998</v>
+      </c>
+      <c r="G84" s="108">
+        <v>0.34052199999999999</v>
+      </c>
+      <c r="H84" s="108">
+        <v>0.34725099999999998</v>
+      </c>
+      <c r="I84" s="108">
+        <v>0.35514699999999999</v>
+      </c>
+      <c r="J84" s="108">
+        <v>0.35935600000000001</v>
+      </c>
+      <c r="K84" s="108">
+        <v>0.357068</v>
+      </c>
+      <c r="L84" s="108">
+        <v>0.35733500000000001</v>
+      </c>
+      <c r="M84" s="108">
+        <v>0.36055799999999999</v>
+      </c>
+      <c r="N84" s="108">
+        <v>0.36154199999999997</v>
+      </c>
+      <c r="O84" s="108">
+        <v>0.36494100000000002</v>
+      </c>
+      <c r="P84" s="108">
+        <v>0.36652099999999999</v>
+      </c>
+      <c r="Q84" s="108">
+        <v>0.36658499999999999</v>
+      </c>
+      <c r="R84" s="108">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="S84" s="108">
+        <v>0.36870799999999998</v>
+      </c>
+      <c r="T84" s="108">
+        <v>0.37387199999999998</v>
+      </c>
+      <c r="U84" s="108">
+        <v>0.376363</v>
+      </c>
+      <c r="V84" s="108">
+        <v>0.38012000000000001</v>
+      </c>
+      <c r="W84" s="108">
+        <v>0.38538299999999998</v>
+      </c>
+      <c r="X84" s="108">
+        <v>0.38880399999999998</v>
+      </c>
+      <c r="Y84" s="108">
+        <v>0.39178000000000002</v>
+      </c>
+      <c r="Z84" s="108">
+        <v>0.398781</v>
+      </c>
+      <c r="AA84" s="108">
+        <v>0.40295999999999998</v>
+      </c>
+      <c r="AB84" s="108">
+        <v>0.406918</v>
+      </c>
+      <c r="AC84" s="108">
+        <v>0.41073599999999999</v>
+      </c>
+      <c r="AD84" s="108">
+        <v>0.41542299999999999</v>
+      </c>
+      <c r="AE84" s="108">
+        <v>0.419431</v>
+      </c>
+      <c r="AF84" s="108">
+        <v>0.424151</v>
+      </c>
+      <c r="AG84" s="108">
+        <v>0.42755599999999999</v>
+      </c>
+      <c r="AH84" s="108">
+        <v>0.431008</v>
+      </c>
+      <c r="AI84" s="102">
+        <v>9.9190000000000007E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35" ht="15" customHeight="1">
+      <c r="A85" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" s="109">
+        <v>14.473433</v>
+      </c>
+      <c r="D85" s="109">
+        <v>14.53084</v>
+      </c>
+      <c r="E85" s="109">
+        <v>14.515177</v>
+      </c>
+      <c r="F85" s="109">
+        <v>14.408682000000001</v>
+      </c>
+      <c r="G85" s="109">
+        <v>14.284176</v>
+      </c>
+      <c r="H85" s="109">
+        <v>14.113085</v>
+      </c>
+      <c r="I85" s="109">
+        <v>13.944188</v>
+      </c>
+      <c r="J85" s="109">
+        <v>13.801455000000001</v>
+      </c>
+      <c r="K85" s="109">
+        <v>13.680749</v>
+      </c>
+      <c r="L85" s="109">
+        <v>13.568763000000001</v>
+      </c>
+      <c r="M85" s="109">
+        <v>13.462358</v>
+      </c>
+      <c r="N85" s="109">
+        <v>13.368217</v>
+      </c>
+      <c r="O85" s="109">
+        <v>13.305375</v>
+      </c>
+      <c r="P85" s="109">
+        <v>13.229243</v>
+      </c>
+      <c r="Q85" s="109">
+        <v>13.172801</v>
+      </c>
+      <c r="R85" s="109">
+        <v>13.107445999999999</v>
+      </c>
+      <c r="S85" s="109">
+        <v>13.048519000000001</v>
+      </c>
+      <c r="T85" s="109">
+        <v>13.017054999999999</v>
+      </c>
+      <c r="U85" s="109">
+        <v>12.995324999999999</v>
+      </c>
+      <c r="V85" s="109">
+        <v>12.977034</v>
+      </c>
+      <c r="W85" s="109">
+        <v>12.975856</v>
+      </c>
+      <c r="X85" s="109">
+        <v>12.986323000000001</v>
+      </c>
+      <c r="Y85" s="109">
+        <v>12.997332999999999</v>
+      </c>
+      <c r="Z85" s="109">
+        <v>13.026218</v>
+      </c>
+      <c r="AA85" s="109">
+        <v>13.060641</v>
+      </c>
+      <c r="AB85" s="109">
+        <v>13.110025</v>
+      </c>
+      <c r="AC85" s="109">
+        <v>13.173438000000001</v>
+      </c>
+      <c r="AD85" s="109">
+        <v>13.26224</v>
+      </c>
+      <c r="AE85" s="109">
+        <v>13.345319999999999</v>
+      </c>
+      <c r="AF85" s="109">
+        <v>13.450161</v>
+      </c>
+      <c r="AG85" s="109">
+        <v>13.563889</v>
+      </c>
+      <c r="AH85" s="109">
+        <v>13.686009</v>
+      </c>
+      <c r="AI85" s="110">
+        <v>-1.8029999999999999E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" ht="15" customHeight="1" thickBot="1"/>
+    <row r="87" spans="1:35" ht="15" customHeight="1">
+      <c r="B87" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="112"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="112"/>
+      <c r="R87" s="112"/>
+      <c r="S87" s="112"/>
+      <c r="T87" s="112"/>
+      <c r="U87" s="112"/>
+      <c r="V87" s="112"/>
+      <c r="W87" s="112"/>
+      <c r="X87" s="112"/>
+      <c r="Y87" s="112"/>
+      <c r="Z87" s="112"/>
+      <c r="AA87" s="112"/>
+      <c r="AB87" s="112"/>
+      <c r="AC87" s="112"/>
+      <c r="AD87" s="112"/>
+      <c r="AE87" s="112"/>
+      <c r="AF87" s="112"/>
+      <c r="AG87" s="112"/>
+      <c r="AH87" s="112"/>
+      <c r="AI87" s="112"/>
+    </row>
+    <row r="88" spans="1:35" ht="15" customHeight="1">
+      <c r="B88" s="111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:35" ht="15" customHeight="1">
+      <c r="B89" s="111" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" ht="15" customHeight="1">
+      <c r="B90" s="111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" ht="15" customHeight="1">
+      <c r="B91" s="111" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" ht="15" customHeight="1">
+      <c r="B92" s="111" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" ht="15" customHeight="1">
+      <c r="B93" s="111" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" ht="15" customHeight="1">
+      <c r="B94" s="111" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" ht="15" customHeight="1">
+      <c r="B95" s="111" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" ht="15" customHeight="1">
+      <c r="B96" s="111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15" customHeight="1">
+      <c r="B97" s="111" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B87:AI87"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4067D83-20AB-4FAB-A0B4-0606C2D2E907}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="26" t="s">
         <v>223</v>
       </c>
@@ -13224,16 +20396,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="48">
-        <v>0</v>
+        <v>3.2293482418666772E-5</v>
       </c>
       <c r="C6" s="48">
         <v>0</v>
       </c>
       <c r="D6" s="48">
-        <v>0</v>
+        <v>1.0049397002369564E-5</v>
       </c>
       <c r="E6" s="48">
-        <v>3.1805809143661031E-4</v>
+        <v>1.0049397002369565E-5</v>
       </c>
       <c r="F6" s="48">
         <v>0</v>
@@ -13242,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="48">
-        <v>0</v>
+        <v>3.0148191007108693E-5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13309,13 +20481,13 @@
       <c r="H13" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0129FB5-648C-4E52-AD9E-D750915002C8}">
   <sheetPr>
     <tabColor rgb="FF1F497D"/>
@@ -13323,23 +20495,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
@@ -13502,16 +20674,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="48">
-        <v>0</v>
+        <v>1.5467626362604087E-2</v>
       </c>
       <c r="C6" s="48">
-        <v>0</v>
+        <v>4.813365E-3</v>
       </c>
       <c r="D6" s="48">
-        <v>3.2499077185230334E-3</v>
-      </c>
-      <c r="E6" s="48">
-        <v>3.5853807852542999E-3</v>
+        <v>4.813365E-3</v>
+      </c>
+      <c r="E6" s="91">
+        <v>4.813365E-3</v>
       </c>
       <c r="F6" s="48">
         <v>0</v>
@@ -13520,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="48">
-        <v>0</v>
+        <v>1.4440094999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -13560,7 +20732,7 @@
       <c r="H10" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13574,20 +20746,20 @@
       <selection sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="17" t="s">
         <v>196</v>
       </c>
@@ -13889,7 +21061,7 @@
       <c r="H21" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13902,20 +21074,20 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="2" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30">
+    <row r="1" spans="1:8" ht="29">
       <c r="A1" s="17" t="s">
         <v>196</v>
       </c>
@@ -14135,7 +21307,7 @@
       <c r="A15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14148,14 +21320,14 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45">
+    <row r="1" spans="1:37" ht="43.5">
       <c r="A1" s="26" t="s">
         <v>198</v>
       </c>
@@ -14947,7 +22119,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14960,13 +22132,13 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="28" customFormat="1" ht="45">
+    <row r="1" spans="1:36" s="28" customFormat="1" ht="43.5">
       <c r="A1" s="26" t="s">
         <v>199</v>
       </c>
@@ -15737,7 +22909,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15750,9 +22922,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="60">
+    <row r="1" spans="1:34" ht="58">
       <c r="A1" s="26" t="s">
         <v>239</v>
       </c>
@@ -15865,7 +23037,7 @@
         <v>7645.3386159425945</v>
       </c>
       <c r="C2" s="24">
-        <f>'[1]DV-Cal'!S4</f>
+        <f>'[3]DV-Cal'!S4</f>
         <v>7645.3386159425945</v>
       </c>
       <c r="D2" s="24">
@@ -16002,7 +23174,7 @@
         <v>9323.117790227654</v>
       </c>
       <c r="C3" s="24">
-        <f>'[1]DV-Cal'!S7</f>
+        <f>'[3]DV-Cal'!S7</f>
         <v>9323.117790227654</v>
       </c>
       <c r="D3" s="24">
@@ -16139,7 +23311,7 @@
         <v>1037079.5912426789</v>
       </c>
       <c r="C4" s="24">
-        <f>'[1]Air-Cal'!O4</f>
+        <f>'[3]Air-Cal'!O4</f>
         <v>1037079.5912426789</v>
       </c>
       <c r="D4" s="24">
@@ -16276,7 +23448,7 @@
         <v>87159.138758496847</v>
       </c>
       <c r="C5" s="24">
-        <f>'[1]Rail-Cal'!$G$14</f>
+        <f>'[3]Rail-Cal'!$G$14</f>
         <v>87159.138758496847</v>
       </c>
       <c r="D5" s="24">
@@ -16413,7 +23585,7 @@
         <v>10551.03452890655</v>
       </c>
       <c r="C6" s="24">
-        <f>'[1]Ships-Cal'!H69</f>
+        <f>'[3]Ships-Cal'!H69</f>
         <v>10551.03452890655</v>
       </c>
       <c r="D6" s="24">
@@ -16550,7 +23722,7 @@
         <v>4543.5229764190408</v>
       </c>
       <c r="C7" s="24">
-        <f>[1]Motorbikes!$E$7*[1]About!$B$64*365</f>
+        <f>[3]Motorbikes!$E$7*[3]About!$B$64*365</f>
         <v>4543.5229764190408</v>
       </c>
       <c r="D7" s="24">
@@ -16679,7 +23851,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16692,9 +23864,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="60">
+    <row r="1" spans="1:33" ht="58">
       <c r="A1" s="26" t="s">
         <v>239</v>
       </c>
@@ -16804,7 +23976,7 @@
         <v>9169.809811392035</v>
       </c>
       <c r="C2" s="24">
-        <f>'[1]DV-Cal'!S10</f>
+        <f>'[3]DV-Cal'!S10</f>
         <v>9169.809811392035</v>
       </c>
       <c r="D2" s="24">
@@ -16937,7 +24109,7 @@
         <v>18979.686196888564</v>
       </c>
       <c r="C3" s="24">
-        <f>'[1]DV-Cal'!S13</f>
+        <f>'[3]DV-Cal'!S13</f>
         <v>18979.686196888564</v>
       </c>
       <c r="D3" s="24">
@@ -17066,7 +24238,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="24">
-        <f>'[1]Air-Cal'!O7</f>
+        <f>'[3]Air-Cal'!O7</f>
         <v>3355599.9662397844</v>
       </c>
       <c r="C4" s="24">
@@ -17199,7 +24371,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="24">
-        <f>'[1]Rail-Cal'!G6</f>
+        <f>'[3]Rail-Cal'!G6</f>
         <v>15068.57360345372</v>
       </c>
       <c r="C5" s="24">
@@ -17332,7 +24504,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="24">
-        <f>'[1]Ships-Cal'!H72</f>
+        <f>'[3]Ships-Cal'!H72</f>
         <v>81662.909988119718</v>
       </c>
       <c r="C6" s="24">
@@ -17465,7 +24637,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="24">
-        <f>[1]Motorbikes!$E$2*[1]About!$B$64*365</f>
+        <f>[3]Motorbikes!$E$2*[3]About!$B$64*365</f>
         <v>10573.883538920783</v>
       </c>
       <c r="C7" s="24">
@@ -17594,7 +24766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17607,9 +24779,9 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="135">
+    <row r="1" spans="1:33" ht="130.5">
       <c r="A1" s="26" t="s">
         <v>282</v>
       </c>
@@ -17718,127 +24890,127 @@
         <v>1</v>
       </c>
       <c r="C2" s="85">
-        <f>B2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>B2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.0257544634651936</v>
       </c>
       <c r="D2" s="85">
-        <f>C2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>C2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.0521722193187673</v>
       </c>
       <c r="E2" s="85">
-        <f>D2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>D2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.079270350300304</v>
       </c>
       <c r="F2" s="85">
-        <f>E2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>E2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.1070663791061799</v>
       </c>
       <c r="G2" s="85">
-        <f>F2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>F2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.1355782797204141</v>
       </c>
       <c r="H2" s="85">
-        <f>G2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>G2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.1648244890373409</v>
       </c>
       <c r="I2" s="85">
-        <f>H2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>H2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.194823918783616</v>
       </c>
       <c r="J2" s="85">
-        <f>I2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>I2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.2255959677472681</v>
       </c>
       <c r="K2" s="85">
-        <f>J2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>J2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.2571605343217036</v>
       </c>
       <c r="L2" s="85">
-        <f>K2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>K2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.2895380293727752</v>
       </c>
       <c r="M2" s="85">
-        <f>L2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>L2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.322749389437234</v>
       </c>
       <c r="N2" s="85">
-        <f>M2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>M2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.3568160902611024</v>
       </c>
       <c r="O2" s="85">
-        <f>N2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>N2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.3917601606867187</v>
       </c>
       <c r="P2" s="85">
-        <f>O2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>O2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.4276041968974369</v>
       </c>
       <c r="Q2" s="85">
-        <f>P2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>P2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.4643713770291891</v>
       </c>
       <c r="R2" s="85">
-        <f>Q2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>Q2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.5020854761583626</v>
       </c>
       <c r="S2" s="85">
-        <f>R2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>R2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.5407708816756811</v>
       </c>
       <c r="T2" s="85">
-        <f>S2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>S2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.5804526090560316</v>
       </c>
       <c r="U2" s="85">
-        <f>T2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>T2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.6211563180344351</v>
       </c>
       <c r="V2" s="85">
-        <f>U2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>U2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.6629083291986206</v>
       </c>
       <c r="W2" s="85">
-        <f>V2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>V2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.7057356410089326</v>
       </c>
       <c r="X2" s="85">
-        <f>W2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>W2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.7496659472565759</v>
       </c>
       <c r="Y2" s="85">
-        <f>X2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>X2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.7947276549714888</v>
       </c>
       <c r="Z2" s="85">
-        <f>Y2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>Y2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.8409499027914247</v>
       </c>
       <c r="AA2" s="85">
-        <f>Z2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>Z2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.8883625798041181</v>
       </c>
       <c r="AB2" s="85">
-        <f>AA2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AA2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.9369963448747221</v>
       </c>
       <c r="AC2" s="85">
-        <f>AB2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AB2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>1.9868826464710116</v>
       </c>
       <c r="AD2" s="85">
-        <f>AC2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AC2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>2.0380537429991765</v>
       </c>
       <c r="AE2" s="85">
-        <f>AD2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AD2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>2.0905427236633498</v>
       </c>
       <c r="AF2" s="85">
-        <f>AE2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AE2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>2.1443835298623637</v>
       </c>
       <c r="AG2" s="85">
-        <f>AF2*(1+'[2]DV-CAGR'!$N$82)</f>
+        <f>AF2*(1+'[4]DV-CAGR'!$N$82)</f>
         <v>2.1996109771375667</v>
       </c>
     </row>
@@ -17850,127 +25022,127 @@
         <v>1</v>
       </c>
       <c r="C3" s="85">
-        <f>B3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>B3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.95480526999756732</v>
       </c>
       <c r="D3" s="85">
-        <f>C3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>C3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.91165310361512741</v>
       </c>
       <c r="E3" s="85">
-        <f>D3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>D3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.87045118774136199</v>
       </c>
       <c r="F3" s="85">
-        <f>E3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>E3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.8311113813310943</v>
       </c>
       <c r="G3" s="85">
-        <f>F3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>F3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.79354952684988667</v>
       </c>
       <c r="H3" s="85">
-        <f>G3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>G3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.75768527024034782</v>
       </c>
       <c r="I3" s="85">
-        <f>H3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>H3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.72344188902501505</v>
       </c>
       <c r="J3" s="85">
-        <f>I3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>I3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.69074612817807968</v>
       </c>
       <c r="K3" s="85">
-        <f>J3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>J3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.65952804341484561</v>
       </c>
       <c r="L3" s="85">
-        <f>K3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>K3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.62972085156367896</v>
       </c>
       <c r="M3" s="85">
-        <f>L3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>L3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.60126078770035651</v>
       </c>
       <c r="N3" s="85">
-        <f>M3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>M3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.57408696873918885</v>
       </c>
       <c r="O3" s="85">
-        <f>N3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>N3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.54814126318910616</v>
       </c>
       <c r="P3" s="85">
-        <f>O3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>O3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.52336816679608211</v>
       </c>
       <c r="Q3" s="85">
-        <f>P3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>P3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.49971468380586503</v>
       </c>
       <c r="R3" s="85">
-        <f>Q3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>Q3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.47713021359300795</v>
       </c>
       <c r="S3" s="85">
-        <f>R3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>R3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.45556644241366889</v>
       </c>
       <c r="T3" s="85">
-        <f>S3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>S3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.43497724005061433</v>
       </c>
       <c r="U3" s="85">
-        <f>T3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>T3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.41531856112932347</v>
       </c>
       <c r="V3" s="85">
-        <f>U3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>U3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.39654835089408486</v>
       </c>
       <c r="W3" s="85">
-        <f>V3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>V3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.37862645524251676</v>
       </c>
       <c r="X3" s="85">
-        <f>W3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>W3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.36151453482605306</v>
       </c>
       <c r="Y3" s="85">
-        <f>X3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>X3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.34517598303263453</v>
       </c>
       <c r="Z3" s="85">
-        <f>Y3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>Y3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.32957584767615034</v>
       </c>
       <c r="AA3" s="85">
-        <f>Z3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>Z3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.31468075622510383</v>
       </c>
       <c r="AB3" s="85">
-        <f>AA3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AA3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.30045884441054893</v>
       </c>
       <c r="AC3" s="85">
-        <f>AB3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AB3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.28687968806057124</v>
       </c>
       <c r="AD3" s="85">
-        <f>AC3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AC3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.27391423801549158</v>
       </c>
       <c r="AE3" s="85">
-        <f>AD3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AD3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.26153475798455939</v>
       </c>
       <c r="AF3" s="85">
-        <f>AE3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AE3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.24971476521119565</v>
       </c>
       <c r="AG3" s="85">
-        <f>AF3*(1+'[2]DV-CAGR'!$N$83)</f>
+        <f>AF3*(1+'[4]DV-CAGR'!$N$83)</f>
         <v>0.23842897381985478</v>
       </c>
     </row>
@@ -18379,7 +25551,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18392,9 +25564,9 @@
       <selection activeCell="B2" sqref="B2:AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="135">
+    <row r="1" spans="1:33" ht="130.5">
       <c r="A1" s="26" t="s">
         <v>282</v>
       </c>
@@ -18503,127 +25675,127 @@
         <v>1</v>
       </c>
       <c r="C2" s="85">
-        <f>B2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>B2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0042610726525127</v>
       </c>
       <c r="D2" s="85">
-        <f>C2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>C2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0085403020451755</v>
       </c>
       <c r="E2" s="85">
-        <f>D2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>D2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0128377655451772</v>
       </c>
       <c r="F2" s="85">
-        <f>E2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>E2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0171535408493739</v>
       </c>
       <c r="G2" s="85">
-        <f>F2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>F2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0214877059856937</v>
       </c>
       <c r="H2" s="85">
-        <f>G2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>G2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0258403393145474</v>
       </c>
       <c r="I2" s="85">
-        <f>H2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>H2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.030211519530245</v>
       </c>
       <c r="J2" s="85">
-        <f>I2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>I2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0346013256624189</v>
       </c>
       <c r="K2" s="85">
-        <f>J2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>J2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0390098370774525</v>
       </c>
       <c r="L2" s="85">
-        <f>K2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>K2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0434371334799151</v>
       </c>
       <c r="M2" s="85">
-        <f>L2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>L2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0478832949140027</v>
       </c>
       <c r="N2" s="85">
-        <f>M2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>M2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0523484017649856</v>
       </c>
       <c r="O2" s="85">
-        <f>N2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>N2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0568325347606617</v>
       </c>
       <c r="P2" s="85">
-        <f>O2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>O2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0613357749728161</v>
       </c>
       <c r="Q2" s="85">
-        <f>P2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>P2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0658582038186861</v>
       </c>
       <c r="R2" s="85">
-        <f>Q2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>Q2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0703999030624343</v>
       </c>
       <c r="S2" s="85">
-        <f>R2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>R2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0749609548166259</v>
       </c>
       <c r="T2" s="85">
-        <f>S2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>S2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0795414415437141</v>
       </c>
       <c r="U2" s="85">
-        <f>T2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>T2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0841414460575303</v>
       </c>
       <c r="V2" s="85">
-        <f>U2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>U2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0887610515247816</v>
       </c>
       <c r="W2" s="85">
-        <f>V2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>V2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.093400341466555</v>
       </c>
       <c r="X2" s="85">
-        <f>W2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>W2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.0980593997598262</v>
       </c>
       <c r="Y2" s="85">
-        <f>X2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>X2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1027383106389774</v>
       </c>
       <c r="Z2" s="85">
-        <f>Y2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>Y2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1074371586973193</v>
       </c>
       <c r="AA2" s="85">
-        <f>Z2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>Z2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1121560288886208</v>
       </c>
       <c r="AB2" s="85">
-        <f>AA2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AA2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1168950065286452</v>
       </c>
       <c r="AC2" s="85">
-        <f>AB2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AB2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1216541772966924</v>
       </c>
       <c r="AD2" s="85">
-        <f>AC2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AC2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.126433627237148</v>
       </c>
       <c r="AE2" s="85">
-        <f>AD2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AD2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1312334427610389</v>
       </c>
       <c r="AF2" s="85">
-        <f>AE2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AE2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1360537106475959</v>
       </c>
       <c r="AG2" s="85">
-        <f>AF2*(1+'[2]DV-CAGR'!$N$84)</f>
+        <f>AF2*(1+'[4]DV-CAGR'!$N$84)</f>
         <v>1.1408945180458219</v>
       </c>
     </row>
@@ -18635,127 +25807,127 @@
         <v>1</v>
       </c>
       <c r="C3" s="85">
-        <f>B3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>B3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.0238834681230935</v>
       </c>
       <c r="D3" s="85">
-        <f>C3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>C3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.0483373562957738</v>
       </c>
       <c r="E3" s="85">
-        <f>D3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>D3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.0733752881271121</v>
       </c>
       <c r="F3" s="85">
-        <f>E3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>E3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.0990112126052123</v>
       </c>
       <c r="G3" s="85">
-        <f>F3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>F3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.1252594118683912</v>
       </c>
       <c r="H3" s="85">
-        <f>G3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>G3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.1521345091619608</v>
       </c>
       <c r="I3" s="85">
-        <f>H3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>H3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.1796514769850466</v>
       </c>
       <c r="J3" s="85">
-        <f>I3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>I3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.2078256454319791</v>
       </c>
       <c r="K3" s="85">
-        <f>J3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>J3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.2366727107329085</v>
       </c>
       <c r="L3" s="85">
-        <f>K3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>K3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.2662087439983976</v>
       </c>
       <c r="M3" s="85">
-        <f>L3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>L3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.2964502001728655</v>
       </c>
       <c r="N3" s="85">
-        <f>M3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>M3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.3274139272018723</v>
       </c>
       <c r="O3" s="85">
-        <f>N3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>N3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.3591171754183486</v>
       </c>
       <c r="P3" s="85">
-        <f>O3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>O3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.3915776071530017</v>
       </c>
       <c r="Q3" s="85">
-        <f>P3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>P3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.4248133065742512</v>
       </c>
       <c r="R3" s="85">
-        <f>Q3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>Q3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.4588427897631768</v>
       </c>
       <c r="S3" s="85">
-        <f>R3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>R3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.4936850150290903</v>
       </c>
       <c r="T3" s="85">
-        <f>S3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>S3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.52935939347148</v>
       </c>
       <c r="U3" s="85">
-        <f>T3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>T3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.5658857997942097</v>
       </c>
       <c r="V3" s="85">
-        <f>U3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>U3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.6032845833779994</v>
       </c>
       <c r="W3" s="85">
-        <f>V3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>V3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.6415765796173551</v>
       </c>
       <c r="X3" s="85">
-        <f>W3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>W3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.6807831215282631</v>
       </c>
       <c r="Y3" s="85">
-        <f>X3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>X3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.7209260516331171</v>
       </c>
       <c r="Z3" s="85">
-        <f>Y3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>Y3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.7620277341294979</v>
       </c>
       <c r="AA3" s="85">
-        <f>Z3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>Z3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.8041110673495864</v>
       </c>
       <c r="AB3" s="85">
-        <f>AA3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AA3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.8471994965171503</v>
       </c>
       <c r="AC3" s="85">
-        <f>AB3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AB3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.8913170268092121</v>
       </c>
       <c r="AD3" s="85">
-        <f>AC3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AC3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.9364882367296739</v>
       </c>
       <c r="AE3" s="85">
-        <f>AD3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AD3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>1.9827382918023526</v>
       </c>
       <c r="AF3" s="85">
-        <f>AE3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AE3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>2.0300929585910508</v>
       </c>
       <c r="AG3" s="85">
-        <f>AF3*(1+'[2]DV-CAGR'!$N$85)</f>
+        <f>AF3*(1+'[4]DV-CAGR'!$N$85)</f>
         <v>2.0785786190544768</v>
       </c>
     </row>
@@ -19164,7 +26336,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>